--- a/OpenResultsData/Docs/ORD_Data_Spec.xlsx
+++ b/OpenResultsData/Docs/ORD_Data_Spec.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\wsl$\Ubuntu-20.04\home\joh\dev\OpenDataStandards_changes\OpenResultsData\Docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\msys64_2\home\joh\opendatastandards_branch\openresultsdata\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D2B628EC-889E-4A3B-A13E-7EFD3215A657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA781E4-8EFA-438E-8AD1-80FF209F3EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
@@ -303,9 +303,6 @@
     <t>Hour, Minute, ChanceOfLoss, MaxLoss, FootprintExposure, FootprintNumLocs, MeanImapctedExposure, MeanNumLocs, MaxImpactedExposure, MaxImpactedLoss</t>
   </si>
   <si>
-    <t>Period Average Loss Table</t>
-  </si>
-  <si>
     <t>AAL, SD</t>
   </si>
   <si>
@@ -1688,6 +1685,9 @@
   <si>
     <t>2.0.0</t>
   </si>
+  <si>
+    <t>Average Loss Table</t>
+  </si>
 </sst>
 </file>
 
@@ -1696,7 +1696,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="13" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1793,6 +1793,13 @@
       <b/>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <sz val="18"/>
+      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
@@ -1917,7 +1924,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="110">
+  <cellXfs count="111">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2200,6 +2207,7 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -2585,42 +2593,40 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="69.33203125" customWidth="1"/>
-    <col min="3" max="3" width="44.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="69.28515625" customWidth="1"/>
+    <col min="3" max="3" width="44.28515625" customWidth="1"/>
+    <col min="4" max="4" width="18.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B2" t="s">
+    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="B2" s="110" t="s">
+        <v>491</v>
+      </c>
+      <c r="C2" s="110" t="s">
         <v>492</v>
       </c>
-      <c r="C2" t="s">
-        <v>493</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2631,7 +2637,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2639,7 +2645,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2647,7 +2653,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2658,15 +2664,15 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="D14" s="4"/>
       <c r="E14" s="4"/>
@@ -2676,12 +2682,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2689,7 +2695,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2697,7 +2703,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2705,7 +2711,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2713,7 +2719,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
@@ -2721,7 +2727,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
@@ -2729,7 +2735,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
       <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2737,7 +2743,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2748,7 +2754,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2759,7 +2765,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2770,7 +2776,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2781,7 +2787,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2792,7 +2798,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2803,7 +2809,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
@@ -2837,30 +2843,30 @@
   <dimension ref="B1:H56"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.33203125" style="8" customWidth="1"/>
-    <col min="3" max="3" width="42.21875" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.21875" style="10" customWidth="1"/>
-    <col min="5" max="5" width="70.109375" style="11" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
+    <col min="3" max="3" width="42.28515625" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.140625" style="11" customWidth="1"/>
     <col min="6" max="6" width="26" style="11" customWidth="1"/>
-    <col min="7" max="7" width="24.44140625" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.6640625" style="11" customWidth="1"/>
+    <col min="7" max="7" width="24.42578125" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.7109375" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
@@ -2883,7 +2889,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="18" t="s">
         <v>35</v>
       </c>
@@ -2906,7 +2912,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B6" s="22" t="s">
         <v>35</v>
       </c>
@@ -2925,7 +2931,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
@@ -2948,7 +2954,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B8" s="22" t="s">
         <v>35</v>
       </c>
@@ -2967,7 +2973,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="22" t="s">
         <v>35</v>
       </c>
@@ -2986,7 +2992,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="2:8" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
       <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
@@ -3009,83 +3015,83 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="29" t="s">
+        <v>493</v>
+      </c>
+      <c r="D11" s="27" t="s">
+        <v>484</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>62</v>
-      </c>
-      <c r="D11" s="27" t="s">
-        <v>485</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>63</v>
       </c>
       <c r="F11" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G11" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="H11" s="28" t="s">
         <v>64</v>
       </c>
-      <c r="H11" s="28" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="12" spans="2:8" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
       <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="D12" s="27" t="s">
         <v>66</v>
       </c>
-      <c r="D12" s="27" t="s">
+      <c r="E12" s="19" t="s">
         <v>67</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>68</v>
       </c>
       <c r="F12" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G12" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="2:8" ht="50.55" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:8" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B13" s="18" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="29" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" s="27" t="s">
         <v>70</v>
       </c>
-      <c r="D13" s="27" t="s">
+      <c r="E13" s="19" t="s">
         <v>71</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>72</v>
       </c>
       <c r="F13" s="21" t="s">
         <v>39</v>
       </c>
       <c r="G13" s="21" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="D14" s="24" t="s">
+      <c r="E14" s="33" t="s">
         <v>74</v>
-      </c>
-      <c r="E14" s="33" t="s">
-        <v>75</v>
       </c>
       <c r="F14" s="34" t="s">
         <v>39</v>
@@ -3093,18 +3099,18 @@
       <c r="G14" s="34"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="23" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" s="24" t="s">
         <v>76</v>
       </c>
-      <c r="D15" s="24" t="s">
+      <c r="E15" s="33" t="s">
         <v>77</v>
-      </c>
-      <c r="E15" s="33" t="s">
-        <v>78</v>
       </c>
       <c r="F15" s="34" t="s">
         <v>45</v>
@@ -3112,18 +3118,18 @@
       <c r="G15" s="34"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B16" s="32" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="23" t="s">
+        <v>78</v>
+      </c>
+      <c r="D16" s="24" t="s">
         <v>79</v>
       </c>
-      <c r="D16" s="24" t="s">
-        <v>80</v>
-      </c>
       <c r="E16" s="33" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F16" s="34" t="s">
         <v>45</v>
@@ -3131,52 +3137,52 @@
       <c r="G16" s="34"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B17" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="C17" s="36" t="s">
         <v>81</v>
-      </c>
-      <c r="C17" s="36" t="s">
-        <v>82</v>
       </c>
       <c r="D17" s="37"/>
       <c r="E17" s="38" t="s">
+        <v>82</v>
+      </c>
+      <c r="F17" s="39" t="s">
         <v>83</v>
       </c>
-      <c r="F17" s="39" t="s">
+      <c r="G17" s="39" t="s">
         <v>84</v>
       </c>
-      <c r="G17" s="39" t="s">
+      <c r="H17" s="38"/>
+    </row>
+    <row r="18" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+      <c r="B18" s="35" t="s">
         <v>85</v>
       </c>
-      <c r="H17" s="38"/>
-    </row>
-    <row r="18" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="B18" s="35" t="s">
+      <c r="C18" s="36" t="s">
         <v>86</v>
-      </c>
-      <c r="C18" s="36" t="s">
-        <v>87</v>
       </c>
       <c r="D18" s="37"/>
       <c r="E18" s="38" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="F18" s="39" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="G18" s="39"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B19" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C19" s="38" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D19" s="37"/>
       <c r="E19" s="38" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="F19" s="39" t="s">
         <v>39</v>
@@ -3184,16 +3190,16 @@
       <c r="G19" s="39"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B20" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C20" s="38" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D20" s="37"/>
       <c r="E20" s="38" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F20" s="39" t="s">
         <v>39</v>
@@ -3201,16 +3207,16 @@
       <c r="G20" s="39"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B21" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C21" s="38" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="D21" s="37"/>
       <c r="E21" s="38" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F21" s="39" t="s">
         <v>39</v>
@@ -3218,16 +3224,16 @@
       <c r="G21" s="39"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B22" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C22" s="38" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="D22" s="37"/>
       <c r="E22" s="38" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="F22" s="39" t="s">
         <v>39</v>
@@ -3235,16 +3241,16 @@
       <c r="G22" s="39"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B23" s="35" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C23" s="38" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D23" s="37"/>
       <c r="E23" s="38" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="F23" s="39" t="s">
         <v>39</v>
@@ -3252,16 +3258,16 @@
       <c r="G23" s="39"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="2:8" s="31" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B24" s="32" t="s">
+        <v>98</v>
+      </c>
+      <c r="C24" s="33" t="s">
         <v>99</v>
-      </c>
-      <c r="C24" s="33" t="s">
-        <v>100</v>
       </c>
       <c r="D24" s="40"/>
       <c r="E24" s="33" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F24" s="34" t="s">
         <v>45</v>
@@ -3269,16 +3275,16 @@
       <c r="G24" s="34"/>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B25" s="32" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C25" s="33" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="D25" s="40"/>
       <c r="E25" s="33" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F25" s="34" t="s">
         <v>45</v>
@@ -3286,15 +3292,15 @@
       <c r="G25" s="34"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B26" s="8" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C26" s="9" t="s">
+        <v>103</v>
+      </c>
+      <c r="E26" s="9" t="s">
         <v>104</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>105</v>
       </c>
       <c r="F26" s="41" t="s">
         <v>39</v>
@@ -3302,181 +3308,181 @@
       <c r="G26" s="41"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="41"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="41"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="41"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="41"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="41"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="41"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="41"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="41"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="41"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="41"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="41"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="41"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="41"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="41"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="41"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="41"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="41"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="41"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="41"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="41"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="41"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="41"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="41"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="41"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="41"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="41"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="41"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="41"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="41"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.3">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="41"/>
@@ -3500,127 +3506,123 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="13.77734375" customWidth="1"/>
-    <col min="3" max="3" width="12.33203125" customWidth="1"/>
-    <col min="5" max="5" width="7.77734375" customWidth="1"/>
-    <col min="6" max="6" width="17.6640625" customWidth="1"/>
-    <col min="7" max="7" width="16.6640625" customWidth="1"/>
-    <col min="8" max="8" width="2.6640625" customWidth="1"/>
-    <col min="10" max="10" width="10.5546875" customWidth="1"/>
-    <col min="11" max="12" width="10.33203125" customWidth="1"/>
-    <col min="13" max="13" width="2.6640625" customWidth="1"/>
-    <col min="15" max="15" width="12.77734375" customWidth="1"/>
-    <col min="16" max="16" width="13.5546875" customWidth="1"/>
-    <col min="17" max="17" width="10.5546875" customWidth="1"/>
-    <col min="18" max="18" width="12.77734375" customWidth="1"/>
-    <col min="19" max="21" width="9.33203125" customWidth="1"/>
-    <col min="22" max="22" width="9.5546875" customWidth="1"/>
-    <col min="23" max="23" width="9.33203125" customWidth="1"/>
-    <col min="24" max="24" width="16.77734375" customWidth="1"/>
-    <col min="25" max="25" width="16.6640625" customWidth="1"/>
-    <col min="26" max="28" width="21.77734375" customWidth="1"/>
-    <col min="29" max="29" width="21.6640625" customWidth="1"/>
-    <col min="30" max="30" width="2.6640625" customWidth="1"/>
-    <col min="31" max="31" width="10.21875" customWidth="1"/>
-    <col min="32" max="32" width="12.77734375" customWidth="1"/>
-    <col min="33" max="39" width="10.21875" customWidth="1"/>
-    <col min="40" max="40" width="9.77734375" customWidth="1"/>
-    <col min="42" max="42" width="18.44140625" customWidth="1"/>
-    <col min="43" max="43" width="18.33203125" customWidth="1"/>
-    <col min="44" max="44" width="2.6640625" customWidth="1"/>
-    <col min="46" max="46" width="12.77734375" customWidth="1"/>
-    <col min="53" max="53" width="11.33203125" customWidth="1"/>
-    <col min="56" max="56" width="2.6640625" customWidth="1"/>
-    <col min="57" max="57" width="8.6640625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="13.7109375" customWidth="1"/>
+    <col min="3" max="3" width="12.28515625" customWidth="1"/>
+    <col min="5" max="5" width="7.7109375" customWidth="1"/>
+    <col min="6" max="6" width="17.7109375" customWidth="1"/>
+    <col min="7" max="7" width="16.7109375" customWidth="1"/>
+    <col min="8" max="8" width="2.7109375" customWidth="1"/>
+    <col min="10" max="10" width="10.5703125" customWidth="1"/>
+    <col min="11" max="12" width="10.28515625" customWidth="1"/>
+    <col min="13" max="13" width="2.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.7109375" customWidth="1"/>
+    <col min="16" max="16" width="13.5703125" customWidth="1"/>
+    <col min="17" max="17" width="10.5703125" customWidth="1"/>
+    <col min="18" max="18" width="12.7109375" customWidth="1"/>
+    <col min="19" max="21" width="9.28515625" customWidth="1"/>
+    <col min="22" max="22" width="9.5703125" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+    <col min="24" max="25" width="16.7109375" customWidth="1"/>
+    <col min="26" max="29" width="21.7109375" customWidth="1"/>
+    <col min="30" max="30" width="2.7109375" customWidth="1"/>
+    <col min="31" max="31" width="10.28515625" customWidth="1"/>
+    <col min="32" max="32" width="12.7109375" customWidth="1"/>
+    <col min="33" max="39" width="10.28515625" customWidth="1"/>
+    <col min="40" max="40" width="9.7109375" customWidth="1"/>
+    <col min="42" max="42" width="18.42578125" customWidth="1"/>
+    <col min="43" max="43" width="18.28515625" customWidth="1"/>
+    <col min="44" max="44" width="2.7109375" customWidth="1"/>
+    <col min="46" max="46" width="12.7109375" customWidth="1"/>
+    <col min="53" max="53" width="11.28515625" customWidth="1"/>
+    <col min="56" max="56" width="2.7109375" customWidth="1"/>
+    <col min="57" max="57" width="8.7109375" customWidth="1"/>
     <col min="58" max="58" width="12" customWidth="1"/>
-    <col min="59" max="64" width="8.6640625" customWidth="1"/>
-    <col min="65" max="65" width="12.21875" customWidth="1"/>
-    <col min="66" max="66" width="14.44140625" customWidth="1"/>
-    <col min="67" max="67" width="12.77734375" customWidth="1"/>
-    <col min="68" max="68" width="9.33203125" customWidth="1"/>
-    <col min="69" max="69" width="8.6640625" customWidth="1"/>
-    <col min="70" max="70" width="9.33203125" customWidth="1"/>
-    <col min="71" max="71" width="9.5546875" customWidth="1"/>
-    <col min="72" max="72" width="8.6640625" customWidth="1"/>
-    <col min="73" max="73" width="16.77734375" customWidth="1"/>
-    <col min="74" max="74" width="17.33203125" customWidth="1"/>
-    <col min="75" max="77" width="21.77734375" customWidth="1"/>
-    <col min="78" max="78" width="21.6640625" customWidth="1"/>
-    <col min="79" max="79" width="2.6640625" customWidth="1"/>
-    <col min="80" max="80" width="11.33203125" customWidth="1"/>
-    <col min="81" max="81" width="11.6640625" customWidth="1"/>
-    <col min="84" max="84" width="14.33203125" customWidth="1"/>
-    <col min="85" max="85" width="14.44140625" customWidth="1"/>
-    <col min="86" max="86" width="2.6640625" customWidth="1"/>
-    <col min="87" max="87" width="22.5546875" customWidth="1"/>
-    <col min="88" max="89" width="12.33203125" customWidth="1"/>
-    <col min="90" max="90" width="12.6640625" customWidth="1"/>
-    <col min="91" max="91" width="10.5546875" customWidth="1"/>
-    <col min="92" max="92" width="2.6640625" customWidth="1"/>
-    <col min="93" max="94" width="14.44140625" customWidth="1"/>
-    <col min="95" max="95" width="10.6640625" customWidth="1"/>
-    <col min="96" max="96" width="13.77734375" customWidth="1"/>
+    <col min="59" max="64" width="8.7109375" customWidth="1"/>
+    <col min="65" max="65" width="12.28515625" customWidth="1"/>
+    <col min="66" max="66" width="14.42578125" customWidth="1"/>
+    <col min="67" max="67" width="12.7109375" customWidth="1"/>
+    <col min="68" max="68" width="9.28515625" customWidth="1"/>
+    <col min="69" max="69" width="8.7109375" customWidth="1"/>
+    <col min="70" max="70" width="9.28515625" customWidth="1"/>
+    <col min="71" max="71" width="9.5703125" customWidth="1"/>
+    <col min="72" max="72" width="8.7109375" customWidth="1"/>
+    <col min="73" max="73" width="16.7109375" customWidth="1"/>
+    <col min="74" max="74" width="17.28515625" customWidth="1"/>
+    <col min="75" max="78" width="21.7109375" customWidth="1"/>
+    <col min="79" max="79" width="2.7109375" customWidth="1"/>
+    <col min="80" max="80" width="11.28515625" customWidth="1"/>
+    <col min="81" max="81" width="11.7109375" customWidth="1"/>
+    <col min="84" max="84" width="14.28515625" customWidth="1"/>
+    <col min="85" max="85" width="14.42578125" customWidth="1"/>
+    <col min="86" max="86" width="2.7109375" customWidth="1"/>
+    <col min="87" max="87" width="22.5703125" customWidth="1"/>
+    <col min="88" max="89" width="12.28515625" customWidth="1"/>
+    <col min="90" max="90" width="12.7109375" customWidth="1"/>
+    <col min="91" max="91" width="10.5703125" customWidth="1"/>
+    <col min="92" max="92" width="2.7109375" customWidth="1"/>
+    <col min="93" max="94" width="14.42578125" customWidth="1"/>
+    <col min="95" max="95" width="10.7109375" customWidth="1"/>
+    <col min="96" max="96" width="13.7109375" customWidth="1"/>
     <col min="97" max="97" width="12" customWidth="1"/>
-    <col min="98" max="98" width="2.6640625" customWidth="1"/>
-    <col min="99" max="99" width="12.5546875" customWidth="1"/>
-    <col min="100" max="100" width="11.5546875" customWidth="1"/>
+    <col min="98" max="98" width="2.7109375" customWidth="1"/>
+    <col min="99" max="99" width="12.5703125" customWidth="1"/>
+    <col min="100" max="100" width="11.5703125" customWidth="1"/>
     <col min="101" max="101" width="14" customWidth="1"/>
-    <col min="103" max="103" width="9.33203125" customWidth="1"/>
-    <col min="104" max="104" width="12.5546875" customWidth="1"/>
-    <col min="105" max="105" width="2.6640625" customWidth="1"/>
-    <col min="106" max="107" width="13.77734375" customWidth="1"/>
-    <col min="108" max="108" width="13.6640625" customWidth="1"/>
-    <col min="109" max="110" width="15.33203125" customWidth="1"/>
-    <col min="111" max="111" width="17.44140625" customWidth="1"/>
-    <col min="112" max="112" width="17.6640625" customWidth="1"/>
-    <col min="113" max="113" width="2.6640625" customWidth="1"/>
-    <col min="114" max="114" width="14.21875" customWidth="1"/>
-    <col min="115" max="115" width="24.88671875" customWidth="1"/>
-    <col min="116" max="116" width="14.6640625" customWidth="1"/>
-    <col min="117" max="117" width="14.44140625" customWidth="1"/>
+    <col min="103" max="103" width="9.28515625" customWidth="1"/>
+    <col min="104" max="104" width="12.5703125" customWidth="1"/>
+    <col min="105" max="105" width="2.7109375" customWidth="1"/>
+    <col min="106" max="108" width="13.7109375" customWidth="1"/>
+    <col min="109" max="110" width="15.28515625" customWidth="1"/>
+    <col min="111" max="111" width="17.42578125" customWidth="1"/>
+    <col min="112" max="112" width="17.7109375" customWidth="1"/>
+    <col min="113" max="113" width="2.7109375" customWidth="1"/>
+    <col min="114" max="114" width="14.28515625" customWidth="1"/>
+    <col min="115" max="115" width="24.85546875" customWidth="1"/>
+    <col min="116" max="116" width="14.7109375" customWidth="1"/>
+    <col min="117" max="117" width="14.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:117" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:117" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="2" spans="2:117" ht="14.65" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B2" s="42"/>
+    </row>
+    <row r="3" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="2" spans="2:117" ht="14.55" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="B2" s="42"/>
-    </row>
-    <row r="3" spans="2:117" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="5" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B5" s="43"/>
     </row>
-    <row r="6" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B6" s="43"/>
     </row>
-    <row r="9" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="CI9" s="43"/>
     </row>
-    <row r="11" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B11" s="44" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C11" s="44"/>
       <c r="I11" s="44" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="J11" s="44"/>
       <c r="N11" s="44" t="s">
+        <v>109</v>
+      </c>
+      <c r="AE11" s="44" t="s">
         <v>110</v>
-      </c>
-      <c r="AE11" s="44" t="s">
-        <v>111</v>
       </c>
       <c r="AF11" s="44"/>
       <c r="AG11" s="44"/>
@@ -3631,7 +3633,7 @@
       <c r="AL11" s="44"/>
       <c r="AM11" s="44"/>
       <c r="AS11" s="44" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="AT11" s="44"/>
       <c r="AU11" s="44"/>
@@ -3642,7 +3644,7 @@
       <c r="AZ11" s="44"/>
       <c r="BA11" s="44"/>
       <c r="BE11" s="44" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="BF11" s="44"/>
       <c r="BG11" s="44"/>
@@ -3656,28 +3658,28 @@
       <c r="BO11" s="44"/>
       <c r="BP11" s="44"/>
       <c r="CB11" s="44" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="CI11" s="44" t="s">
+        <v>113</v>
+      </c>
+      <c r="CO11" s="44" t="s">
         <v>114</v>
-      </c>
-      <c r="CO11" s="44" t="s">
-        <v>115</v>
       </c>
       <c r="CP11" s="44"/>
       <c r="CU11" s="44" t="s">
+        <v>115</v>
+      </c>
+      <c r="DB11" s="44" t="s">
         <v>116</v>
       </c>
-      <c r="DB11" s="44" t="s">
+      <c r="DJ11" s="44" t="s">
         <v>117</v>
       </c>
-      <c r="DJ11" s="44" t="s">
+    </row>
+    <row r="12" spans="2:117" x14ac:dyDescent="0.25">
+      <c r="B12" s="6" t="s">
         <v>118</v>
-      </c>
-    </row>
-    <row r="12" spans="2:117" x14ac:dyDescent="0.3">
-      <c r="B12" s="6" t="s">
-        <v>119</v>
       </c>
       <c r="C12" s="44"/>
       <c r="I12" s="6"/>
@@ -3715,13 +3717,13 @@
       <c r="BO12" s="44"/>
       <c r="BP12" s="44"/>
       <c r="CI12" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="CO12" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="13" spans="2:117" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="13" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="I13" s="44"/>
@@ -3784,376 +3786,376 @@
       <c r="BZ13" s="46"/>
       <c r="CF13" s="43"/>
       <c r="CI13" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="DC13" s="43"/>
       <c r="DE13" s="43"/>
       <c r="DL13" s="43"/>
     </row>
-    <row r="14" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B14" s="47" t="s">
+        <v>120</v>
+      </c>
+      <c r="I14" s="47" t="s">
         <v>121</v>
       </c>
-      <c r="I14" s="47" t="s">
+      <c r="N14" s="47" t="s">
         <v>122</v>
       </c>
-      <c r="N14" s="47" t="s">
+      <c r="AE14" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="AS14" s="47" t="s">
+        <v>121</v>
+      </c>
+      <c r="BE14" s="47" t="s">
         <v>123</v>
       </c>
-      <c r="AE14" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="AS14" s="47" t="s">
-        <v>122</v>
-      </c>
-      <c r="BE14" s="47" t="s">
+      <c r="CB14" s="47" t="s">
         <v>124</v>
-      </c>
-      <c r="CB14" s="47" t="s">
-        <v>125</v>
       </c>
       <c r="CF14" s="43"/>
       <c r="CG14" s="43"/>
       <c r="CI14" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CO14" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="CU14" s="47" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="DB14" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DC14" s="43"/>
       <c r="DD14" s="43"/>
       <c r="DE14" s="43"/>
       <c r="DF14" s="43"/>
       <c r="DJ14" s="47" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="DL14" s="43"/>
       <c r="DM14" s="43"/>
     </row>
-    <row r="15" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B15" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="C15" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="D15" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="D15" s="49" t="s">
+      <c r="E15" s="49" t="s">
         <v>129</v>
       </c>
-      <c r="E15" s="49" t="s">
+      <c r="F15" s="49" t="s">
         <v>130</v>
       </c>
-      <c r="F15" s="49" t="s">
+      <c r="G15" s="50" t="s">
         <v>131</v>
       </c>
-      <c r="G15" s="50" t="s">
+      <c r="I15" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="J15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="K15" s="49" t="s">
         <v>132</v>
       </c>
-      <c r="I15" s="48" t="s">
+      <c r="L15" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="N15" s="48" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" s="49" t="s">
         <v>127</v>
       </c>
-      <c r="J15" s="49" t="s">
+      <c r="P15" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="Q15" s="49" t="s">
+        <v>134</v>
+      </c>
+      <c r="R15" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="S15" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="T15" s="51" t="s">
+        <v>137</v>
+      </c>
+      <c r="U15" s="51" t="s">
+        <v>138</v>
+      </c>
+      <c r="V15" s="51" t="s">
+        <v>139</v>
+      </c>
+      <c r="W15" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="X15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="Y15" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="Z15" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="AA15" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="AB15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="AC15" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="AE15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AF15" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AG15" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AH15" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AI15" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AJ15" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AK15" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AL15" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="AM15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="AN15" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="K15" s="49" t="s">
+      <c r="AO15" s="49" t="s">
+        <v>129</v>
+      </c>
+      <c r="AP15" s="49" t="s">
+        <v>130</v>
+      </c>
+      <c r="AQ15" s="50" t="s">
+        <v>131</v>
+      </c>
+      <c r="AS15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="AT15" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="AU15" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="AV15" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="AW15" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="AX15" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="AY15" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="AZ15" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="BA15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BB15" s="49" t="s">
+        <v>132</v>
+      </c>
+      <c r="BC15" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="BE15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BF15" s="49" t="s">
+        <v>148</v>
+      </c>
+      <c r="BG15" s="49" t="s">
+        <v>126</v>
+      </c>
+      <c r="BH15" s="49" t="s">
+        <v>149</v>
+      </c>
+      <c r="BI15" s="49" t="s">
+        <v>150</v>
+      </c>
+      <c r="BJ15" s="49" t="s">
+        <v>151</v>
+      </c>
+      <c r="BK15" s="49" t="s">
+        <v>152</v>
+      </c>
+      <c r="BL15" s="49" t="s">
+        <v>153</v>
+      </c>
+      <c r="BM15" s="49" t="s">
+        <v>127</v>
+      </c>
+      <c r="BN15" s="49" t="s">
         <v>133</v>
       </c>
-      <c r="L15" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="N15" s="48" t="s">
+      <c r="BO15" s="49" t="s">
+        <v>135</v>
+      </c>
+      <c r="BP15" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="BQ15" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="BR15" s="49" t="s">
+        <v>138</v>
+      </c>
+      <c r="BS15" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="BT15" s="49" t="s">
+        <v>140</v>
+      </c>
+      <c r="BU15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="BV15" s="49" t="s">
+        <v>142</v>
+      </c>
+      <c r="BW15" s="49" t="s">
+        <v>143</v>
+      </c>
+      <c r="BX15" s="49" t="s">
+        <v>144</v>
+      </c>
+      <c r="BY15" s="49" t="s">
+        <v>145</v>
+      </c>
+      <c r="BZ15" s="50" t="s">
+        <v>146</v>
+      </c>
+      <c r="CB15" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="O15" s="49" t="s">
+      <c r="CC15" s="49" t="s">
+        <v>133</v>
+      </c>
+      <c r="CD15" s="49" t="s">
+        <v>136</v>
+      </c>
+      <c r="CE15" s="49" t="s">
+        <v>137</v>
+      </c>
+      <c r="CF15" s="51" t="s">
+        <v>154</v>
+      </c>
+      <c r="CG15" s="52" t="s">
+        <v>155</v>
+      </c>
+      <c r="CI15" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="CJ15" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="CK15" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="CL15" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="CM15" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="CO15" s="48" t="s">
+        <v>127</v>
+      </c>
+      <c r="CP15" s="49" t="s">
         <v>128</v>
       </c>
-      <c r="P15" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="Q15" s="49" t="s">
-        <v>135</v>
-      </c>
-      <c r="R15" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="S15" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="T15" s="51" t="s">
-        <v>138</v>
-      </c>
-      <c r="U15" s="51" t="s">
-        <v>139</v>
-      </c>
-      <c r="V15" s="51" t="s">
-        <v>140</v>
-      </c>
-      <c r="W15" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="X15" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="Y15" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="Z15" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="AA15" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="AB15" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="AC15" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="AE15" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AF15" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AG15" s="49" t="s">
+      <c r="CQ15" s="49" t="s">
+        <v>157</v>
+      </c>
+      <c r="CR15" s="49" t="s">
+        <v>158</v>
+      </c>
+      <c r="CS15" s="50" t="s">
+        <v>129</v>
+      </c>
+      <c r="CU15" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="CV15" s="49" t="s">
+        <v>160</v>
+      </c>
+      <c r="CW15" s="49" t="s">
+        <v>161</v>
+      </c>
+      <c r="CX15" s="49" t="s">
+        <v>162</v>
+      </c>
+      <c r="CY15" s="49" t="s">
+        <v>163</v>
+      </c>
+      <c r="CZ15" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="DB15" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AH15" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AI15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="AJ15" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="AK15" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AL15" s="49" t="s">
+      <c r="DC15" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="AM15" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="AN15" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="AO15" s="49" t="s">
-        <v>130</v>
-      </c>
-      <c r="AP15" s="49" t="s">
-        <v>131</v>
-      </c>
-      <c r="AQ15" s="50" t="s">
-        <v>132</v>
-      </c>
-      <c r="AS15" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="AT15" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="AU15" s="49" t="s">
+      <c r="DD15" s="51" t="s">
+        <v>155</v>
+      </c>
+      <c r="DE15" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="DF15" s="51" t="s">
+        <v>166</v>
+      </c>
+      <c r="DG15" s="49" t="s">
+        <v>167</v>
+      </c>
+      <c r="DH15" s="50" t="s">
+        <v>168</v>
+      </c>
+      <c r="DJ15" s="48" t="s">
         <v>127</v>
       </c>
-      <c r="AV15" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="AW15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="AX15" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="AY15" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="AZ15" s="49" t="s">
+      <c r="DK15" s="49" t="s">
+        <v>164</v>
+      </c>
+      <c r="DL15" s="51" t="s">
         <v>154</v>
       </c>
-      <c r="BA15" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="BB15" s="49" t="s">
-        <v>133</v>
-      </c>
-      <c r="BC15" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="BE15" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="BF15" s="49" t="s">
-        <v>149</v>
-      </c>
-      <c r="BG15" s="49" t="s">
-        <v>127</v>
-      </c>
-      <c r="BH15" s="49" t="s">
-        <v>150</v>
-      </c>
-      <c r="BI15" s="49" t="s">
-        <v>151</v>
-      </c>
-      <c r="BJ15" s="49" t="s">
-        <v>152</v>
-      </c>
-      <c r="BK15" s="49" t="s">
-        <v>153</v>
-      </c>
-      <c r="BL15" s="49" t="s">
-        <v>154</v>
-      </c>
-      <c r="BM15" s="49" t="s">
-        <v>128</v>
-      </c>
-      <c r="BN15" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="BO15" s="49" t="s">
-        <v>136</v>
-      </c>
-      <c r="BP15" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="BQ15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="BR15" s="49" t="s">
-        <v>139</v>
-      </c>
-      <c r="BS15" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="BT15" s="49" t="s">
-        <v>141</v>
-      </c>
-      <c r="BU15" s="49" t="s">
-        <v>142</v>
-      </c>
-      <c r="BV15" s="49" t="s">
-        <v>143</v>
-      </c>
-      <c r="BW15" s="49" t="s">
-        <v>144</v>
-      </c>
-      <c r="BX15" s="49" t="s">
-        <v>145</v>
-      </c>
-      <c r="BY15" s="49" t="s">
-        <v>146</v>
-      </c>
-      <c r="BZ15" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="CB15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="CC15" s="49" t="s">
-        <v>134</v>
-      </c>
-      <c r="CD15" s="49" t="s">
-        <v>137</v>
-      </c>
-      <c r="CE15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="CF15" s="51" t="s">
+      <c r="DM15" s="52" t="s">
         <v>155</v>
       </c>
-      <c r="CG15" s="52" t="s">
-        <v>156</v>
-      </c>
-      <c r="CI15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="CJ15" s="49" t="s">
-        <v>157</v>
-      </c>
-      <c r="CK15" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="CL15" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="CM15" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="CO15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="CP15" s="49" t="s">
-        <v>129</v>
-      </c>
-      <c r="CQ15" s="49" t="s">
-        <v>158</v>
-      </c>
-      <c r="CR15" s="49" t="s">
-        <v>159</v>
-      </c>
-      <c r="CS15" s="50" t="s">
-        <v>130</v>
-      </c>
-      <c r="CU15" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="CV15" s="49" t="s">
-        <v>161</v>
-      </c>
-      <c r="CW15" s="49" t="s">
-        <v>162</v>
-      </c>
-      <c r="CX15" s="49" t="s">
-        <v>163</v>
-      </c>
-      <c r="CY15" s="49" t="s">
-        <v>164</v>
-      </c>
-      <c r="CZ15" s="50" t="s">
-        <v>165</v>
-      </c>
-      <c r="DB15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="DC15" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="DD15" s="51" t="s">
-        <v>156</v>
-      </c>
-      <c r="DE15" s="51" t="s">
-        <v>166</v>
-      </c>
-      <c r="DF15" s="51" t="s">
-        <v>167</v>
-      </c>
-      <c r="DG15" s="49" t="s">
-        <v>168</v>
-      </c>
-      <c r="DH15" s="50" t="s">
-        <v>169</v>
-      </c>
-      <c r="DJ15" s="48" t="s">
-        <v>128</v>
-      </c>
-      <c r="DK15" s="49" t="s">
-        <v>165</v>
-      </c>
-      <c r="DL15" s="51" t="s">
-        <v>155</v>
-      </c>
-      <c r="DM15" s="52" t="s">
-        <v>156</v>
-      </c>
-    </row>
-    <row r="16" spans="2:117" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B16" s="53">
         <v>1004</v>
       </c>
@@ -4303,12 +4305,12 @@
         <v>1</v>
       </c>
       <c r="DK16" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DL16" s="57"/>
       <c r="DM16" s="58"/>
     </row>
-    <row r="17" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B17" s="53">
         <v>1004</v>
       </c>
@@ -4458,12 +4460,12 @@
         <v>1</v>
       </c>
       <c r="DK17" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DL17" s="57"/>
       <c r="DM17" s="58"/>
     </row>
-    <row r="18" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B18" s="53">
         <v>1004</v>
       </c>
@@ -4613,12 +4615,12 @@
         <v>1</v>
       </c>
       <c r="DK18" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DL18" s="57"/>
       <c r="DM18" s="58"/>
     </row>
-    <row r="19" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B19" s="59">
         <v>1004</v>
       </c>
@@ -4735,12 +4737,12 @@
         <v>2</v>
       </c>
       <c r="DK19" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DL19" s="57"/>
       <c r="DM19" s="58"/>
     </row>
-    <row r="20" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B20" s="59">
         <v>1004</v>
       </c>
@@ -4857,12 +4859,12 @@
         <v>2</v>
       </c>
       <c r="DK20" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DL20" s="57"/>
       <c r="DM20" s="58"/>
     </row>
-    <row r="21" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B21" s="59">
         <v>1004</v>
       </c>
@@ -4956,12 +4958,12 @@
         <v>2</v>
       </c>
       <c r="DK21" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DL21" s="57"/>
       <c r="DM21" s="58"/>
     </row>
-    <row r="22" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B22" s="53">
         <v>2065</v>
       </c>
@@ -5055,12 +5057,12 @@
         <v>3</v>
       </c>
       <c r="DK22" s="57" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="DL22" s="57"/>
       <c r="DM22" s="58"/>
     </row>
-    <row r="23" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B23" s="53">
         <v>2065</v>
       </c>
@@ -5154,12 +5156,12 @@
         <v>3</v>
       </c>
       <c r="DK23" s="57" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="DL23" s="57"/>
       <c r="DM23" s="58"/>
     </row>
-    <row r="24" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B24" s="53">
         <v>2065</v>
       </c>
@@ -5253,12 +5255,12 @@
         <v>3</v>
       </c>
       <c r="DK24" s="57" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="DL24" s="57"/>
       <c r="DM24" s="58"/>
     </row>
-    <row r="25" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B25" s="53">
         <v>2065</v>
       </c>
@@ -5352,10 +5354,10 @@
         <v>3</v>
       </c>
       <c r="DK25" s="61" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="26" spans="2:117" x14ac:dyDescent="0.3">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="26" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B26" s="59">
         <v>2065</v>
       </c>
@@ -5446,7 +5448,7 @@
       <c r="DG26" s="57"/>
       <c r="DH26" s="58"/>
     </row>
-    <row r="27" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B27" s="59">
         <v>2065</v>
       </c>
@@ -5526,7 +5528,7 @@
       <c r="CY27" s="57"/>
       <c r="CZ27" s="58"/>
     </row>
-    <row r="28" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B28" s="59">
         <v>4054</v>
       </c>
@@ -5571,7 +5573,7 @@
       <c r="BC28" s="58"/>
       <c r="CP28" s="24"/>
     </row>
-    <row r="29" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B29" s="59">
         <v>4054</v>
       </c>
@@ -5616,7 +5618,7 @@
       <c r="BC29" s="58"/>
       <c r="CP29" s="24"/>
     </row>
-    <row r="30" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B30" s="53">
         <v>4054</v>
       </c>
@@ -5661,7 +5663,7 @@
       <c r="BC30" s="58"/>
       <c r="CP30" s="24"/>
     </row>
-    <row r="31" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:117" x14ac:dyDescent="0.25">
       <c r="B31" s="53">
         <v>4054</v>
       </c>
@@ -5706,7 +5708,7 @@
       <c r="BC31" s="58"/>
       <c r="CP31" s="24"/>
     </row>
-    <row r="32" spans="2:117" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:117" x14ac:dyDescent="0.25">
       <c r="AE32" s="59">
         <v>5</v>
       </c>
@@ -5743,7 +5745,7 @@
       <c r="BC32" s="58"/>
       <c r="CP32" s="24"/>
     </row>
-    <row r="33" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE33" s="59">
         <v>5</v>
       </c>
@@ -5781,7 +5783,7 @@
       <c r="CP33" s="24"/>
       <c r="DB33" s="43"/>
     </row>
-    <row r="34" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE34" s="59">
         <v>5</v>
       </c>
@@ -5820,7 +5822,7 @@
       <c r="DB34" s="43"/>
       <c r="DC34" s="43"/>
     </row>
-    <row r="35" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE35" s="59">
         <v>5</v>
       </c>
@@ -5859,7 +5861,7 @@
       <c r="DB35" s="43"/>
       <c r="DC35" s="43"/>
     </row>
-    <row r="36" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE36" s="59">
         <v>5</v>
       </c>
@@ -5883,7 +5885,7 @@
       <c r="DB36" s="43"/>
       <c r="DC36" s="43"/>
     </row>
-    <row r="37" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE37" s="59">
         <v>5</v>
       </c>
@@ -5907,7 +5909,7 @@
       <c r="DB37" s="43"/>
       <c r="DC37" s="43"/>
     </row>
-    <row r="38" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE38" s="59">
         <v>10</v>
       </c>
@@ -5929,7 +5931,7 @@
       <c r="AT38" s="57"/>
       <c r="CP38" s="24"/>
     </row>
-    <row r="39" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE39" s="59">
         <v>10</v>
       </c>
@@ -5951,7 +5953,7 @@
       <c r="AT39" s="57"/>
       <c r="CP39" s="24"/>
     </row>
-    <row r="40" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE40" s="59">
         <v>10</v>
       </c>
@@ -5973,7 +5975,7 @@
       <c r="AT40" s="57"/>
       <c r="CP40" s="24"/>
     </row>
-    <row r="41" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:107" x14ac:dyDescent="0.25">
       <c r="B41" s="44"/>
       <c r="AE41" s="59">
         <v>10</v>
@@ -5995,7 +5997,7 @@
       <c r="AS41" s="57"/>
       <c r="AT41" s="57"/>
     </row>
-    <row r="42" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE42" s="59">
         <v>10</v>
       </c>
@@ -6016,7 +6018,7 @@
       <c r="AS42" s="57"/>
       <c r="AT42" s="57"/>
     </row>
-    <row r="43" spans="2:107" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:107" x14ac:dyDescent="0.25">
       <c r="AE43" s="59">
         <v>10</v>
       </c>
@@ -6037,7 +6039,7 @@
       <c r="AS43" s="57"/>
       <c r="AT43" s="57"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B53" s="44"/>
     </row>
   </sheetData>
@@ -6054,289 +6056,289 @@
   <dimension ref="A1:AMJ157"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="B36" sqref="B36"/>
+      <selection activeCell="D20" sqref="D20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46.21875" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.44140625" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.77734375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="39.6640625" style="62" customWidth="1"/>
-    <col min="7" max="7" width="41.77734375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="37.33203125" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.44140625" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.6640625" style="31"/>
-    <col min="11" max="11" width="16.77734375" style="31" customWidth="1"/>
-    <col min="12" max="1024" width="8.6640625" style="31"/>
+    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
+    <col min="3" max="3" width="46.28515625" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.42578125" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.7109375" style="11" customWidth="1"/>
+    <col min="6" max="6" width="39.7109375" style="62" customWidth="1"/>
+    <col min="7" max="7" width="41.7109375" style="9" customWidth="1"/>
+    <col min="8" max="8" width="37.28515625" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.42578125" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.7109375" style="31"/>
+    <col min="11" max="11" width="16.7109375" style="31" customWidth="1"/>
+    <col min="12" max="1024" width="8.7109375" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
       <c r="B1" s="63" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="63"/>
+    </row>
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B3" s="64"/>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" s="65" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="63"/>
-    </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B3" s="64"/>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B4" s="65" t="s">
+      <c r="C4" s="11" t="s">
         <v>175</v>
       </c>
-      <c r="C4" s="11" t="s">
-        <v>176</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="31"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="7" spans="2:9" s="66" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:9" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B7" s="67" t="s">
         <v>28</v>
       </c>
       <c r="C7" s="67" t="s">
+        <v>176</v>
+      </c>
+      <c r="D7" s="67" t="s">
         <v>177</v>
       </c>
-      <c r="D7" s="67" t="s">
+      <c r="E7" s="67" t="s">
         <v>178</v>
       </c>
-      <c r="E7" s="67" t="s">
+      <c r="F7" s="68" t="s">
         <v>179</v>
       </c>
-      <c r="F7" s="68" t="s">
+      <c r="G7" s="69" t="s">
         <v>180</v>
       </c>
-      <c r="G7" s="69" t="s">
+      <c r="H7" s="67" t="s">
         <v>181</v>
       </c>
-      <c r="H7" s="67" t="s">
+      <c r="I7" s="69" t="s">
         <v>182</v>
       </c>
-      <c r="I7" s="69" t="s">
-        <v>183</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F8" s="62" t="s">
+        <v>183</v>
+      </c>
+      <c r="G8" s="9" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="9" t="s">
-        <v>185</v>
-      </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="F9" s="62" t="s">
+        <v>185</v>
+      </c>
+      <c r="G9" s="9" t="s">
         <v>186</v>
       </c>
-      <c r="G9" s="9" t="s">
+      <c r="H9" s="9" t="s">
         <v>187</v>
       </c>
-      <c r="H9" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="F10" s="62" t="s">
+        <v>188</v>
+      </c>
+      <c r="G10" s="9" t="s">
         <v>189</v>
       </c>
-      <c r="G10" s="9" t="s">
-        <v>190</v>
-      </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="F11" s="62" t="s">
+        <v>190</v>
+      </c>
+      <c r="G11" s="9" t="s">
         <v>191</v>
       </c>
-      <c r="G11" s="9" t="s">
-        <v>192</v>
-      </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C12" s="11" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="D12" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E12" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F12" s="62" t="s">
+        <v>192</v>
+      </c>
+      <c r="G12" s="9" t="s">
         <v>193</v>
       </c>
-      <c r="G12" s="9" t="s">
-        <v>194</v>
-      </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="F15" s="62" t="s">
+        <v>199</v>
+      </c>
+      <c r="G15" s="9" t="s">
         <v>200</v>
       </c>
-      <c r="G15" s="9" t="s">
+      <c r="H15" s="9" t="s">
         <v>201</v>
       </c>
-      <c r="H15" s="9" t="s">
-        <v>202</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="F16" s="62" t="s">
+        <v>203</v>
+      </c>
+      <c r="G16" s="9" t="s">
         <v>204</v>
       </c>
-      <c r="G16" s="9" t="s">
-        <v>205</v>
-      </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="F17" s="62" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -6347,168 +6349,168 @@
         <v>4</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="G18" s="9" t="s">
+        <v>186</v>
+      </c>
+      <c r="H18" s="9" t="s">
         <v>187</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="F19" s="62" t="s">
+        <v>208</v>
+      </c>
+      <c r="G19" s="9" t="s">
         <v>209</v>
       </c>
-      <c r="G19" s="9" t="s">
-        <v>210</v>
-      </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="F20" s="62" t="s">
+        <v>211</v>
+      </c>
+      <c r="G20" s="9" t="s">
         <v>212</v>
       </c>
-      <c r="G20" s="9" t="s">
-        <v>213</v>
-      </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="F21" s="62" t="s">
+        <v>213</v>
+      </c>
+      <c r="G21" s="9" t="s">
         <v>214</v>
       </c>
-      <c r="G21" s="9" t="s">
-        <v>215</v>
-      </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="F22" s="62" t="s">
+        <v>215</v>
+      </c>
+      <c r="G22" s="9" t="s">
         <v>216</v>
       </c>
-      <c r="G22" s="9" t="s">
-        <v>217</v>
-      </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="F23" s="62" t="s">
+        <v>217</v>
+      </c>
+      <c r="G23" s="9" t="s">
         <v>218</v>
       </c>
-      <c r="G23" s="9" t="s">
-        <v>219</v>
-      </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="F24" s="71"/>
       <c r="G24" s="9" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="F25" s="71"/>
       <c r="G25" s="9" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="100.8" x14ac:dyDescent="0.3">
+    <row r="26" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
@@ -6519,1140 +6521,1140 @@
         <v>4</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G26" s="9" t="s">
+        <v>221</v>
+      </c>
+      <c r="H26" s="9" t="s">
         <v>222</v>
-      </c>
-      <c r="H26" s="9" t="s">
-        <v>223</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B27" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C27" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D27" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E27" s="62" t="s">
+        <v>224</v>
+      </c>
+      <c r="G27" s="62" t="s">
         <v>225</v>
       </c>
-      <c r="G27" s="62" t="s">
+      <c r="H27" s="38" t="s">
         <v>226</v>
-      </c>
-      <c r="H27" s="38" t="s">
-        <v>227</v>
       </c>
       <c r="I27" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B28" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C28" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D28" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E28" s="62" t="s">
+        <v>227</v>
+      </c>
+      <c r="G28" s="62" t="s">
         <v>228</v>
       </c>
-      <c r="G28" s="62" t="s">
+      <c r="H28" s="38" t="s">
         <v>229</v>
-      </c>
-      <c r="H28" s="38" t="s">
-        <v>230</v>
       </c>
       <c r="I28" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B29" s="62" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C29" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D29" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E29" s="62" t="s">
+        <v>230</v>
+      </c>
+      <c r="G29" s="62" t="s">
         <v>231</v>
       </c>
-      <c r="G29" s="62" t="s">
+      <c r="H29" s="38" t="s">
         <v>232</v>
-      </c>
-      <c r="H29" s="38" t="s">
-        <v>233</v>
       </c>
       <c r="I29" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B30" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C30" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E30" s="70" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="F30" s="72"/>
       <c r="G30" s="9" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C31" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E31" s="70" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F31" s="72"/>
       <c r="G31" s="9" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C32" s="70" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B33" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C33" s="70" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D33" s="73" t="s">
         <v>4</v>
       </c>
       <c r="E33" s="73" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G33" s="38" t="s">
+        <v>237</v>
+      </c>
+      <c r="H33" s="74" t="s">
         <v>238</v>
-      </c>
-      <c r="H33" s="74" t="s">
-        <v>239</v>
       </c>
       <c r="I33" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B34" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C34" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D34" s="73" t="s">
         <v>4</v>
       </c>
       <c r="E34" s="73" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="G34" s="38" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="H34" s="38"/>
       <c r="I34" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B35" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C35" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D35" s="73" t="s">
         <v>4</v>
       </c>
       <c r="E35" s="73" t="s">
+        <v>240</v>
+      </c>
+      <c r="G35" s="38" t="s">
         <v>241</v>
-      </c>
-      <c r="G35" s="38" t="s">
-        <v>242</v>
       </c>
       <c r="H35" s="38"/>
       <c r="I35" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B36" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C36" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D36" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E36" s="71" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="F36" s="71"/>
       <c r="G36" s="36" t="s">
+        <v>242</v>
+      </c>
+      <c r="H36" s="36" t="s">
         <v>243</v>
-      </c>
-      <c r="H36" s="36" t="s">
-        <v>244</v>
       </c>
       <c r="I36" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B37" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C37" s="70" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="D37" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E37" s="71" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F37" s="71"/>
       <c r="G37" s="36" t="s">
+        <v>244</v>
+      </c>
+      <c r="H37" s="36" t="s">
         <v>245</v>
-      </c>
-      <c r="H37" s="36" t="s">
-        <v>246</v>
       </c>
       <c r="I37" s="36" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B38" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C38" s="70" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="D38" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E38" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F38" s="71"/>
       <c r="G38" s="36" t="s">
+        <v>246</v>
+      </c>
+      <c r="H38" s="36" t="s">
         <v>247</v>
-      </c>
-      <c r="H38" s="36" t="s">
-        <v>248</v>
       </c>
       <c r="I38" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:9" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B39" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C39" s="70" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="D39" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E39" s="70" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="F39" s="71"/>
       <c r="G39" s="75"/>
       <c r="H39" s="75" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="I39" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B40" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C40" s="70" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="D40" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E40" s="77" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="F40" s="78"/>
       <c r="G40" s="75" t="s">
+        <v>252</v>
+      </c>
+      <c r="H40" s="9" t="s">
         <v>253</v>
-      </c>
-      <c r="H40" s="9" t="s">
-        <v>254</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B41" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C41" s="70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D41" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E41" s="77" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="F41" s="78"/>
       <c r="G41" s="75" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B42" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C42" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E42" s="11" t="s">
+        <v>257</v>
+      </c>
+      <c r="F42" s="62" t="s">
         <v>258</v>
       </c>
-      <c r="F42" s="62" t="s">
+      <c r="G42" s="9" t="s">
         <v>259</v>
       </c>
-      <c r="G42" s="9" t="s">
-        <v>260</v>
-      </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B43" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C43" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E43" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="G43" s="9" t="s">
         <v>261</v>
-      </c>
-      <c r="G43" s="9" t="s">
-        <v>262</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B44" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C44" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E44" s="11" t="s">
+        <v>262</v>
+      </c>
+      <c r="G44" s="9" t="s">
         <v>263</v>
       </c>
-      <c r="G44" s="9" t="s">
+      <c r="H44" s="9" t="s">
         <v>264</v>
-      </c>
-      <c r="H44" s="9" t="s">
-        <v>265</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B45" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C45" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E45" s="11" t="s">
+        <v>265</v>
+      </c>
+      <c r="F45" s="62" t="s">
         <v>266</v>
       </c>
-      <c r="F45" s="62" t="s">
+      <c r="G45" s="9" t="s">
         <v>267</v>
       </c>
-      <c r="G45" s="9" t="s">
-        <v>268</v>
-      </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B46" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C46" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E46" s="70" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="F46" s="71"/>
       <c r="G46" s="75" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="H46" s="75"/>
       <c r="I46" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B47" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C47" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E47" s="77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="F47" s="71"/>
       <c r="G47" s="75" t="s">
+        <v>271</v>
+      </c>
+      <c r="H47" s="75" t="s">
         <v>272</v>
-      </c>
-      <c r="H47" s="75" t="s">
-        <v>273</v>
       </c>
       <c r="I47" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B48" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C48" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E48" s="77" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="F48" s="71"/>
       <c r="G48" s="75" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="H48" s="75"/>
       <c r="I48" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B49" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C49" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E49" s="77" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="F49" s="78"/>
       <c r="H49" s="9" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B50" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C50" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E50" s="11" t="s">
+        <v>277</v>
+      </c>
+      <c r="G50" s="9" t="s">
         <v>278</v>
       </c>
-      <c r="G50" s="9" t="s">
+      <c r="H50" s="9" t="s">
         <v>279</v>
-      </c>
-      <c r="H50" s="9" t="s">
-        <v>280</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B51" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C51" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E51" s="11" t="s">
+        <v>280</v>
+      </c>
+      <c r="G51" s="9" t="s">
         <v>281</v>
-      </c>
-      <c r="G51" s="9" t="s">
-        <v>282</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B52" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C52" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E52" s="11" t="s">
+        <v>282</v>
+      </c>
+      <c r="F52" s="62" t="s">
         <v>283</v>
       </c>
-      <c r="F52" s="62" t="s">
+      <c r="G52" s="9" t="s">
         <v>284</v>
       </c>
-      <c r="G52" s="9" t="s">
-        <v>285</v>
-      </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B53" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C53" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E53" s="11" t="s">
+        <v>285</v>
+      </c>
+      <c r="F53" s="62" t="s">
         <v>286</v>
       </c>
-      <c r="F53" s="62" t="s">
+      <c r="G53" s="9" t="s">
         <v>287</v>
       </c>
-      <c r="G53" s="9" t="s">
-        <v>288</v>
-      </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B54" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C54" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E54" s="11" t="s">
+        <v>288</v>
+      </c>
+      <c r="F54" s="62" t="s">
+        <v>288</v>
+      </c>
+      <c r="G54" s="9" t="s">
         <v>289</v>
       </c>
-      <c r="F54" s="62" t="s">
-        <v>289</v>
-      </c>
-      <c r="G54" s="9" t="s">
+      <c r="H54" s="9" t="s">
         <v>290</v>
       </c>
-      <c r="H54" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B55" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C55" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E55" s="11" t="s">
+        <v>291</v>
+      </c>
+      <c r="F55" s="62" t="s">
+        <v>291</v>
+      </c>
+      <c r="G55" s="9" t="s">
         <v>292</v>
       </c>
-      <c r="F55" s="62" t="s">
-        <v>292</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>293</v>
-      </c>
       <c r="H55" s="9" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="56" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="56" spans="2:9" ht="75" x14ac:dyDescent="0.25">
       <c r="B56" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C56" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E56" s="11" t="s">
+        <v>293</v>
+      </c>
+      <c r="F56" s="62" t="s">
+        <v>293</v>
+      </c>
+      <c r="G56" s="9" t="s">
         <v>294</v>
       </c>
-      <c r="F56" s="62" t="s">
-        <v>294</v>
-      </c>
-      <c r="G56" s="9" t="s">
+      <c r="H56" s="9" t="s">
         <v>295</v>
       </c>
-      <c r="H56" s="9" t="s">
-        <v>296</v>
-      </c>
-    </row>
-    <row r="57" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B57" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C57" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E57" s="11" t="s">
+        <v>296</v>
+      </c>
+      <c r="G57" s="9" t="s">
         <v>297</v>
       </c>
-      <c r="G57" s="9" t="s">
+      <c r="H57" s="9" t="s">
         <v>298</v>
-      </c>
-      <c r="H57" s="9" t="s">
-        <v>299</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="58" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B58" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C58" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E58" s="11" t="s">
+        <v>299</v>
+      </c>
+      <c r="G58" s="9" t="s">
         <v>300</v>
       </c>
-      <c r="G58" s="9" t="s">
+      <c r="H58" s="9" t="s">
         <v>301</v>
-      </c>
-      <c r="H58" s="9" t="s">
-        <v>302</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="59" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B59" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C59" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D59" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E59" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="F59" s="62" t="s">
+        <v>302</v>
+      </c>
+      <c r="G59" s="38" t="s">
         <v>303</v>
       </c>
-      <c r="F59" s="62" t="s">
-        <v>303</v>
-      </c>
-      <c r="G59" s="38" t="s">
+      <c r="H59" s="38" t="s">
         <v>304</v>
       </c>
-      <c r="H59" s="38" t="s">
-        <v>305</v>
-      </c>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B60" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C60" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D60" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E60" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="F60" s="62" t="s">
+        <v>305</v>
+      </c>
+      <c r="G60" s="38" t="s">
         <v>306</v>
       </c>
-      <c r="F60" s="62" t="s">
-        <v>306</v>
-      </c>
-      <c r="G60" s="38" t="s">
-        <v>307</v>
-      </c>
       <c r="H60" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I60" s="62"/>
     </row>
-    <row r="61" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B61" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C61" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D61" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E61" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="F61" s="62" t="s">
+        <v>307</v>
+      </c>
+      <c r="G61" s="38" t="s">
         <v>308</v>
       </c>
-      <c r="F61" s="62" t="s">
-        <v>308</v>
-      </c>
-      <c r="G61" s="38" t="s">
-        <v>309</v>
-      </c>
       <c r="H61" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B62" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C62" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D62" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E62" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="F62" s="62" t="s">
+        <v>309</v>
+      </c>
+      <c r="G62" s="38" t="s">
         <v>310</v>
       </c>
-      <c r="F62" s="62" t="s">
-        <v>310</v>
-      </c>
-      <c r="G62" s="38" t="s">
-        <v>311</v>
-      </c>
       <c r="H62" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B63" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C63" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D63" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E63" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="F63" s="62" t="s">
+        <v>311</v>
+      </c>
+      <c r="G63" s="38" t="s">
         <v>312</v>
       </c>
-      <c r="F63" s="62" t="s">
-        <v>312</v>
-      </c>
-      <c r="G63" s="38" t="s">
-        <v>313</v>
-      </c>
       <c r="H63" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="64" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B64" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C64" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D64" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E64" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="F64" s="62" t="s">
+        <v>313</v>
+      </c>
+      <c r="G64" s="38" t="s">
         <v>314</v>
       </c>
-      <c r="F64" s="62" t="s">
-        <v>314</v>
-      </c>
-      <c r="G64" s="38" t="s">
-        <v>315</v>
-      </c>
       <c r="H64" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="65" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B65" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C65" s="71" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D65" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E65" s="62" t="s">
+        <v>315</v>
+      </c>
+      <c r="G65" s="38" t="s">
         <v>316</v>
-      </c>
-      <c r="G65" s="38" t="s">
-        <v>317</v>
       </c>
       <c r="H65" s="38"/>
       <c r="I65" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B66" s="62" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C66" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D66" s="62" t="s">
         <v>8</v>
       </c>
       <c r="E66" s="62" t="s">
+        <v>317</v>
+      </c>
+      <c r="G66" s="38" t="s">
         <v>318</v>
       </c>
-      <c r="G66" s="38" t="s">
-        <v>319</v>
-      </c>
       <c r="H66" s="38" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="I66" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
+    <row r="67" spans="2:9" ht="120" x14ac:dyDescent="0.25">
       <c r="B67" s="76" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C67" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D67" s="76" t="s">
         <v>8</v>
       </c>
       <c r="E67" s="77" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="F67" s="71"/>
       <c r="G67" s="75" t="s">
+        <v>320</v>
+      </c>
+      <c r="H67" s="9" t="s">
         <v>321</v>
-      </c>
-      <c r="H67" s="9" t="s">
-        <v>322</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="72" x14ac:dyDescent="0.3">
+    <row r="68" spans="2:9" ht="90" x14ac:dyDescent="0.25">
       <c r="B68" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C68" s="70" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E68" s="77" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="F68" s="78"/>
       <c r="G68" s="9" t="s">
+        <v>323</v>
+      </c>
+      <c r="H68" s="9" t="s">
         <v>324</v>
       </c>
-      <c r="H68" s="9" t="s">
+      <c r="I68" s="9" t="s">
         <v>325</v>
       </c>
-      <c r="I68" s="9" t="s">
-        <v>326</v>
-      </c>
-    </row>
-    <row r="69" spans="2:9" ht="115.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:9" ht="135" x14ac:dyDescent="0.25">
       <c r="B69" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C69" s="70" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E69" s="79" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="F69" s="79"/>
       <c r="G69" s="9" t="s">
+        <v>327</v>
+      </c>
+      <c r="H69" s="9" t="s">
         <v>328</v>
       </c>
-      <c r="H69" s="9" t="s">
-        <v>329</v>
-      </c>
       <c r="I69" s="9" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="70" spans="2:9" s="80" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+      <c r="B70" s="11" t="s">
+        <v>80</v>
+      </c>
+      <c r="C70" s="70" t="s">
         <v>326</v>
-      </c>
-    </row>
-    <row r="70" spans="2:9" s="80" customFormat="1" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="B70" s="11" t="s">
-        <v>81</v>
-      </c>
-      <c r="C70" s="70" t="s">
-        <v>327</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E70" s="77" t="s">
+        <v>329</v>
+      </c>
+      <c r="F70" s="78" t="s">
+        <v>329</v>
+      </c>
+      <c r="G70" s="9" t="s">
         <v>330</v>
       </c>
-      <c r="F70" s="78" t="s">
-        <v>330</v>
-      </c>
-      <c r="G70" s="9" t="s">
+      <c r="H70" s="9" t="s">
         <v>331</v>
       </c>
-      <c r="H70" s="9" t="s">
-        <v>332</v>
-      </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" s="80" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="71" spans="2:9" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B71" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C71" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E71" s="11" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F71" s="62" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="G71" s="9" t="s">
+        <v>332</v>
+      </c>
+      <c r="H71" s="38" t="s">
         <v>333</v>
       </c>
-      <c r="H71" s="38" t="s">
-        <v>334</v>
-      </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B72" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C72" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E72" s="11" t="s">
+        <v>334</v>
+      </c>
+      <c r="F72" s="62" t="s">
+        <v>334</v>
+      </c>
+      <c r="G72" s="9" t="s">
         <v>335</v>
       </c>
-      <c r="F72" s="62" t="s">
-        <v>335</v>
-      </c>
-      <c r="G72" s="9" t="s">
+      <c r="H72" s="38" t="s">
         <v>336</v>
       </c>
-      <c r="H72" s="38" t="s">
-        <v>337</v>
-      </c>
-    </row>
-    <row r="73" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B73" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C73" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E73" s="11" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" s="62" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="G73" s="9" t="s">
+        <v>337</v>
+      </c>
+      <c r="H73" s="38" t="s">
         <v>338</v>
       </c>
-      <c r="H73" s="38" t="s">
-        <v>339</v>
-      </c>
-    </row>
-    <row r="74" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B74" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C74" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E74" s="11" t="s">
+        <v>339</v>
+      </c>
+      <c r="F74" s="62" t="s">
+        <v>339</v>
+      </c>
+      <c r="G74" s="9" t="s">
         <v>340</v>
       </c>
-      <c r="F74" s="62" t="s">
-        <v>340</v>
-      </c>
-      <c r="G74" s="9" t="s">
+      <c r="H74" s="38" t="s">
         <v>341</v>
       </c>
-      <c r="H74" s="38" t="s">
-        <v>342</v>
-      </c>
-    </row>
-    <row r="75" spans="2:9" s="80" customFormat="1" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:9" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B75" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C75" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E75" s="11" t="s">
+        <v>342</v>
+      </c>
+      <c r="F75" s="62" t="s">
+        <v>342</v>
+      </c>
+      <c r="G75" s="9" t="s">
         <v>343</v>
       </c>
-      <c r="F75" s="62" t="s">
-        <v>343</v>
-      </c>
-      <c r="G75" s="9" t="s">
+      <c r="H75" s="38" t="s">
         <v>344</v>
       </c>
-      <c r="H75" s="38" t="s">
-        <v>345</v>
-      </c>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="2:9" s="80" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="76" spans="2:9" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
       <c r="B76" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C76" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>8</v>
@@ -7664,19 +7666,19 @@
         <v>49</v>
       </c>
       <c r="G76" s="9" t="s">
+        <v>345</v>
+      </c>
+      <c r="H76" s="38" t="s">
         <v>346</v>
       </c>
-      <c r="H76" s="38" t="s">
-        <v>347</v>
-      </c>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="77" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B77" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C77" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>8</v>
@@ -7688,1145 +7690,1145 @@
         <v>60</v>
       </c>
       <c r="G77" s="9" t="s">
+        <v>347</v>
+      </c>
+      <c r="H77" s="38" t="s">
         <v>348</v>
       </c>
-      <c r="H77" s="38" t="s">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="78" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B78" s="11" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C78" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E78" s="11" t="s">
+        <v>349</v>
+      </c>
+      <c r="F78" s="62" t="s">
+        <v>349</v>
+      </c>
+      <c r="G78" s="9" t="s">
         <v>350</v>
       </c>
-      <c r="F78" s="62" t="s">
-        <v>350</v>
-      </c>
-      <c r="G78" s="9" t="s">
+      <c r="H78" s="38" t="s">
         <v>351</v>
       </c>
-      <c r="H78" s="38" t="s">
-        <v>352</v>
-      </c>
-    </row>
-    <row r="79" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B79" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C79" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D79" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E79" s="70" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F79" s="71" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="G79" s="75"/>
       <c r="H79" s="38" t="s">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="80" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="80" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B80" s="70" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C80" s="70" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D80" s="70" t="s">
         <v>8</v>
       </c>
       <c r="E80" s="70" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F80" s="71" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="G80" s="75"/>
       <c r="H80" s="38" t="s">
-        <v>356</v>
-      </c>
-    </row>
-    <row r="81" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="81" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B81" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C81" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D81" s="71" t="s">
         <v>8</v>
       </c>
       <c r="E81" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="F81" s="71" t="s">
+        <v>356</v>
+      </c>
+      <c r="G81" s="36" t="s">
         <v>357</v>
       </c>
-      <c r="F81" s="71" t="s">
-        <v>357</v>
-      </c>
-      <c r="G81" s="36" t="s">
+      <c r="H81" s="38" t="s">
         <v>358</v>
       </c>
-      <c r="H81" s="38" t="s">
-        <v>359</v>
-      </c>
       <c r="I81" s="62"/>
     </row>
-    <row r="82" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="82" spans="2:9" ht="60" x14ac:dyDescent="0.25">
       <c r="B82" s="71" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C82" s="71" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="D82" s="71" t="s">
         <v>8</v>
       </c>
       <c r="E82" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="F82" s="71" t="s">
+        <v>359</v>
+      </c>
+      <c r="G82" s="36" t="s">
+        <v>357</v>
+      </c>
+      <c r="H82" s="38" t="s">
         <v>360</v>
       </c>
-      <c r="F82" s="71" t="s">
-        <v>360</v>
-      </c>
-      <c r="G82" s="36" t="s">
-        <v>358</v>
-      </c>
-      <c r="H82" s="38" t="s">
+      <c r="I82" s="62"/>
+    </row>
+    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B83" s="11" t="s">
+        <v>85</v>
+      </c>
+      <c r="C83" s="70" t="s">
         <v>361</v>
-      </c>
-      <c r="I82" s="62"/>
-    </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.3">
-      <c r="B83" s="11" t="s">
-        <v>86</v>
-      </c>
-      <c r="C83" s="70" t="s">
-        <v>362</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B84" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C84" s="70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E84" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="G84" s="9" t="s">
         <v>363</v>
-      </c>
-      <c r="G84" s="9" t="s">
-        <v>364</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B85" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C85" s="70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="86" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B86" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C86" s="70" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E86" s="77" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="F86" s="78"/>
       <c r="G86" s="9" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B87" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C87" s="70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E87" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="G87" s="9" t="s">
         <v>369</v>
-      </c>
-      <c r="G87" s="9" t="s">
-        <v>370</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B88" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C88" s="70" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E88" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="G88" s="9" t="s">
         <v>371</v>
-      </c>
-      <c r="G88" s="9" t="s">
-        <v>372</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B89" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C89" s="70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E89" s="11" t="s">
+        <v>372</v>
+      </c>
+      <c r="G89" s="9" t="s">
         <v>373</v>
-      </c>
-      <c r="G89" s="9" t="s">
-        <v>374</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B90" s="11" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C90" s="70" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>8</v>
       </c>
       <c r="E90" s="11" t="s">
+        <v>374</v>
+      </c>
+      <c r="G90" s="9" t="s">
+        <v>374</v>
+      </c>
+      <c r="H90" s="9" t="s">
         <v>375</v>
-      </c>
-      <c r="G90" s="9" t="s">
-        <v>375</v>
-      </c>
-      <c r="H90" s="9" t="s">
-        <v>376</v>
       </c>
       <c r="I90" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B91" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C91" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D91" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E91" s="62" t="s">
+        <v>376</v>
+      </c>
+      <c r="G91" s="38" t="s">
         <v>377</v>
       </c>
-      <c r="G91" s="38" t="s">
-        <v>378</v>
-      </c>
       <c r="H91" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I91" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="92" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B92" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C92" s="71" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="D92" s="73" t="s">
         <v>8</v>
       </c>
       <c r="E92" s="62" t="s">
+        <v>378</v>
+      </c>
+      <c r="G92" s="38" t="s">
         <v>379</v>
       </c>
-      <c r="G92" s="38" t="s">
-        <v>380</v>
-      </c>
       <c r="H92" s="9" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="I92" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B93" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C93" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D93" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E93" s="62" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="G93" s="38" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B94" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C94" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D94" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E94" s="62" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="G94" s="38" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B95" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C95" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D95" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E95" s="62" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="G95" s="38" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B96" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C96" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D96" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E96" s="62" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="G96" s="38" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B97" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C97" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D97" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E97" s="62" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="G97" s="38" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B98" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C98" s="70" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D98" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E98" s="11" t="s">
+        <v>380</v>
+      </c>
+      <c r="G98" s="9" t="s">
         <v>381</v>
-      </c>
-      <c r="G98" s="9" t="s">
-        <v>382</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B99" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C99" s="70" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="100" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B100" s="73" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C100" s="70" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="D100" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E100" s="71" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="F100" s="71"/>
       <c r="G100" s="36" t="s">
+        <v>384</v>
+      </c>
+      <c r="H100" s="36" t="s">
         <v>385</v>
-      </c>
-      <c r="H100" s="36" t="s">
-        <v>386</v>
       </c>
       <c r="I100" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="101" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B101" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C101" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D101" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E101" s="70" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F101" s="71"/>
       <c r="G101" s="75" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H101" s="75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I101" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="102" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B102" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C102" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D102" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E102" s="70" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="F102" s="71"/>
       <c r="G102" s="75" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="H102" s="75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I102" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="103" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B103" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C103" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D103" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E103" s="70" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F103" s="71"/>
       <c r="G103" s="75" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="H103" s="75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I103" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="104" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B104" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="C104" s="70" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="D104" s="70" t="s">
         <v>4</v>
       </c>
       <c r="E104" s="70" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F104" s="71"/>
       <c r="G104" s="75" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H104" s="75" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="I104" s="70" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="105" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B105" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C105" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D105" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E105" s="71" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="F105" s="71"/>
       <c r="G105" s="36" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="H105" s="36"/>
       <c r="I105" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="2:9" s="7" customFormat="1" ht="57.6" x14ac:dyDescent="0.3">
+    <row r="106" spans="2:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
       <c r="B106" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C106" s="71" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="D106" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E106" s="71" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="F106" s="71"/>
       <c r="G106" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H106" s="36" t="s">
         <v>391</v>
-      </c>
-      <c r="H106" s="36" t="s">
-        <v>392</v>
       </c>
       <c r="I106" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="107" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B107" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C107" s="71" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="D107" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E107" s="71" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="F107" s="71"/>
       <c r="G107" s="36" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="H107" s="36"/>
       <c r="I107" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="108" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B108" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C108" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D108" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E108" s="71" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="F108" s="71"/>
       <c r="G108" s="36" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="H108" s="36"/>
       <c r="I108" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="109" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B109" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C109" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D109" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E109" s="71" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="F109" s="71"/>
       <c r="G109" s="36" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="H109" s="36"/>
       <c r="I109" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="110" spans="2:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B110" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C110" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D110" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E110" s="71" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="F110" s="71"/>
       <c r="G110" s="36" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="H110" s="36"/>
       <c r="I110" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="2:9" s="7" customFormat="1" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="111" spans="2:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
       <c r="B111" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C111" s="71" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="D111" s="71" t="s">
         <v>4</v>
       </c>
       <c r="E111" s="71" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="F111" s="71"/>
       <c r="G111" s="36" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="H111" s="36"/>
       <c r="I111" s="71" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B112" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C112" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D112" s="62" t="s">
         <v>4</v>
       </c>
       <c r="E112" s="62" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="G112" s="38" t="s">
+        <v>396</v>
+      </c>
+      <c r="H112" s="38" t="s">
         <v>397</v>
-      </c>
-      <c r="H112" s="38" t="s">
-        <v>398</v>
       </c>
       <c r="I112" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B113" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C113" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D113" s="62" t="s">
         <v>4</v>
       </c>
       <c r="E113" s="62" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="G113" s="38" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="H113" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I113" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B114" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C114" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D114" s="62" t="s">
         <v>4</v>
       </c>
       <c r="E114" s="62" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="G114" s="38" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="H114" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I114" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B115" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C115" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D115" s="62" t="s">
         <v>4</v>
       </c>
       <c r="E115" s="62" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="G115" s="38" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="H115" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I115" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B116" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C116" s="62" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D116" s="62" t="s">
         <v>4</v>
       </c>
       <c r="E116" s="62" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="G116" s="38" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="H116" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I116" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B117" s="71" t="s">
         <v>35</v>
       </c>
       <c r="C117" s="62" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="D117" s="62" t="s">
         <v>4</v>
       </c>
       <c r="E117" s="62" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="G117" s="38" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="H117" s="38" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="I117" s="62" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="118" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B118" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C118" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D118" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="G118" s="9" t="s">
+        <v>404</v>
+      </c>
+      <c r="H118" s="9" t="s">
         <v>405</v>
-      </c>
-      <c r="H118" s="9" t="s">
-        <v>406</v>
       </c>
       <c r="I118" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="119" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B119" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C119" s="11" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="D119" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="G119" s="9" t="s">
+        <v>406</v>
+      </c>
+      <c r="H119" s="9" t="s">
         <v>407</v>
-      </c>
-      <c r="H119" s="9" t="s">
-        <v>408</v>
       </c>
       <c r="I119" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="120" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B120" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C120" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D120" s="73" t="s">
         <v>4</v>
       </c>
       <c r="E120" s="73" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="G120" s="38" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="H120" s="38"/>
       <c r="I120" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="121" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B121" s="73" t="s">
         <v>35</v>
       </c>
       <c r="C121" s="70" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D121" s="73" t="s">
         <v>4</v>
       </c>
       <c r="E121" s="73" t="s">
+        <v>409</v>
+      </c>
+      <c r="G121" s="38" t="s">
         <v>410</v>
-      </c>
-      <c r="G121" s="38" t="s">
-        <v>411</v>
       </c>
       <c r="H121" s="38"/>
       <c r="I121" s="38" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B122" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="G122" s="9" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="H122" s="9"/>
       <c r="I122" s="11" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
       <c r="B123" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="G123" s="9" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="2:9" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="124" spans="2:9" ht="45" x14ac:dyDescent="0.25">
       <c r="B124" s="11" t="s">
         <v>35</v>
       </c>
       <c r="C124" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D124" s="11" t="s">
         <v>4</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="G124" s="9" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="H124" s="9"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H125" s="9"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H126" s="9"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H132" s="9"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H133" s="9"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H134" s="9"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H135" s="9"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H142" s="9"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H143" s="9"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H144" s="9"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H145" s="9"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H146" s="9"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H148" s="9"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H149" s="9"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H150" s="9"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H151" s="9"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H152" s="9"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H153" s="9"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H154" s="9"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H155" s="9"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H156" s="9"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.3">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
       <c r="H157" s="9"/>
     </row>
   </sheetData>
@@ -8849,18 +8851,18 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="44.33203125" customWidth="1"/>
-    <col min="3" max="3" width="53.21875" customWidth="1"/>
-    <col min="4" max="4" width="52.77734375" customWidth="1"/>
-    <col min="5" max="5" width="71.5546875" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="44.28515625" customWidth="1"/>
+    <col min="3" max="3" width="53.28515625" customWidth="1"/>
+    <col min="4" max="4" width="52.7109375" customWidth="1"/>
+    <col min="5" max="5" width="71.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="C1" s="31"/>
       <c r="D1" s="31"/>
@@ -8872,7 +8874,7 @@
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="81"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -8884,18 +8886,18 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B3" s="82" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" s="82" t="s">
+        <v>181</v>
+      </c>
+      <c r="D3" s="82" t="s">
         <v>416</v>
       </c>
-      <c r="C3" s="82" t="s">
-        <v>182</v>
-      </c>
-      <c r="D3" s="82" t="s">
+      <c r="E3" s="83" t="s">
         <v>417</v>
-      </c>
-      <c r="E3" s="83" t="s">
-        <v>418</v>
       </c>
       <c r="F3" s="31"/>
       <c r="G3" s="31"/>
@@ -8903,18 +8905,18 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="2:11" ht="19.95" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B4" s="82" t="s">
+        <v>418</v>
+      </c>
+      <c r="C4" s="84" t="s">
         <v>419</v>
       </c>
-      <c r="C4" s="84" t="s">
+      <c r="D4" s="84" t="s">
         <v>420</v>
       </c>
-      <c r="D4" s="84" t="s">
+      <c r="E4" s="85" t="s">
         <v>421</v>
-      </c>
-      <c r="E4" s="85" t="s">
-        <v>422</v>
       </c>
       <c r="F4" s="31"/>
       <c r="G4" s="31"/>
@@ -8922,18 +8924,18 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:11" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B5" s="82" t="s">
+        <v>422</v>
+      </c>
+      <c r="C5" s="84" t="s">
         <v>423</v>
       </c>
-      <c r="C5" s="84" t="s">
+      <c r="D5" s="84" t="s">
         <v>424</v>
       </c>
-      <c r="D5" s="84" t="s">
+      <c r="E5" s="85" t="s">
         <v>425</v>
-      </c>
-      <c r="E5" s="85" t="s">
-        <v>426</v>
       </c>
       <c r="F5" s="31"/>
       <c r="G5" s="31"/>
@@ -8941,18 +8943,18 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="2:11" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="2:11" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B6" s="82" t="s">
+        <v>426</v>
+      </c>
+      <c r="C6" s="84" t="s">
         <v>427</v>
       </c>
-      <c r="C6" s="84" t="s">
+      <c r="D6" s="84" t="s">
         <v>428</v>
       </c>
-      <c r="D6" s="84" t="s">
+      <c r="E6" s="85" t="s">
         <v>429</v>
-      </c>
-      <c r="E6" s="85" t="s">
-        <v>430</v>
       </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
@@ -8960,18 +8962,18 @@
       <c r="J6" s="7"/>
       <c r="K6" s="86"/>
     </row>
-    <row r="7" spans="2:11" ht="36.450000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:11" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="82" t="s">
+        <v>430</v>
+      </c>
+      <c r="C7" s="84" t="s">
         <v>431</v>
       </c>
-      <c r="C7" s="84" t="s">
+      <c r="D7" s="84" t="s">
         <v>432</v>
       </c>
-      <c r="D7" s="84" t="s">
+      <c r="E7" s="85" t="s">
         <v>433</v>
-      </c>
-      <c r="E7" s="85" t="s">
-        <v>434</v>
       </c>
       <c r="F7" s="31"/>
       <c r="G7" s="31"/>
@@ -8979,18 +8981,18 @@
       <c r="J7" s="31"/>
       <c r="K7" s="86"/>
     </row>
-    <row r="8" spans="2:11" ht="40.950000000000003" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B8" s="82" t="s">
+        <v>434</v>
+      </c>
+      <c r="C8" s="84" t="s">
         <v>435</v>
       </c>
-      <c r="C8" s="84" t="s">
+      <c r="D8" s="84" t="s">
         <v>436</v>
       </c>
-      <c r="D8" s="84" t="s">
+      <c r="E8" s="87" t="s">
         <v>437</v>
-      </c>
-      <c r="E8" s="87" t="s">
-        <v>438</v>
       </c>
       <c r="F8" s="31"/>
       <c r="G8" s="31"/>
@@ -8998,7 +9000,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="86"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -9008,12 +9010,12 @@
       <c r="J9" s="31"/>
       <c r="K9" s="86"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
       <c r="E10" s="88" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="F10" s="31"/>
       <c r="G10" s="31"/>
@@ -9021,7 +9023,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -9032,7 +9034,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -9043,7 +9045,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="89"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -9055,7 +9057,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B14" s="89"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -9067,7 +9069,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="89"/>
     </row>
   </sheetData>
@@ -9088,83 +9090,83 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="11.5546875" customWidth="1"/>
-    <col min="3" max="3" width="15.6640625" customWidth="1"/>
-    <col min="4" max="4" width="17.44140625" customWidth="1"/>
-    <col min="5" max="5" width="9.5546875" customWidth="1"/>
-    <col min="6" max="6" width="11.5546875" customWidth="1"/>
-    <col min="7" max="7" width="12.5546875" customWidth="1"/>
-    <col min="8" max="8" width="11.6640625" customWidth="1"/>
-    <col min="9" max="9" width="17.44140625" customWidth="1"/>
-    <col min="11" max="11" width="11.5546875" customWidth="1"/>
-    <col min="12" max="12" width="5.6640625" customWidth="1"/>
-    <col min="13" max="13" width="17.44140625" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="11.5703125" customWidth="1"/>
+    <col min="3" max="3" width="15.7109375" customWidth="1"/>
+    <col min="4" max="4" width="17.42578125" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" customWidth="1"/>
+    <col min="6" max="6" width="11.5703125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" customWidth="1"/>
+    <col min="8" max="8" width="11.7109375" customWidth="1"/>
+    <col min="9" max="9" width="17.42578125" customWidth="1"/>
+    <col min="11" max="11" width="11.5703125" customWidth="1"/>
+    <col min="12" max="12" width="5.7109375" customWidth="1"/>
+    <col min="13" max="13" width="17.42578125" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="10.33203125" customWidth="1"/>
-    <col min="17" max="17" width="11.5546875" customWidth="1"/>
-    <col min="18" max="18" width="9.6640625" customWidth="1"/>
-    <col min="19" max="19" width="11.5546875" customWidth="1"/>
-    <col min="20" max="20" width="7.33203125" customWidth="1"/>
-    <col min="21" max="21" width="8.6640625" customWidth="1"/>
-    <col min="22" max="22" width="3.6640625" customWidth="1"/>
-    <col min="24" max="24" width="11.33203125" customWidth="1"/>
-    <col min="25" max="25" width="5.6640625" customWidth="1"/>
-    <col min="26" max="26" width="17.44140625" customWidth="1"/>
+    <col min="15" max="15" width="10.28515625" customWidth="1"/>
+    <col min="17" max="17" width="11.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.7109375" customWidth="1"/>
+    <col min="19" max="19" width="11.5703125" customWidth="1"/>
+    <col min="20" max="20" width="7.28515625" customWidth="1"/>
+    <col min="21" max="21" width="8.7109375" customWidth="1"/>
+    <col min="22" max="22" width="3.7109375" customWidth="1"/>
+    <col min="24" max="24" width="11.28515625" customWidth="1"/>
+    <col min="25" max="25" width="5.7109375" customWidth="1"/>
+    <col min="26" max="26" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B3" t="s">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B5" t="s">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B7" t="s">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>444</v>
       </c>
-      <c r="C9" t="s">
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B10" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>446</v>
       </c>
-      <c r="C10" t="s">
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>448</v>
       </c>
-      <c r="C11" t="s">
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B13" t="s">
-        <v>450</v>
-      </c>
-    </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B15" s="90"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -9176,50 +9178,50 @@
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B16" s="90" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="C16" s="4"/>
       <c r="D16" s="4"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="90" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="H16" s="4"/>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B18" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C18" s="92" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="D18" s="31"/>
       <c r="E18" s="31"/>
       <c r="G18" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H18" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="I18" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="I18" s="92" t="s">
-        <v>138</v>
-      </c>
       <c r="L18" s="44"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B19" s="94">
         <v>1</v>
       </c>
@@ -9238,7 +9240,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B20" s="98">
         <v>2</v>
       </c>
@@ -9257,7 +9259,7 @@
         <v>529.5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B21" s="102"/>
       <c r="C21" s="103"/>
       <c r="D21" s="31"/>
@@ -9266,7 +9268,7 @@
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B22" s="46"/>
       <c r="C22" s="40"/>
       <c r="D22" s="31"/>
@@ -9275,20 +9277,20 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B23" s="90" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="C23" s="40"/>
       <c r="D23" s="31"/>
       <c r="E23" s="31"/>
       <c r="G23" s="90" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B24" s="46"/>
       <c r="C24" s="40"/>
       <c r="D24" s="31"/>
@@ -9297,26 +9299,26 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B25" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C25" s="92" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="D25" s="31"/>
       <c r="E25" s="31"/>
       <c r="G25" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H25" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="I25" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="I25" s="92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.3">
+    </row>
+    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B26" s="94">
         <v>1</v>
       </c>
@@ -9335,7 +9337,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B27" s="94">
         <v>2</v>
       </c>
@@ -9354,7 +9356,7 @@
         <v>700.5</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B28" s="98">
         <v>3</v>
       </c>
@@ -9373,7 +9375,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -9381,7 +9383,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -9389,20 +9391,20 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
       <c r="B31" s="90" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="C31" s="31"/>
       <c r="D31" s="31"/>
       <c r="E31" s="31"/>
       <c r="G31" s="90" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -9410,41 +9412,41 @@
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B33" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C33" s="93" t="s">
+        <v>458</v>
+      </c>
+      <c r="D33" s="93" t="s">
         <v>459</v>
       </c>
-      <c r="D33" s="93" t="s">
+      <c r="E33" s="92" t="s">
         <v>460</v>
       </c>
-      <c r="E33" s="92" t="s">
-        <v>461</v>
-      </c>
       <c r="G33" s="91" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H33" s="93" t="s">
+        <v>136</v>
+      </c>
+      <c r="I33" s="92" t="s">
         <v>137</v>
       </c>
-      <c r="I33" s="92" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B34" s="94">
         <v>1</v>
       </c>
       <c r="C34" s="104" t="s">
+        <v>461</v>
+      </c>
+      <c r="D34" s="104" t="s">
         <v>462</v>
       </c>
-      <c r="D34" s="104" t="s">
+      <c r="E34" s="95" t="s">
         <v>463</v>
-      </c>
-      <c r="E34" s="95" t="s">
-        <v>464</v>
       </c>
       <c r="G34" s="94">
         <v>1</v>
@@ -9456,18 +9458,18 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B35" s="94">
         <v>2</v>
       </c>
       <c r="C35" s="104" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="D35" s="104" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="E35" s="95" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G35" s="94">
         <v>2</v>
@@ -9479,18 +9481,18 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B36" s="98">
         <v>3</v>
       </c>
       <c r="C36" s="105" t="s">
+        <v>461</v>
+      </c>
+      <c r="D36" s="105" t="s">
         <v>462</v>
       </c>
-      <c r="D36" s="105" t="s">
-        <v>463</v>
-      </c>
       <c r="E36" s="99" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G36" s="98">
         <v>3</v>
@@ -9519,25 +9521,25 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="2.6640625" customWidth="1"/>
-    <col min="2" max="2" width="12.33203125" customWidth="1"/>
+    <col min="1" max="1" width="2.7109375" customWidth="1"/>
+    <col min="2" max="2" width="12.28515625" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="6" max="6" width="14.6640625" customWidth="1"/>
+    <col min="6" max="6" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.4" x14ac:dyDescent="0.45">
+    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
       <c r="B1" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B3" s="44" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" s="44" t="s">
         <v>467</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.3">
-      <c r="B3" s="44" t="s">
-        <v>327</v>
-      </c>
-      <c r="C3" s="44" t="s">
-        <v>468</v>
       </c>
       <c r="D3" s="106"/>
       <c r="E3" s="86"/>
@@ -9547,119 +9549,119 @@
       <c r="I3" s="86"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B4" s="107">
         <v>0</v>
       </c>
       <c r="C4" s="107" t="s">
+        <v>468</v>
+      </c>
+      <c r="E4" s="107" t="s">
         <v>469</v>
       </c>
-      <c r="E4" s="107" t="s">
-        <v>470</v>
-      </c>
       <c r="F4" s="107"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B5" s="107">
         <v>1</v>
       </c>
       <c r="C5" s="107" t="s">
-        <v>471</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.3">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B6" s="107">
         <v>2</v>
       </c>
       <c r="C6" s="107" t="s">
+        <v>471</v>
+      </c>
+      <c r="E6" s="108" t="s">
         <v>472</v>
       </c>
-      <c r="E6" s="108" t="s">
-        <v>473</v>
-      </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.3">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>3</v>
       </c>
       <c r="C7" t="s">
-        <v>474</v>
-      </c>
-    </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.3">
+        <v>473</v>
+      </c>
+    </row>
+    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>4</v>
       </c>
       <c r="C8" t="s">
-        <v>475</v>
-      </c>
-    </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.3">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>5</v>
       </c>
       <c r="C9" t="s">
-        <v>476</v>
-      </c>
-    </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.3">
+        <v>475</v>
+      </c>
+    </row>
+    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>6</v>
       </c>
       <c r="C10" t="s">
-        <v>477</v>
-      </c>
-    </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.3">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>7</v>
       </c>
       <c r="C11" t="s">
-        <v>478</v>
-      </c>
-    </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.3">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B12" s="31">
         <v>8</v>
       </c>
       <c r="C12" s="108" t="s">
-        <v>479</v>
-      </c>
-    </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.3">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B13" s="31">
         <v>9</v>
       </c>
       <c r="C13" s="31" t="s">
-        <v>480</v>
-      </c>
-    </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.3">
+        <v>479</v>
+      </c>
+    </row>
+    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>10</v>
       </c>
       <c r="C14" s="109" t="s">
-        <v>481</v>
-      </c>
-    </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.3">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>11</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>482</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.3">
+        <v>481</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>12</v>
       </c>
       <c r="C16" s="109" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.3">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
       <c r="C17" s="4"/>
     </row>
   </sheetData>

--- a/OpenResultsData/Docs/ORD_Data_Spec.xlsx
+++ b/OpenResultsData/Docs/ORD_Data_Spec.xlsx
@@ -1,32 +1,43 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\msys64_2\home\joh\opendatastandards_branch\openresultsdata\docs\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/mattdonovan/Desktop/Mirror/Programme Management/Open_Data_Standards/ORD_DOCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA781E4-8EFA-438E-8AD1-80FF209F3EE0}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{E62D677F-CB4B-514F-9A57-6B495685169D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="38400" windowHeight="19640" tabRatio="500" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" r:id="rId1"/>
     <sheet name="Tables" sheetId="2" r:id="rId2"/>
     <sheet name="TableExamples" sheetId="3" r:id="rId3"/>
-    <sheet name="ListOfFields" sheetId="4" r:id="rId4"/>
-    <sheet name="ExposureDefinition" sheetId="5" r:id="rId5"/>
-    <sheet name="OutputSummary" sheetId="6" r:id="rId6"/>
-    <sheet name="Perspectives" sheetId="7" r:id="rId7"/>
+    <sheet name="ORD_Outputs and Data Types" sheetId="8" r:id="rId4"/>
+    <sheet name="ListOfFields" sheetId="4" r:id="rId5"/>
+    <sheet name="ExposureDefinition" sheetId="5" r:id="rId6"/>
+    <sheet name="OutputSummary" sheetId="6" r:id="rId7"/>
+    <sheet name="Perspectives" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">ListOfFields!$B$7:$I$124</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="4" hidden="1">ListOfFields!$B$7:$I$124</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">Tables!$B$4:$H$26</definedName>
   </definedNames>
-  <calcPr calcId="0" iterateDelta="1E-4"/>
+  <calcPr calcId="191029" iterateDelta="1E-4"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="ExcelA1"/>
     </ext>
@@ -35,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1152" uniqueCount="494">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1327" uniqueCount="498">
   <si>
     <t>Open Results Data (ORD) - README</t>
   </si>
@@ -1688,6 +1699,18 @@
   <si>
     <t>Average Loss Table</t>
   </si>
+  <si>
+    <t>Data Type</t>
+  </si>
+  <si>
+    <t>32-bit integer</t>
+  </si>
+  <si>
+    <t>float</t>
+  </si>
+  <si>
+    <t>Field</t>
+  </si>
 </sst>
 </file>
 
@@ -1696,7 +1719,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="14" x14ac:knownFonts="1">
+  <fonts count="16" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1803,6 +1826,17 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1920,11 +1954,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyBorder="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="114">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2208,10 +2243,16 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="2" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{E8574C52-CF5A-1146-AC77-B6333C310488}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -2593,22 +2634,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="69.28515625" customWidth="1"/>
-    <col min="3" max="3" width="44.28515625" customWidth="1"/>
-    <col min="4" max="4" width="18.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="69.33203125" customWidth="1"/>
+    <col min="3" max="3" width="44.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B2" s="110" t="s">
         <v>491</v>
       </c>
@@ -2616,17 +2657,17 @@
         <v>492</v>
       </c>
     </row>
-    <row r="3" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="2" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C8" s="3" t="s">
         <v>3</v>
       </c>
@@ -2637,7 +2678,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C9" s="3" t="s">
         <v>6</v>
       </c>
@@ -2645,7 +2686,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C10" s="3" t="s">
         <v>7</v>
       </c>
@@ -2653,7 +2694,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C11" s="3" t="s">
         <v>9</v>
       </c>
@@ -2664,12 +2705,12 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14" s="4"/>
       <c r="C14" s="5" t="s">
         <v>483</v>
@@ -2682,12 +2723,12 @@
       <c r="I14" s="4"/>
       <c r="J14" s="4"/>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C17" s="5" t="s">
         <v>13</v>
       </c>
@@ -2695,7 +2736,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C18" s="5" t="s">
         <v>15</v>
       </c>
@@ -2703,7 +2744,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C19" s="5" t="s">
         <v>17</v>
       </c>
@@ -2711,7 +2752,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C20" s="5" t="s">
         <v>19</v>
       </c>
@@ -2719,7 +2760,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C21" s="5" t="s">
         <v>21</v>
       </c>
@@ -2727,7 +2768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C22" s="5" t="s">
         <v>23</v>
       </c>
@@ -2735,7 +2776,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.2">
       <c r="C23" s="5" t="s">
         <v>25</v>
       </c>
@@ -2743,7 +2784,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B26" s="4"/>
       <c r="C26" s="4"/>
       <c r="D26" s="4"/>
@@ -2754,7 +2795,7 @@
       <c r="I26" s="4"/>
       <c r="J26" s="4"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B27" s="4"/>
       <c r="C27" s="4"/>
       <c r="D27" s="4"/>
@@ -2765,7 +2806,7 @@
       <c r="I27" s="4"/>
       <c r="J27" s="4"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B28" s="4"/>
       <c r="C28" s="4"/>
       <c r="D28" s="4"/>
@@ -2776,7 +2817,7 @@
       <c r="I28" s="4"/>
       <c r="J28" s="4"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
       <c r="D29" s="4"/>
@@ -2787,7 +2828,7 @@
       <c r="I29" s="4"/>
       <c r="J29" s="4"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
       <c r="D30" s="4"/>
@@ -2798,7 +2839,7 @@
       <c r="I30" s="4"/>
       <c r="J30" s="4"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
       <c r="D31" s="4"/>
@@ -2809,7 +2850,7 @@
       <c r="I31" s="4"/>
       <c r="J31" s="4"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B32" s="4"/>
       <c r="C32" s="7"/>
       <c r="D32" s="4"/>
@@ -2846,27 +2887,27 @@
       <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.28515625" style="8" customWidth="1"/>
-    <col min="3" max="3" width="42.28515625" style="9" customWidth="1"/>
-    <col min="4" max="4" width="17.28515625" style="10" customWidth="1"/>
-    <col min="5" max="5" width="70.140625" style="11" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.33203125" style="8" customWidth="1"/>
+    <col min="3" max="3" width="42.33203125" style="9" customWidth="1"/>
+    <col min="4" max="4" width="17.33203125" style="10" customWidth="1"/>
+    <col min="5" max="5" width="70.1640625" style="11" customWidth="1"/>
     <col min="6" max="6" width="26" style="11" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" style="10" customWidth="1"/>
-    <col min="8" max="8" width="38.7109375" style="11" customWidth="1"/>
+    <col min="7" max="7" width="24.5" style="10" customWidth="1"/>
+    <col min="8" max="8" width="38.6640625" style="11" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:8" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:8" ht="24" x14ac:dyDescent="0.2">
       <c r="B1" s="12" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B3" s="13"/>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B4" s="14" t="s">
         <v>28</v>
       </c>
@@ -2889,7 +2930,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B5" s="18" t="s">
         <v>35</v>
       </c>
@@ -2912,7 +2953,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="6" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B6" s="22" t="s">
         <v>35</v>
       </c>
@@ -2931,7 +2972,7 @@
       <c r="G6" s="26"/>
       <c r="H6" s="25"/>
     </row>
-    <row r="7" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B7" s="18" t="s">
         <v>35</v>
       </c>
@@ -2954,7 +2995,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="22" t="s">
         <v>35</v>
       </c>
@@ -2973,7 +3014,7 @@
       <c r="G8" s="26"/>
       <c r="H8" s="25"/>
     </row>
-    <row r="9" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
         <v>35</v>
       </c>
@@ -2992,7 +3033,7 @@
       <c r="G9" s="26"/>
       <c r="H9" s="25"/>
     </row>
-    <row r="10" spans="2:8" ht="75" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="64" x14ac:dyDescent="0.2">
       <c r="B10" s="18" t="s">
         <v>35</v>
       </c>
@@ -3015,7 +3056,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="18" t="s">
         <v>35</v>
       </c>
@@ -3038,7 +3079,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="12" spans="2:8" ht="30" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="32" x14ac:dyDescent="0.2">
       <c r="B12" s="18" t="s">
         <v>35</v>
       </c>
@@ -3059,7 +3100,7 @@
       </c>
       <c r="H12" s="30"/>
     </row>
-    <row r="13" spans="2:8" ht="50.65" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="50.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="18" t="s">
         <v>35</v>
       </c>
@@ -3080,7 +3121,7 @@
       </c>
       <c r="H13" s="30"/>
     </row>
-    <row r="14" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="32" t="s">
         <v>35</v>
       </c>
@@ -3099,7 +3140,7 @@
       <c r="G14" s="34"/>
       <c r="H14" s="33"/>
     </row>
-    <row r="15" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B15" s="32" t="s">
         <v>35</v>
       </c>
@@ -3118,7 +3159,7 @@
       <c r="G15" s="34"/>
       <c r="H15" s="33"/>
     </row>
-    <row r="16" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B16" s="32" t="s">
         <v>35</v>
       </c>
@@ -3137,7 +3178,7 @@
       <c r="G16" s="34"/>
       <c r="H16" s="33"/>
     </row>
-    <row r="17" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B17" s="35" t="s">
         <v>80</v>
       </c>
@@ -3156,7 +3197,7 @@
       </c>
       <c r="H17" s="38"/>
     </row>
-    <row r="18" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="35" t="s">
         <v>85</v>
       </c>
@@ -3173,7 +3214,7 @@
       <c r="G18" s="39"/>
       <c r="H18" s="38"/>
     </row>
-    <row r="19" spans="2:8" s="31" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B19" s="35" t="s">
         <v>85</v>
       </c>
@@ -3190,7 +3231,7 @@
       <c r="G19" s="39"/>
       <c r="H19" s="38"/>
     </row>
-    <row r="20" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:8" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="35" t="s">
         <v>85</v>
       </c>
@@ -3207,7 +3248,7 @@
       <c r="G20" s="39"/>
       <c r="H20" s="38"/>
     </row>
-    <row r="21" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:8" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="35" t="s">
         <v>85</v>
       </c>
@@ -3224,7 +3265,7 @@
       <c r="G21" s="39"/>
       <c r="H21" s="38"/>
     </row>
-    <row r="22" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:8" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="35" t="s">
         <v>85</v>
       </c>
@@ -3241,7 +3282,7 @@
       <c r="G22" s="39"/>
       <c r="H22" s="38"/>
     </row>
-    <row r="23" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:8" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="35" t="s">
         <v>85</v>
       </c>
@@ -3258,7 +3299,7 @@
       <c r="G23" s="39"/>
       <c r="H23" s="38"/>
     </row>
-    <row r="24" spans="2:8" s="31" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:8" s="31" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B24" s="32" t="s">
         <v>98</v>
       </c>
@@ -3275,7 +3316,7 @@
       <c r="G24" s="34"/>
       <c r="H24" s="33"/>
     </row>
-    <row r="25" spans="2:8" s="31" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:8" s="31" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="32" t="s">
         <v>98</v>
       </c>
@@ -3292,7 +3333,7 @@
       <c r="G25" s="34"/>
       <c r="H25" s="33"/>
     </row>
-    <row r="26" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:8" ht="16" x14ac:dyDescent="0.2">
       <c r="B26" s="8" t="s">
         <v>85</v>
       </c>
@@ -3308,181 +3349,181 @@
       <c r="G26" s="41"/>
       <c r="H26" s="9"/>
     </row>
-    <row r="27" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E27" s="9"/>
       <c r="F27" s="9"/>
       <c r="G27" s="41"/>
       <c r="H27" s="9"/>
     </row>
-    <row r="28" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E28" s="9"/>
       <c r="F28" s="9"/>
       <c r="G28" s="41"/>
       <c r="H28" s="9"/>
     </row>
-    <row r="29" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E29" s="9"/>
       <c r="F29" s="9"/>
       <c r="G29" s="41"/>
       <c r="H29" s="9"/>
     </row>
-    <row r="30" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E30" s="9"/>
       <c r="F30" s="9"/>
       <c r="G30" s="41"/>
       <c r="H30" s="9"/>
     </row>
-    <row r="31" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E31" s="9"/>
       <c r="F31" s="9"/>
       <c r="G31" s="41"/>
       <c r="H31" s="9"/>
     </row>
-    <row r="32" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:8" x14ac:dyDescent="0.2">
       <c r="E32" s="9"/>
       <c r="F32" s="9"/>
       <c r="G32" s="41"/>
       <c r="H32" s="9"/>
     </row>
-    <row r="33" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="33" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E33" s="9"/>
       <c r="F33" s="9"/>
       <c r="G33" s="41"/>
       <c r="H33" s="9"/>
     </row>
-    <row r="34" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="34" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E34" s="9"/>
       <c r="F34" s="9"/>
       <c r="G34" s="41"/>
       <c r="H34" s="9"/>
     </row>
-    <row r="35" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="35" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E35" s="9"/>
       <c r="F35" s="9"/>
       <c r="G35" s="41"/>
       <c r="H35" s="9"/>
     </row>
-    <row r="36" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="36" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E36" s="9"/>
       <c r="F36" s="9"/>
       <c r="G36" s="41"/>
       <c r="H36" s="9"/>
     </row>
-    <row r="37" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="37" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E37" s="9"/>
       <c r="F37" s="9"/>
       <c r="G37" s="41"/>
       <c r="H37" s="9"/>
     </row>
-    <row r="38" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="38" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E38" s="9"/>
       <c r="F38" s="9"/>
       <c r="G38" s="41"/>
       <c r="H38" s="9"/>
     </row>
-    <row r="39" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="39" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E39" s="9"/>
       <c r="F39" s="9"/>
       <c r="G39" s="41"/>
       <c r="H39" s="9"/>
     </row>
-    <row r="40" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="40" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E40" s="9"/>
       <c r="F40" s="9"/>
       <c r="G40" s="41"/>
       <c r="H40" s="9"/>
     </row>
-    <row r="41" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="41" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E41" s="9"/>
       <c r="F41" s="9"/>
       <c r="G41" s="41"/>
       <c r="H41" s="9"/>
     </row>
-    <row r="42" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="42" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E42" s="9"/>
       <c r="F42" s="9"/>
       <c r="G42" s="41"/>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="43" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E43" s="9"/>
       <c r="F43" s="9"/>
       <c r="G43" s="41"/>
       <c r="H43" s="9"/>
     </row>
-    <row r="44" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="44" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E44" s="9"/>
       <c r="F44" s="9"/>
       <c r="G44" s="41"/>
       <c r="H44" s="9"/>
     </row>
-    <row r="45" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="45" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E45" s="9"/>
       <c r="F45" s="9"/>
       <c r="G45" s="41"/>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="46" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E46" s="9"/>
       <c r="F46" s="9"/>
       <c r="G46" s="41"/>
       <c r="H46" s="9"/>
     </row>
-    <row r="47" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="47" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E47" s="9"/>
       <c r="F47" s="9"/>
       <c r="G47" s="41"/>
       <c r="H47" s="9"/>
     </row>
-    <row r="48" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="48" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E48" s="9"/>
       <c r="F48" s="9"/>
       <c r="G48" s="41"/>
       <c r="H48" s="9"/>
     </row>
-    <row r="49" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="49" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E49" s="9"/>
       <c r="F49" s="9"/>
       <c r="G49" s="41"/>
       <c r="H49" s="9"/>
     </row>
-    <row r="50" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="50" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E50" s="9"/>
       <c r="F50" s="9"/>
       <c r="G50" s="41"/>
       <c r="H50" s="9"/>
     </row>
-    <row r="51" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="51" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E51" s="9"/>
       <c r="F51" s="9"/>
       <c r="G51" s="41"/>
       <c r="H51" s="9"/>
     </row>
-    <row r="52" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="52" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E52" s="9"/>
       <c r="F52" s="9"/>
       <c r="G52" s="41"/>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="53" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E53" s="9"/>
       <c r="F53" s="9"/>
       <c r="G53" s="41"/>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="54" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E54" s="9"/>
       <c r="F54" s="9"/>
       <c r="G54" s="41"/>
       <c r="H54" s="9"/>
     </row>
-    <row r="55" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="55" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E55" s="9"/>
       <c r="F55" s="9"/>
       <c r="G55" s="41"/>
       <c r="H55" s="9"/>
     </row>
-    <row r="56" spans="5:8" x14ac:dyDescent="0.25">
+    <row r="56" spans="5:8" x14ac:dyDescent="0.2">
       <c r="E56" s="9"/>
       <c r="F56" s="9"/>
       <c r="G56" s="41"/>
@@ -3506,110 +3547,110 @@
       <selection activeCell="A12" sqref="A12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="13.7109375" customWidth="1"/>
-    <col min="3" max="3" width="12.28515625" customWidth="1"/>
-    <col min="5" max="5" width="7.7109375" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
-    <col min="7" max="7" width="16.7109375" customWidth="1"/>
-    <col min="8" max="8" width="2.7109375" customWidth="1"/>
-    <col min="10" max="10" width="10.5703125" customWidth="1"/>
-    <col min="11" max="12" width="10.28515625" customWidth="1"/>
-    <col min="13" max="13" width="2.7109375" customWidth="1"/>
-    <col min="15" max="15" width="12.7109375" customWidth="1"/>
-    <col min="16" max="16" width="13.5703125" customWidth="1"/>
-    <col min="17" max="17" width="10.5703125" customWidth="1"/>
-    <col min="18" max="18" width="12.7109375" customWidth="1"/>
-    <col min="19" max="21" width="9.28515625" customWidth="1"/>
-    <col min="22" max="22" width="9.5703125" customWidth="1"/>
-    <col min="23" max="23" width="9.28515625" customWidth="1"/>
-    <col min="24" max="25" width="16.7109375" customWidth="1"/>
-    <col min="26" max="29" width="21.7109375" customWidth="1"/>
-    <col min="30" max="30" width="2.7109375" customWidth="1"/>
-    <col min="31" max="31" width="10.28515625" customWidth="1"/>
-    <col min="32" max="32" width="12.7109375" customWidth="1"/>
-    <col min="33" max="39" width="10.28515625" customWidth="1"/>
-    <col min="40" max="40" width="9.7109375" customWidth="1"/>
-    <col min="42" max="42" width="18.42578125" customWidth="1"/>
-    <col min="43" max="43" width="18.28515625" customWidth="1"/>
-    <col min="44" max="44" width="2.7109375" customWidth="1"/>
-    <col min="46" max="46" width="12.7109375" customWidth="1"/>
-    <col min="53" max="53" width="11.28515625" customWidth="1"/>
-    <col min="56" max="56" width="2.7109375" customWidth="1"/>
-    <col min="57" max="57" width="8.7109375" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="13.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.33203125" customWidth="1"/>
+    <col min="5" max="5" width="7.6640625" customWidth="1"/>
+    <col min="6" max="6" width="17.6640625" customWidth="1"/>
+    <col min="7" max="7" width="16.6640625" customWidth="1"/>
+    <col min="8" max="8" width="2.6640625" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="12" width="10.33203125" customWidth="1"/>
+    <col min="13" max="13" width="2.6640625" customWidth="1"/>
+    <col min="15" max="15" width="12.6640625" customWidth="1"/>
+    <col min="16" max="16" width="13.5" customWidth="1"/>
+    <col min="17" max="17" width="10.5" customWidth="1"/>
+    <col min="18" max="18" width="12.6640625" customWidth="1"/>
+    <col min="19" max="21" width="9.33203125" customWidth="1"/>
+    <col min="22" max="22" width="9.5" customWidth="1"/>
+    <col min="23" max="23" width="9.33203125" customWidth="1"/>
+    <col min="24" max="25" width="16.6640625" customWidth="1"/>
+    <col min="26" max="29" width="21.6640625" customWidth="1"/>
+    <col min="30" max="30" width="2.6640625" customWidth="1"/>
+    <col min="31" max="31" width="10.33203125" customWidth="1"/>
+    <col min="32" max="32" width="12.6640625" customWidth="1"/>
+    <col min="33" max="39" width="10.33203125" customWidth="1"/>
+    <col min="40" max="40" width="9.6640625" customWidth="1"/>
+    <col min="42" max="42" width="18.5" customWidth="1"/>
+    <col min="43" max="43" width="18.33203125" customWidth="1"/>
+    <col min="44" max="44" width="2.6640625" customWidth="1"/>
+    <col min="46" max="46" width="12.6640625" customWidth="1"/>
+    <col min="53" max="53" width="11.33203125" customWidth="1"/>
+    <col min="56" max="56" width="2.6640625" customWidth="1"/>
+    <col min="57" max="57" width="8.6640625" customWidth="1"/>
     <col min="58" max="58" width="12" customWidth="1"/>
-    <col min="59" max="64" width="8.7109375" customWidth="1"/>
-    <col min="65" max="65" width="12.28515625" customWidth="1"/>
-    <col min="66" max="66" width="14.42578125" customWidth="1"/>
-    <col min="67" max="67" width="12.7109375" customWidth="1"/>
-    <col min="68" max="68" width="9.28515625" customWidth="1"/>
-    <col min="69" max="69" width="8.7109375" customWidth="1"/>
-    <col min="70" max="70" width="9.28515625" customWidth="1"/>
-    <col min="71" max="71" width="9.5703125" customWidth="1"/>
-    <col min="72" max="72" width="8.7109375" customWidth="1"/>
-    <col min="73" max="73" width="16.7109375" customWidth="1"/>
-    <col min="74" max="74" width="17.28515625" customWidth="1"/>
-    <col min="75" max="78" width="21.7109375" customWidth="1"/>
-    <col min="79" max="79" width="2.7109375" customWidth="1"/>
-    <col min="80" max="80" width="11.28515625" customWidth="1"/>
-    <col min="81" max="81" width="11.7109375" customWidth="1"/>
-    <col min="84" max="84" width="14.28515625" customWidth="1"/>
-    <col min="85" max="85" width="14.42578125" customWidth="1"/>
-    <col min="86" max="86" width="2.7109375" customWidth="1"/>
-    <col min="87" max="87" width="22.5703125" customWidth="1"/>
-    <col min="88" max="89" width="12.28515625" customWidth="1"/>
-    <col min="90" max="90" width="12.7109375" customWidth="1"/>
-    <col min="91" max="91" width="10.5703125" customWidth="1"/>
-    <col min="92" max="92" width="2.7109375" customWidth="1"/>
-    <col min="93" max="94" width="14.42578125" customWidth="1"/>
-    <col min="95" max="95" width="10.7109375" customWidth="1"/>
-    <col min="96" max="96" width="13.7109375" customWidth="1"/>
+    <col min="59" max="64" width="8.6640625" customWidth="1"/>
+    <col min="65" max="65" width="12.33203125" customWidth="1"/>
+    <col min="66" max="66" width="14.5" customWidth="1"/>
+    <col min="67" max="67" width="12.6640625" customWidth="1"/>
+    <col min="68" max="68" width="9.33203125" customWidth="1"/>
+    <col min="69" max="69" width="8.6640625" customWidth="1"/>
+    <col min="70" max="70" width="9.33203125" customWidth="1"/>
+    <col min="71" max="71" width="9.5" customWidth="1"/>
+    <col min="72" max="72" width="8.6640625" customWidth="1"/>
+    <col min="73" max="73" width="16.6640625" customWidth="1"/>
+    <col min="74" max="74" width="17.33203125" customWidth="1"/>
+    <col min="75" max="78" width="21.6640625" customWidth="1"/>
+    <col min="79" max="79" width="2.6640625" customWidth="1"/>
+    <col min="80" max="80" width="11.33203125" customWidth="1"/>
+    <col min="81" max="81" width="11.6640625" customWidth="1"/>
+    <col min="84" max="84" width="14.33203125" customWidth="1"/>
+    <col min="85" max="85" width="14.5" customWidth="1"/>
+    <col min="86" max="86" width="2.6640625" customWidth="1"/>
+    <col min="87" max="87" width="22.5" customWidth="1"/>
+    <col min="88" max="89" width="12.33203125" customWidth="1"/>
+    <col min="90" max="90" width="12.6640625" customWidth="1"/>
+    <col min="91" max="91" width="10.5" customWidth="1"/>
+    <col min="92" max="92" width="2.6640625" customWidth="1"/>
+    <col min="93" max="94" width="14.5" customWidth="1"/>
+    <col min="95" max="95" width="10.6640625" customWidth="1"/>
+    <col min="96" max="96" width="13.6640625" customWidth="1"/>
     <col min="97" max="97" width="12" customWidth="1"/>
-    <col min="98" max="98" width="2.7109375" customWidth="1"/>
-    <col min="99" max="99" width="12.5703125" customWidth="1"/>
-    <col min="100" max="100" width="11.5703125" customWidth="1"/>
+    <col min="98" max="98" width="2.6640625" customWidth="1"/>
+    <col min="99" max="99" width="12.5" customWidth="1"/>
+    <col min="100" max="100" width="11.5" customWidth="1"/>
     <col min="101" max="101" width="14" customWidth="1"/>
-    <col min="103" max="103" width="9.28515625" customWidth="1"/>
-    <col min="104" max="104" width="12.5703125" customWidth="1"/>
-    <col min="105" max="105" width="2.7109375" customWidth="1"/>
-    <col min="106" max="108" width="13.7109375" customWidth="1"/>
-    <col min="109" max="110" width="15.28515625" customWidth="1"/>
-    <col min="111" max="111" width="17.42578125" customWidth="1"/>
-    <col min="112" max="112" width="17.7109375" customWidth="1"/>
-    <col min="113" max="113" width="2.7109375" customWidth="1"/>
-    <col min="114" max="114" width="14.28515625" customWidth="1"/>
-    <col min="115" max="115" width="24.85546875" customWidth="1"/>
-    <col min="116" max="116" width="14.7109375" customWidth="1"/>
-    <col min="117" max="117" width="14.42578125" customWidth="1"/>
+    <col min="103" max="103" width="9.33203125" customWidth="1"/>
+    <col min="104" max="104" width="12.5" customWidth="1"/>
+    <col min="105" max="105" width="2.6640625" customWidth="1"/>
+    <col min="106" max="108" width="13.6640625" customWidth="1"/>
+    <col min="109" max="110" width="15.33203125" customWidth="1"/>
+    <col min="111" max="111" width="17.5" customWidth="1"/>
+    <col min="112" max="112" width="17.6640625" customWidth="1"/>
+    <col min="113" max="113" width="2.6640625" customWidth="1"/>
+    <col min="114" max="114" width="14.33203125" customWidth="1"/>
+    <col min="115" max="115" width="24.83203125" customWidth="1"/>
+    <col min="116" max="116" width="14.6640625" customWidth="1"/>
+    <col min="117" max="117" width="14.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:117" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:117" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="2" spans="2:117" ht="14.65" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="2:117" ht="14.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="42"/>
     </row>
-    <row r="3" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="5" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B5" s="43"/>
     </row>
-    <row r="6" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B6" s="43"/>
     </row>
-    <row r="9" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="CI9" s="43"/>
     </row>
-    <row r="11" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B11" s="44" t="s">
         <v>107</v>
       </c>
@@ -3677,7 +3718,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="12" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B12" s="6" t="s">
         <v>118</v>
       </c>
@@ -3723,7 +3764,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="13" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B13" s="44"/>
       <c r="C13" s="44"/>
       <c r="I13" s="44"/>
@@ -3792,7 +3833,7 @@
       <c r="DE13" s="43"/>
       <c r="DL13" s="43"/>
     </row>
-    <row r="14" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B14" s="47" t="s">
         <v>120</v>
       </c>
@@ -3838,7 +3879,7 @@
       <c r="DL14" s="43"/>
       <c r="DM14" s="43"/>
     </row>
-    <row r="15" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B15" s="48" t="s">
         <v>126</v>
       </c>
@@ -4155,7 +4196,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="16" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B16" s="53">
         <v>1004</v>
       </c>
@@ -4310,7 +4351,7 @@
       <c r="DL16" s="57"/>
       <c r="DM16" s="58"/>
     </row>
-    <row r="17" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B17" s="53">
         <v>1004</v>
       </c>
@@ -4465,7 +4506,7 @@
       <c r="DL17" s="57"/>
       <c r="DM17" s="58"/>
     </row>
-    <row r="18" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B18" s="53">
         <v>1004</v>
       </c>
@@ -4620,7 +4661,7 @@
       <c r="DL18" s="57"/>
       <c r="DM18" s="58"/>
     </row>
-    <row r="19" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B19" s="59">
         <v>1004</v>
       </c>
@@ -4742,7 +4783,7 @@
       <c r="DL19" s="57"/>
       <c r="DM19" s="58"/>
     </row>
-    <row r="20" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B20" s="59">
         <v>1004</v>
       </c>
@@ -4864,7 +4905,7 @@
       <c r="DL20" s="57"/>
       <c r="DM20" s="58"/>
     </row>
-    <row r="21" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B21" s="59">
         <v>1004</v>
       </c>
@@ -4963,7 +5004,7 @@
       <c r="DL21" s="57"/>
       <c r="DM21" s="58"/>
     </row>
-    <row r="22" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B22" s="53">
         <v>2065</v>
       </c>
@@ -5062,7 +5103,7 @@
       <c r="DL22" s="57"/>
       <c r="DM22" s="58"/>
     </row>
-    <row r="23" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B23" s="53">
         <v>2065</v>
       </c>
@@ -5161,7 +5202,7 @@
       <c r="DL23" s="57"/>
       <c r="DM23" s="58"/>
     </row>
-    <row r="24" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B24" s="53">
         <v>2065</v>
       </c>
@@ -5260,7 +5301,7 @@
       <c r="DL24" s="57"/>
       <c r="DM24" s="58"/>
     </row>
-    <row r="25" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B25" s="53">
         <v>2065</v>
       </c>
@@ -5357,7 +5398,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="26" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B26" s="59">
         <v>2065</v>
       </c>
@@ -5448,7 +5489,7 @@
       <c r="DG26" s="57"/>
       <c r="DH26" s="58"/>
     </row>
-    <row r="27" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B27" s="59">
         <v>2065</v>
       </c>
@@ -5528,7 +5569,7 @@
       <c r="CY27" s="57"/>
       <c r="CZ27" s="58"/>
     </row>
-    <row r="28" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B28" s="59">
         <v>4054</v>
       </c>
@@ -5573,7 +5614,7 @@
       <c r="BC28" s="58"/>
       <c r="CP28" s="24"/>
     </row>
-    <row r="29" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B29" s="59">
         <v>4054</v>
       </c>
@@ -5618,7 +5659,7 @@
       <c r="BC29" s="58"/>
       <c r="CP29" s="24"/>
     </row>
-    <row r="30" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B30" s="53">
         <v>4054</v>
       </c>
@@ -5663,7 +5704,7 @@
       <c r="BC30" s="58"/>
       <c r="CP30" s="24"/>
     </row>
-    <row r="31" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:117" x14ac:dyDescent="0.2">
       <c r="B31" s="53">
         <v>4054</v>
       </c>
@@ -5708,7 +5749,7 @@
       <c r="BC31" s="58"/>
       <c r="CP31" s="24"/>
     </row>
-    <row r="32" spans="2:117" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:117" x14ac:dyDescent="0.2">
       <c r="AE32" s="59">
         <v>5</v>
       </c>
@@ -5745,7 +5786,7 @@
       <c r="BC32" s="58"/>
       <c r="CP32" s="24"/>
     </row>
-    <row r="33" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE33" s="59">
         <v>5</v>
       </c>
@@ -5783,7 +5824,7 @@
       <c r="CP33" s="24"/>
       <c r="DB33" s="43"/>
     </row>
-    <row r="34" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE34" s="59">
         <v>5</v>
       </c>
@@ -5822,7 +5863,7 @@
       <c r="DB34" s="43"/>
       <c r="DC34" s="43"/>
     </row>
-    <row r="35" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE35" s="59">
         <v>5</v>
       </c>
@@ -5861,7 +5902,7 @@
       <c r="DB35" s="43"/>
       <c r="DC35" s="43"/>
     </row>
-    <row r="36" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE36" s="59">
         <v>5</v>
       </c>
@@ -5885,7 +5926,7 @@
       <c r="DB36" s="43"/>
       <c r="DC36" s="43"/>
     </row>
-    <row r="37" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE37" s="59">
         <v>5</v>
       </c>
@@ -5909,7 +5950,7 @@
       <c r="DB37" s="43"/>
       <c r="DC37" s="43"/>
     </row>
-    <row r="38" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE38" s="59">
         <v>10</v>
       </c>
@@ -5931,7 +5972,7 @@
       <c r="AT38" s="57"/>
       <c r="CP38" s="24"/>
     </row>
-    <row r="39" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE39" s="59">
         <v>10</v>
       </c>
@@ -5953,7 +5994,7 @@
       <c r="AT39" s="57"/>
       <c r="CP39" s="24"/>
     </row>
-    <row r="40" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE40" s="59">
         <v>10</v>
       </c>
@@ -5975,7 +6016,7 @@
       <c r="AT40" s="57"/>
       <c r="CP40" s="24"/>
     </row>
-    <row r="41" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:107" x14ac:dyDescent="0.2">
       <c r="B41" s="44"/>
       <c r="AE41" s="59">
         <v>10</v>
@@ -5997,7 +6038,7 @@
       <c r="AS41" s="57"/>
       <c r="AT41" s="57"/>
     </row>
-    <row r="42" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE42" s="59">
         <v>10</v>
       </c>
@@ -6018,7 +6059,7 @@
       <c r="AS42" s="57"/>
       <c r="AT42" s="57"/>
     </row>
-    <row r="43" spans="2:107" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:107" x14ac:dyDescent="0.2">
       <c r="AE43" s="59">
         <v>10</v>
       </c>
@@ -6039,7 +6080,7 @@
       <c r="AS43" s="57"/>
       <c r="AT43" s="57"/>
     </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:2" x14ac:dyDescent="0.2">
       <c r="B53" s="44"/>
     </row>
   </sheetData>
@@ -6049,44 +6090,667 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10D49D09-3CEC-8E4C-A755-E952608D97F1}">
+  <dimension ref="A1:Z19"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G52" sqref="G52"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="1" width="21.1640625" style="111" customWidth="1"/>
+    <col min="2" max="2" width="12" style="111" customWidth="1"/>
+    <col min="3" max="3" width="11.5" style="111"/>
+    <col min="4" max="4" width="12.33203125" style="111" customWidth="1"/>
+    <col min="5" max="5" width="12" style="111" customWidth="1"/>
+    <col min="6" max="6" width="11.5" style="111"/>
+    <col min="7" max="7" width="16.6640625" style="111" customWidth="1"/>
+    <col min="8" max="8" width="12" style="111" customWidth="1"/>
+    <col min="9" max="9" width="11.5" style="111"/>
+    <col min="10" max="10" width="21.1640625" style="111" customWidth="1"/>
+    <col min="11" max="11" width="12" style="111" customWidth="1"/>
+    <col min="12" max="12" width="11.5" style="111"/>
+    <col min="13" max="13" width="10.83203125" style="111" customWidth="1"/>
+    <col min="14" max="14" width="12" style="111" customWidth="1"/>
+    <col min="15" max="15" width="11.5" style="111"/>
+    <col min="16" max="16" width="16.6640625" style="111" customWidth="1"/>
+    <col min="17" max="17" width="12" style="111" customWidth="1"/>
+    <col min="18" max="16384" width="11.5" style="111"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A1" s="113" t="s">
+        <v>58</v>
+      </c>
+      <c r="B1" s="113"/>
+      <c r="D1" s="113" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" s="113"/>
+      <c r="G1" s="113" t="s">
+        <v>52</v>
+      </c>
+      <c r="H1" s="113"/>
+      <c r="J1" s="113" t="s">
+        <v>47</v>
+      </c>
+      <c r="K1" s="113"/>
+      <c r="M1" s="113" t="s">
+        <v>43</v>
+      </c>
+      <c r="N1" s="113"/>
+      <c r="P1" s="113" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q1" s="113"/>
+      <c r="S1" s="113" t="s">
+        <v>484</v>
+      </c>
+      <c r="T1" s="113"/>
+      <c r="V1" s="113" t="s">
+        <v>66</v>
+      </c>
+      <c r="W1" s="113"/>
+      <c r="Y1" s="113" t="s">
+        <v>70</v>
+      </c>
+      <c r="Z1" s="113"/>
+    </row>
+    <row r="2" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="B2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="D2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="E2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="G2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="H2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="J2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="K2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="M2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="N2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="P2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="Q2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="S2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="T2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="V2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="W2" s="112" t="s">
+        <v>494</v>
+      </c>
+      <c r="Y2" s="112" t="s">
+        <v>497</v>
+      </c>
+      <c r="Z2" s="112" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="3" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A3" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="B3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D3" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="E3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G3" s="111" t="s">
+        <v>147</v>
+      </c>
+      <c r="H3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J3" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="K3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="M3" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="N3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="P3" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="S3" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="T3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="V3" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="W3" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y3" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="Z3" s="111" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="4" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A4" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="B4" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="D4" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="E4" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="G4" s="111" t="s">
+        <v>148</v>
+      </c>
+      <c r="H4" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="J4" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="K4" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="M4" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="N4" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="P4" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="Q4" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="S4" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="T4" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="V4" s="111" t="s">
+        <v>156</v>
+      </c>
+      <c r="W4" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y4" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="Z4" s="111" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="5" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A5" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="B5" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D5" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="E5" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G5" s="111" t="s">
+        <v>126</v>
+      </c>
+      <c r="H5" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J5" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="K5" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="M5" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="N5" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="P5" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="Q5" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="S5" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="T5" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="V5" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="W5" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="Y5" s="111" t="s">
+        <v>157</v>
+      </c>
+      <c r="Z5" s="111" t="s">
+        <v>495</v>
+      </c>
+    </row>
+    <row r="6" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A6" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="B6" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D6" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="E6" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G6" s="111" t="s">
+        <v>149</v>
+      </c>
+      <c r="H6" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J6" s="111" t="s">
+        <v>134</v>
+      </c>
+      <c r="K6" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="M6" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="N6" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="P6" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="Q6" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="S6" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="T6" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="V6" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="W6" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y6" s="111" t="s">
+        <v>158</v>
+      </c>
+      <c r="Z6" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="7" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A7" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="B7" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D7" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="E7" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G7" s="111" t="s">
+        <v>150</v>
+      </c>
+      <c r="H7" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J7" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="K7" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="P7" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q7" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="V7" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="W7" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="Y7" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="Z7" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A8" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D8" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="E8" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G8" s="111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H8" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J8" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="K8" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="9" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A9" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="B9" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D9" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G9" s="111" t="s">
+        <v>152</v>
+      </c>
+      <c r="H9" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J9" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="K9" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="10" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A10" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="B10" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D10" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="E10" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G10" s="111" t="s">
+        <v>153</v>
+      </c>
+      <c r="H10" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J10" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="K10" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A11" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D11" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="G11" s="111" t="s">
+        <v>127</v>
+      </c>
+      <c r="H11" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J11" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="K11" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="12" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A12" s="111" t="s">
+        <v>133</v>
+      </c>
+      <c r="B12" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="D12" s="111" t="s">
+        <v>132</v>
+      </c>
+      <c r="E12" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="G12" s="111" t="s">
+        <v>128</v>
+      </c>
+      <c r="H12" s="111" t="s">
+        <v>495</v>
+      </c>
+      <c r="J12" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="K12" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="13" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A13" s="111" t="s">
+        <v>135</v>
+      </c>
+      <c r="B13" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="D13" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="E13" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="G13" s="111" t="s">
+        <v>129</v>
+      </c>
+      <c r="H13" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="J13" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="K13" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="14" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A14" s="111" t="s">
+        <v>136</v>
+      </c>
+      <c r="B14" s="111" t="s">
+        <v>496</v>
+      </c>
+      <c r="G14" s="111" t="s">
+        <v>130</v>
+      </c>
+      <c r="H14" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="15" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A15" s="111" t="s">
+        <v>137</v>
+      </c>
+      <c r="B15" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="16" spans="1:26" x14ac:dyDescent="0.15">
+      <c r="A16" s="111" t="s">
+        <v>140</v>
+      </c>
+      <c r="B16" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A17" s="111" t="s">
+        <v>141</v>
+      </c>
+      <c r="B17" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A18" s="111" t="s">
+        <v>143</v>
+      </c>
+      <c r="B18" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.15">
+      <c r="A19" s="111" t="s">
+        <v>145</v>
+      </c>
+      <c r="B19" s="111" t="s">
+        <v>496</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="S1:T1"/>
+    <mergeCell ref="V1:W1"/>
+    <mergeCell ref="Y1:Z1"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="D1:E1"/>
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="J1:K1"/>
+    <mergeCell ref="M1:N1"/>
+    <mergeCell ref="P1:Q1"/>
+  </mergeCells>
+  <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.05277777777778" bottom="1.05277777777778" header="0.78749999999999998" footer="0.78749999999999998"/>
+  <pageSetup paperSize="9" orientation="portrait" useFirstPageNumber="1" horizontalDpi="300" verticalDpi="300"/>
+  <headerFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <sheetPr>
     <tabColor rgb="FF44546A"/>
   </sheetPr>
   <dimension ref="A1:AMJ157"/>
   <sheetViews>
-    <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="D20" sqref="D20"/>
+    <sheetView topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.6640625" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" style="31" customWidth="1"/>
-    <col min="2" max="2" width="17.7109375" style="11" customWidth="1"/>
-    <col min="3" max="3" width="46.28515625" style="11" customWidth="1"/>
-    <col min="4" max="4" width="15.42578125" style="11" customWidth="1"/>
-    <col min="5" max="5" width="36.7109375" style="11" customWidth="1"/>
-    <col min="6" max="6" width="39.7109375" style="62" customWidth="1"/>
-    <col min="7" max="7" width="41.7109375" style="9" customWidth="1"/>
-    <col min="8" max="8" width="37.28515625" style="11" customWidth="1"/>
-    <col min="9" max="9" width="19.42578125" style="11" customWidth="1"/>
-    <col min="10" max="10" width="8.7109375" style="31"/>
-    <col min="11" max="11" width="16.7109375" style="31" customWidth="1"/>
-    <col min="12" max="1024" width="8.7109375" style="31"/>
+    <col min="1" max="1" width="2.6640625" style="31" customWidth="1"/>
+    <col min="2" max="2" width="17.6640625" style="11" customWidth="1"/>
+    <col min="3" max="3" width="46.33203125" style="11" customWidth="1"/>
+    <col min="4" max="4" width="15.5" style="11" customWidth="1"/>
+    <col min="5" max="5" width="36.6640625" style="11" customWidth="1"/>
+    <col min="6" max="6" width="39.6640625" style="62" customWidth="1"/>
+    <col min="7" max="7" width="41.6640625" style="9" customWidth="1"/>
+    <col min="8" max="8" width="37.33203125" style="11" customWidth="1"/>
+    <col min="9" max="9" width="19.5" style="11" customWidth="1"/>
+    <col min="10" max="10" width="8.6640625" style="31"/>
+    <col min="11" max="11" width="16.6640625" style="31" customWidth="1"/>
+    <col min="12" max="1024" width="8.6640625" style="31"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:9" ht="23.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:9" ht="24" x14ac:dyDescent="0.2">
       <c r="B1" s="63" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="63"/>
     </row>
-    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="64"/>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B4" s="65" t="s">
         <v>174</v>
       </c>
@@ -6094,11 +6758,11 @@
         <v>175</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B5" s="31"/>
       <c r="C5" s="4"/>
     </row>
-    <row r="7" spans="2:9" s="66" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:9" s="66" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B7" s="67" t="s">
         <v>28</v>
       </c>
@@ -6124,7 +6788,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B8" s="11" t="s">
         <v>35</v>
       </c>
@@ -6145,7 +6809,7 @@
       </c>
       <c r="H8" s="9"/>
     </row>
-    <row r="9" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B9" s="11" t="s">
         <v>35</v>
       </c>
@@ -6168,7 +6832,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B10" s="11" t="s">
         <v>35</v>
       </c>
@@ -6189,7 +6853,7 @@
       </c>
       <c r="H10" s="9"/>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B11" s="11" t="s">
         <v>35</v>
       </c>
@@ -6210,7 +6874,7 @@
       </c>
       <c r="H11" s="9"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B12" s="11" t="s">
         <v>35</v>
       </c>
@@ -6231,7 +6895,7 @@
       </c>
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B13" s="11" t="s">
         <v>35</v>
       </c>
@@ -6252,7 +6916,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="14" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B14" s="11" t="s">
         <v>35</v>
       </c>
@@ -6273,7 +6937,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B15" s="11" t="s">
         <v>35</v>
       </c>
@@ -6296,7 +6960,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>35</v>
       </c>
@@ -6317,7 +6981,7 @@
       </c>
       <c r="H16" s="9"/>
     </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B17" s="11" t="s">
         <v>35</v>
       </c>
@@ -6338,7 +7002,7 @@
       </c>
       <c r="H17" s="9"/>
     </row>
-    <row r="18" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B18" s="11" t="s">
         <v>35</v>
       </c>
@@ -6361,7 +7025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B19" s="11" t="s">
         <v>35</v>
       </c>
@@ -6382,7 +7046,7 @@
       </c>
       <c r="H19" s="9"/>
     </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B20" s="11" t="s">
         <v>35</v>
       </c>
@@ -6403,7 +7067,7 @@
       </c>
       <c r="H20" s="9"/>
     </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B21" s="11" t="s">
         <v>35</v>
       </c>
@@ -6424,7 +7088,7 @@
       </c>
       <c r="H21" s="9"/>
     </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B22" s="11" t="s">
         <v>35</v>
       </c>
@@ -6445,7 +7109,7 @@
       </c>
       <c r="H22" s="9"/>
     </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B23" s="11" t="s">
         <v>35</v>
       </c>
@@ -6466,7 +7130,7 @@
       </c>
       <c r="H23" s="9"/>
     </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B24" s="11" t="s">
         <v>35</v>
       </c>
@@ -6488,7 +7152,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B25" s="11" t="s">
         <v>35</v>
       </c>
@@ -6510,7 +7174,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="26" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:9" ht="112" x14ac:dyDescent="0.2">
       <c r="B26" s="11" t="s">
         <v>35</v>
       </c>
@@ -6533,7 +7197,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="27" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B27" s="62" t="s">
         <v>85</v>
       </c>
@@ -6556,7 +7220,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="28" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:9" ht="64" x14ac:dyDescent="0.2">
       <c r="B28" s="62" t="s">
         <v>85</v>
       </c>
@@ -6579,7 +7243,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="29" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B29" s="62" t="s">
         <v>85</v>
       </c>
@@ -6602,7 +7266,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="30" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B30" s="11" t="s">
         <v>35</v>
       </c>
@@ -6624,7 +7288,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="31" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B31" s="11" t="s">
         <v>35</v>
       </c>
@@ -6646,7 +7310,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="32" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B32" s="11" t="s">
         <v>35</v>
       </c>
@@ -6667,7 +7331,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B33" s="73" t="s">
         <v>35</v>
       </c>
@@ -6690,7 +7354,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B34" s="73" t="s">
         <v>35</v>
       </c>
@@ -6711,7 +7375,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B35" s="73" t="s">
         <v>35</v>
       </c>
@@ -6732,7 +7396,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="36" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B36" s="71" t="s">
         <v>35</v>
       </c>
@@ -6756,7 +7420,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B37" s="71" t="s">
         <v>35</v>
       </c>
@@ -6780,7 +7444,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="38" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B38" s="71" t="s">
         <v>35</v>
       </c>
@@ -6804,7 +7468,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="39" spans="2:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:9" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B39" s="70" t="s">
         <v>80</v>
       </c>
@@ -6826,7 +7490,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="40" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B40" s="76" t="s">
         <v>80</v>
       </c>
@@ -6850,7 +7514,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="41" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B41" s="76" t="s">
         <v>80</v>
       </c>
@@ -6872,7 +7536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="42" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B42" s="11" t="s">
         <v>80</v>
       </c>
@@ -6893,7 +7557,7 @@
       </c>
       <c r="H42" s="9"/>
     </row>
-    <row r="43" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B43" s="11" t="s">
         <v>80</v>
       </c>
@@ -6914,7 +7578,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="44" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B44" s="11" t="s">
         <v>80</v>
       </c>
@@ -6937,7 +7601,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="45" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B45" s="11" t="s">
         <v>80</v>
       </c>
@@ -6958,7 +7622,7 @@
       </c>
       <c r="H45" s="9"/>
     </row>
-    <row r="46" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B46" s="11" t="s">
         <v>80</v>
       </c>
@@ -6980,7 +7644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="2:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:9" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B47" s="11" t="s">
         <v>80</v>
       </c>
@@ -7004,7 +7668,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="48" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B48" s="11" t="s">
         <v>80</v>
       </c>
@@ -7026,7 +7690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="49" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B49" s="11" t="s">
         <v>80</v>
       </c>
@@ -7047,7 +7711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="50" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B50" s="11" t="s">
         <v>80</v>
       </c>
@@ -7070,7 +7734,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="51" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B51" s="11" t="s">
         <v>80</v>
       </c>
@@ -7091,7 +7755,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="52" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="52" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B52" s="11" t="s">
         <v>80</v>
       </c>
@@ -7112,7 +7776,7 @@
       </c>
       <c r="H52" s="9"/>
     </row>
-    <row r="53" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="53" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B53" s="11" t="s">
         <v>80</v>
       </c>
@@ -7133,7 +7797,7 @@
       </c>
       <c r="H53" s="9"/>
     </row>
-    <row r="54" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B54" s="11" t="s">
         <v>80</v>
       </c>
@@ -7156,7 +7820,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="55" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B55" s="11" t="s">
         <v>80</v>
       </c>
@@ -7179,7 +7843,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="56" spans="2:9" ht="75" x14ac:dyDescent="0.25">
+    <row r="56" spans="2:9" ht="80" x14ac:dyDescent="0.2">
       <c r="B56" s="11" t="s">
         <v>80</v>
       </c>
@@ -7202,7 +7866,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="57" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="57" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B57" s="11" t="s">
         <v>80</v>
       </c>
@@ -7225,7 +7889,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="58" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="58" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B58" s="11" t="s">
         <v>80</v>
       </c>
@@ -7248,7 +7912,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="59" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="59" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B59" s="62" t="s">
         <v>80</v>
       </c>
@@ -7272,7 +7936,7 @@
       </c>
       <c r="I59" s="62"/>
     </row>
-    <row r="60" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="60" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B60" s="62" t="s">
         <v>80</v>
       </c>
@@ -7296,7 +7960,7 @@
       </c>
       <c r="I60" s="62"/>
     </row>
-    <row r="61" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="61" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B61" s="62" t="s">
         <v>80</v>
       </c>
@@ -7320,7 +7984,7 @@
       </c>
       <c r="I61" s="62"/>
     </row>
-    <row r="62" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="62" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B62" s="62" t="s">
         <v>80</v>
       </c>
@@ -7344,7 +8008,7 @@
       </c>
       <c r="I62" s="62"/>
     </row>
-    <row r="63" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="63" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B63" s="62" t="s">
         <v>80</v>
       </c>
@@ -7368,7 +8032,7 @@
       </c>
       <c r="I63" s="62"/>
     </row>
-    <row r="64" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="64" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B64" s="62" t="s">
         <v>80</v>
       </c>
@@ -7392,7 +8056,7 @@
       </c>
       <c r="I64" s="62"/>
     </row>
-    <row r="65" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="65" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B65" s="62" t="s">
         <v>80</v>
       </c>
@@ -7413,7 +8077,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="66" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="66" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B66" s="62" t="s">
         <v>80</v>
       </c>
@@ -7436,7 +8100,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="67" spans="2:9" ht="120" x14ac:dyDescent="0.25">
+    <row r="67" spans="2:9" ht="112" x14ac:dyDescent="0.2">
       <c r="B67" s="76" t="s">
         <v>80</v>
       </c>
@@ -7460,7 +8124,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="68" spans="2:9" ht="90" x14ac:dyDescent="0.25">
+    <row r="68" spans="2:9" ht="80" x14ac:dyDescent="0.2">
       <c r="B68" s="11" t="s">
         <v>80</v>
       </c>
@@ -7484,7 +8148,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="69" spans="2:9" ht="135" x14ac:dyDescent="0.25">
+    <row r="69" spans="2:9" ht="128" x14ac:dyDescent="0.2">
       <c r="B69" s="11" t="s">
         <v>80</v>
       </c>
@@ -7508,7 +8172,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="70" spans="2:9" s="80" customFormat="1" ht="120" x14ac:dyDescent="0.25">
+    <row r="70" spans="2:9" s="80" customFormat="1" ht="80" x14ac:dyDescent="0.2">
       <c r="B70" s="11" t="s">
         <v>80</v>
       </c>
@@ -7532,7 +8196,7 @@
       </c>
       <c r="I70" s="9"/>
     </row>
-    <row r="71" spans="2:9" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="71" spans="2:9" s="80" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B71" s="11" t="s">
         <v>80</v>
       </c>
@@ -7556,7 +8220,7 @@
       </c>
       <c r="I71" s="11"/>
     </row>
-    <row r="72" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="72" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B72" s="11" t="s">
         <v>80</v>
       </c>
@@ -7579,7 +8243,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="73" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="73" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B73" s="11" t="s">
         <v>80</v>
       </c>
@@ -7602,7 +8266,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="74" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="74" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B74" s="11" t="s">
         <v>80</v>
       </c>
@@ -7625,7 +8289,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="75" spans="2:9" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="75" spans="2:9" s="80" customFormat="1" ht="48" x14ac:dyDescent="0.2">
       <c r="B75" s="11" t="s">
         <v>80</v>
       </c>
@@ -7649,7 +8313,7 @@
       </c>
       <c r="I75" s="11"/>
     </row>
-    <row r="76" spans="2:9" s="80" customFormat="1" ht="45" x14ac:dyDescent="0.25">
+    <row r="76" spans="2:9" s="80" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B76" s="11" t="s">
         <v>80</v>
       </c>
@@ -7673,7 +8337,7 @@
       </c>
       <c r="I76" s="11"/>
     </row>
-    <row r="77" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="77" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B77" s="11" t="s">
         <v>80</v>
       </c>
@@ -7696,7 +8360,7 @@
         <v>348</v>
       </c>
     </row>
-    <row r="78" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="78" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B78" s="11" t="s">
         <v>80</v>
       </c>
@@ -7719,7 +8383,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="79" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="79" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B79" s="70" t="s">
         <v>80</v>
       </c>
@@ -7740,7 +8404,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="80" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="80" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B80" s="70" t="s">
         <v>80</v>
       </c>
@@ -7761,7 +8425,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="81" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="81" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B81" s="71" t="s">
         <v>80</v>
       </c>
@@ -7785,7 +8449,7 @@
       </c>
       <c r="I81" s="62"/>
     </row>
-    <row r="82" spans="2:9" ht="60" x14ac:dyDescent="0.25">
+    <row r="82" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B82" s="71" t="s">
         <v>80</v>
       </c>
@@ -7809,7 +8473,7 @@
       </c>
       <c r="I82" s="62"/>
     </row>
-    <row r="83" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="83" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B83" s="11" t="s">
         <v>85</v>
       </c>
@@ -7830,7 +8494,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="84" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="84" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B84" s="11" t="s">
         <v>85</v>
       </c>
@@ -7851,7 +8515,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="85" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="85" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B85" s="11" t="s">
         <v>85</v>
       </c>
@@ -7872,7 +8536,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="86" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="86" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B86" s="11" t="s">
         <v>85</v>
       </c>
@@ -7894,7 +8558,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="87" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="87" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B87" s="11" t="s">
         <v>85</v>
       </c>
@@ -7915,7 +8579,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="88" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="88" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B88" s="11" t="s">
         <v>85</v>
       </c>
@@ -7936,7 +8600,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="89" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="89" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B89" s="11" t="s">
         <v>85</v>
       </c>
@@ -7957,7 +8621,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="90" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="90" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B90" s="11" t="s">
         <v>85</v>
       </c>
@@ -7980,7 +8644,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="91" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="91" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B91" s="73" t="s">
         <v>85</v>
       </c>
@@ -8003,7 +8667,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="92" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="92" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B92" s="73" t="s">
         <v>85</v>
       </c>
@@ -8026,7 +8690,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="93" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="93" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B93" s="73" t="s">
         <v>85</v>
       </c>
@@ -8047,7 +8711,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="94" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B94" s="73" t="s">
         <v>85</v>
       </c>
@@ -8068,7 +8732,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="95" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B95" s="73" t="s">
         <v>85</v>
       </c>
@@ -8089,7 +8753,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="96" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="96" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B96" s="73" t="s">
         <v>85</v>
       </c>
@@ -8110,7 +8774,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="97" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="97" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B97" s="73" t="s">
         <v>85</v>
       </c>
@@ -8131,7 +8795,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="98" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="98" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B98" s="73" t="s">
         <v>85</v>
       </c>
@@ -8152,7 +8816,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="99" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="99" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B99" s="73" t="s">
         <v>85</v>
       </c>
@@ -8173,7 +8837,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="100" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="100" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B100" s="73" t="s">
         <v>85</v>
       </c>
@@ -8197,7 +8861,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="101" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B101" s="70" t="s">
         <v>98</v>
       </c>
@@ -8221,7 +8885,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="102" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B102" s="70" t="s">
         <v>98</v>
       </c>
@@ -8245,7 +8909,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="103" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B103" s="70" t="s">
         <v>98</v>
       </c>
@@ -8269,7 +8933,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="104" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B104" s="70" t="s">
         <v>98</v>
       </c>
@@ -8293,7 +8957,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="105" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B105" s="71" t="s">
         <v>35</v>
       </c>
@@ -8315,7 +8979,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="106" spans="2:9" s="7" customFormat="1" ht="60" x14ac:dyDescent="0.25">
+    <row r="106" spans="2:9" s="7" customFormat="1" ht="64" x14ac:dyDescent="0.2">
       <c r="B106" s="71" t="s">
         <v>35</v>
       </c>
@@ -8339,7 +9003,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="107" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B107" s="71" t="s">
         <v>35</v>
       </c>
@@ -8361,7 +9025,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="108" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B108" s="71" t="s">
         <v>35</v>
       </c>
@@ -8383,7 +9047,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="109" spans="2:9" s="7" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="109" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B109" s="71" t="s">
         <v>35</v>
       </c>
@@ -8405,7 +9069,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="110" spans="2:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="110" spans="2:9" s="7" customFormat="1" ht="16" x14ac:dyDescent="0.2">
       <c r="B110" s="71" t="s">
         <v>35</v>
       </c>
@@ -8427,7 +9091,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="111" spans="2:9" s="7" customFormat="1" ht="30" x14ac:dyDescent="0.25">
+    <row r="111" spans="2:9" s="7" customFormat="1" ht="32" x14ac:dyDescent="0.2">
       <c r="B111" s="71" t="s">
         <v>35</v>
       </c>
@@ -8449,7 +9113,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="112" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="112" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B112" s="71" t="s">
         <v>35</v>
       </c>
@@ -8472,7 +9136,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="113" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="113" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B113" s="71" t="s">
         <v>35</v>
       </c>
@@ -8495,7 +9159,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="114" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="114" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B114" s="71" t="s">
         <v>35</v>
       </c>
@@ -8518,7 +9182,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="115" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="115" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B115" s="71" t="s">
         <v>35</v>
       </c>
@@ -8541,7 +9205,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="116" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="116" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B116" s="71" t="s">
         <v>35</v>
       </c>
@@ -8564,7 +9228,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="117" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="117" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B117" s="71" t="s">
         <v>35</v>
       </c>
@@ -8587,7 +9251,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="118" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="118" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B118" s="11" t="s">
         <v>35</v>
       </c>
@@ -8610,7 +9274,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="119" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="119" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B119" s="11" t="s">
         <v>35</v>
       </c>
@@ -8633,7 +9297,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="120" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="120" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B120" s="73" t="s">
         <v>35</v>
       </c>
@@ -8654,7 +9318,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="121" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="121" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B121" s="73" t="s">
         <v>35</v>
       </c>
@@ -8675,7 +9339,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="122" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="122" spans="2:9" ht="16" x14ac:dyDescent="0.2">
       <c r="B122" s="11" t="s">
         <v>35</v>
       </c>
@@ -8696,7 +9360,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="123" spans="2:9" ht="30" x14ac:dyDescent="0.25">
+    <row r="123" spans="2:9" ht="32" x14ac:dyDescent="0.2">
       <c r="B123" s="11" t="s">
         <v>35</v>
       </c>
@@ -8714,7 +9378,7 @@
       </c>
       <c r="H123" s="9"/>
     </row>
-    <row r="124" spans="2:9" ht="45" x14ac:dyDescent="0.25">
+    <row r="124" spans="2:9" ht="48" x14ac:dyDescent="0.2">
       <c r="B124" s="11" t="s">
         <v>35</v>
       </c>
@@ -8732,103 +9396,103 @@
       </c>
       <c r="H124" s="9"/>
     </row>
-    <row r="125" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="125" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H125" s="9"/>
     </row>
-    <row r="126" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="126" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H126" s="9"/>
     </row>
-    <row r="127" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="127" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H127" s="9"/>
     </row>
-    <row r="128" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="128" spans="2:9" x14ac:dyDescent="0.2">
       <c r="H128" s="9"/>
     </row>
-    <row r="129" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="129" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H129" s="9"/>
     </row>
-    <row r="130" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="130" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H130" s="9"/>
     </row>
-    <row r="131" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="131" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H131" s="9"/>
     </row>
-    <row r="132" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="132" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H132" s="9"/>
     </row>
-    <row r="133" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="133" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H133" s="9"/>
     </row>
-    <row r="134" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="134" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H134" s="9"/>
     </row>
-    <row r="135" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="135" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H135" s="9"/>
     </row>
-    <row r="136" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="136" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H136" s="9"/>
     </row>
-    <row r="137" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="137" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H137" s="9"/>
     </row>
-    <row r="138" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="138" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H138" s="9"/>
     </row>
-    <row r="139" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="139" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H139" s="9"/>
     </row>
-    <row r="140" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="140" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H140" s="9"/>
     </row>
-    <row r="141" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="141" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H141" s="9"/>
     </row>
-    <row r="142" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="142" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H142" s="9"/>
     </row>
-    <row r="143" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="143" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H143" s="9"/>
     </row>
-    <row r="144" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="144" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H144" s="9"/>
     </row>
-    <row r="145" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="145" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H145" s="9"/>
     </row>
-    <row r="146" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="146" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H146" s="9"/>
     </row>
-    <row r="147" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="147" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H147" s="9"/>
     </row>
-    <row r="148" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="148" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H148" s="9"/>
     </row>
-    <row r="149" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="149" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H149" s="9"/>
     </row>
-    <row r="150" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="150" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H150" s="9"/>
     </row>
-    <row r="151" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="151" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H151" s="9"/>
     </row>
-    <row r="152" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="152" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H152" s="9"/>
     </row>
-    <row r="153" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="153" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H153" s="9"/>
     </row>
-    <row r="154" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="154" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H154" s="9"/>
     </row>
-    <row r="155" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="155" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H155" s="9"/>
     </row>
-    <row r="156" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="156" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H156" s="9"/>
     </row>
-    <row r="157" spans="8:8" x14ac:dyDescent="0.25">
+    <row r="157" spans="8:8" x14ac:dyDescent="0.2">
       <c r="H157" s="9"/>
     </row>
   </sheetData>
@@ -8842,7 +9506,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB4C7E7"/>
@@ -8851,16 +9515,16 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="44.28515625" customWidth="1"/>
-    <col min="3" max="3" width="53.28515625" customWidth="1"/>
-    <col min="4" max="4" width="52.7109375" customWidth="1"/>
-    <col min="5" max="5" width="71.5703125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="44.33203125" customWidth="1"/>
+    <col min="3" max="3" width="53.33203125" customWidth="1"/>
+    <col min="4" max="4" width="52.6640625" customWidth="1"/>
+    <col min="5" max="5" width="71.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>414</v>
       </c>
@@ -8874,7 +9538,7 @@
       <c r="J1" s="31"/>
       <c r="K1" s="31"/>
     </row>
-    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="81"/>
       <c r="C2" s="31"/>
       <c r="D2" s="31"/>
@@ -8886,7 +9550,7 @@
       <c r="J2" s="31"/>
       <c r="K2" s="31"/>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="82" t="s">
         <v>415</v>
       </c>
@@ -8905,7 +9569,7 @@
       <c r="J3" s="31"/>
       <c r="K3" s="31"/>
     </row>
-    <row r="4" spans="2:11" ht="19.899999999999999" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:11" ht="20" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B4" s="82" t="s">
         <v>418</v>
       </c>
@@ -8924,7 +9588,7 @@
       <c r="J4" s="31"/>
       <c r="K4" s="31"/>
     </row>
-    <row r="5" spans="2:11" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="82" t="s">
         <v>422</v>
       </c>
@@ -8943,7 +9607,7 @@
       <c r="J5" s="31"/>
       <c r="K5" s="31"/>
     </row>
-    <row r="6" spans="2:11" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B6" s="82" t="s">
         <v>426</v>
       </c>
@@ -8962,7 +9626,7 @@
       <c r="J6" s="7"/>
       <c r="K6" s="86"/>
     </row>
-    <row r="7" spans="2:11" ht="36.4" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" ht="36.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B7" s="82" t="s">
         <v>430</v>
       </c>
@@ -8981,7 +9645,7 @@
       <c r="J7" s="31"/>
       <c r="K7" s="86"/>
     </row>
-    <row r="8" spans="2:11" ht="40.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:11" ht="41" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="82" t="s">
         <v>434</v>
       </c>
@@ -9000,7 +9664,7 @@
       <c r="J8" s="31"/>
       <c r="K8" s="86"/>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="31"/>
       <c r="C9" s="31"/>
       <c r="D9" s="31"/>
@@ -9010,7 +9674,7 @@
       <c r="J9" s="31"/>
       <c r="K9" s="86"/>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="31"/>
       <c r="C10" s="31"/>
       <c r="D10" s="31"/>
@@ -9023,7 +9687,7 @@
       <c r="J10" s="31"/>
       <c r="K10" s="31"/>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" s="31"/>
       <c r="C11" s="31"/>
       <c r="D11" s="31"/>
@@ -9034,7 +9698,7 @@
       <c r="J11" s="31"/>
       <c r="K11" s="31"/>
     </row>
-    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B12" s="31"/>
       <c r="C12" s="31"/>
       <c r="D12" s="31"/>
@@ -9045,7 +9709,7 @@
       <c r="J12" s="31"/>
       <c r="K12" s="31"/>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" s="89"/>
       <c r="C13" s="31"/>
       <c r="D13" s="31"/>
@@ -9057,7 +9721,7 @@
       <c r="J13" s="31"/>
       <c r="K13" s="31"/>
     </row>
-    <row r="14" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="89"/>
       <c r="C14" s="31"/>
       <c r="D14" s="31"/>
@@ -9069,7 +9733,7 @@
       <c r="J14" s="31"/>
       <c r="K14" s="31"/>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="89"/>
     </row>
   </sheetData>
@@ -9081,7 +9745,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB4C7E7"/>
@@ -9090,54 +9754,54 @@
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="11.5703125" customWidth="1"/>
-    <col min="3" max="3" width="15.7109375" customWidth="1"/>
-    <col min="4" max="4" width="17.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.5703125" customWidth="1"/>
-    <col min="6" max="6" width="11.5703125" customWidth="1"/>
-    <col min="7" max="7" width="12.5703125" customWidth="1"/>
-    <col min="8" max="8" width="11.7109375" customWidth="1"/>
-    <col min="9" max="9" width="17.42578125" customWidth="1"/>
-    <col min="11" max="11" width="11.5703125" customWidth="1"/>
-    <col min="12" max="12" width="5.7109375" customWidth="1"/>
-    <col min="13" max="13" width="17.42578125" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="11.5" customWidth="1"/>
+    <col min="3" max="3" width="15.6640625" customWidth="1"/>
+    <col min="4" max="4" width="17.5" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
+    <col min="6" max="6" width="11.5" customWidth="1"/>
+    <col min="7" max="7" width="12.5" customWidth="1"/>
+    <col min="8" max="8" width="11.6640625" customWidth="1"/>
+    <col min="9" max="9" width="17.5" customWidth="1"/>
+    <col min="11" max="11" width="11.5" customWidth="1"/>
+    <col min="12" max="12" width="5.6640625" customWidth="1"/>
+    <col min="13" max="13" width="17.5" customWidth="1"/>
     <col min="14" max="14" width="21" customWidth="1"/>
-    <col min="15" max="15" width="10.28515625" customWidth="1"/>
-    <col min="17" max="17" width="11.5703125" customWidth="1"/>
-    <col min="18" max="18" width="9.7109375" customWidth="1"/>
-    <col min="19" max="19" width="11.5703125" customWidth="1"/>
-    <col min="20" max="20" width="7.28515625" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="3.7109375" customWidth="1"/>
-    <col min="24" max="24" width="11.28515625" customWidth="1"/>
-    <col min="25" max="25" width="5.7109375" customWidth="1"/>
-    <col min="26" max="26" width="17.42578125" customWidth="1"/>
+    <col min="15" max="15" width="10.33203125" customWidth="1"/>
+    <col min="17" max="17" width="11.5" customWidth="1"/>
+    <col min="18" max="18" width="9.6640625" customWidth="1"/>
+    <col min="19" max="19" width="11.5" customWidth="1"/>
+    <col min="20" max="20" width="7.33203125" customWidth="1"/>
+    <col min="21" max="21" width="8.6640625" customWidth="1"/>
+    <col min="22" max="22" width="3.6640625" customWidth="1"/>
+    <col min="24" max="24" width="11.33203125" customWidth="1"/>
+    <col min="25" max="25" width="5.6640625" customWidth="1"/>
+    <col min="26" max="26" width="17.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:11" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:11" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>439</v>
       </c>
     </row>
-    <row r="3" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" t="s">
         <v>440</v>
       </c>
     </row>
-    <row r="5" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" t="s">
         <v>441</v>
       </c>
     </row>
-    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" t="s">
         <v>442</v>
       </c>
     </row>
-    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" t="s">
         <v>443</v>
       </c>
@@ -9145,7 +9809,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" t="s">
         <v>445</v>
       </c>
@@ -9153,7 +9817,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B11" t="s">
         <v>447</v>
       </c>
@@ -9161,12 +9825,12 @@
         <v>448</v>
       </c>
     </row>
-    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B13" t="s">
         <v>449</v>
       </c>
     </row>
-    <row r="15" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="90"/>
       <c r="C15" s="43"/>
       <c r="D15" s="43"/>
@@ -9178,7 +9842,7 @@
       <c r="J15" s="43"/>
       <c r="K15" s="43"/>
     </row>
-    <row r="16" spans="2:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="90" t="s">
         <v>450</v>
       </c>
@@ -9194,14 +9858,14 @@
       <c r="J16" s="4"/>
       <c r="K16" s="4"/>
     </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
       <c r="I17" s="4"/>
       <c r="J17" s="4"/>
       <c r="K17" s="4"/>
     </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="91" t="s">
         <v>127</v>
       </c>
@@ -9221,7 +9885,7 @@
       </c>
       <c r="L18" s="44"/>
     </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="94">
         <v>1</v>
       </c>
@@ -9240,7 +9904,7 @@
         <v>34.5</v>
       </c>
     </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="98">
         <v>2</v>
       </c>
@@ -9259,7 +9923,7 @@
         <v>529.5</v>
       </c>
     </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="102"/>
       <c r="C21" s="103"/>
       <c r="D21" s="31"/>
@@ -9268,7 +9932,7 @@
       <c r="H21" s="102"/>
       <c r="I21" s="102"/>
     </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="46"/>
       <c r="C22" s="40"/>
       <c r="D22" s="31"/>
@@ -9277,7 +9941,7 @@
       <c r="H22" s="46"/>
       <c r="I22" s="46"/>
     </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="90" t="s">
         <v>453</v>
       </c>
@@ -9290,7 +9954,7 @@
       <c r="H23" s="46"/>
       <c r="I23" s="46"/>
     </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="46"/>
       <c r="C24" s="40"/>
       <c r="D24" s="31"/>
@@ -9299,7 +9963,7 @@
       <c r="H24" s="46"/>
       <c r="I24" s="46"/>
     </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B25" s="91" t="s">
         <v>127</v>
       </c>
@@ -9318,7 +9982,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B26" s="94">
         <v>1</v>
       </c>
@@ -9337,7 +10001,7 @@
         <v>351</v>
       </c>
     </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B27" s="94">
         <v>2</v>
       </c>
@@ -9356,7 +10020,7 @@
         <v>700.5</v>
       </c>
     </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B28" s="98">
         <v>3</v>
       </c>
@@ -9375,7 +10039,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C29" s="31"/>
       <c r="D29" s="31"/>
       <c r="E29" s="31"/>
@@ -9383,7 +10047,7 @@
       <c r="H29" s="46"/>
       <c r="I29" s="46"/>
     </row>
-    <row r="30" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C30" s="31"/>
       <c r="D30" s="31"/>
       <c r="E30" s="31"/>
@@ -9391,7 +10055,7 @@
       <c r="H30" s="46"/>
       <c r="I30" s="46"/>
     </row>
-    <row r="31" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B31" s="90" t="s">
         <v>456</v>
       </c>
@@ -9404,7 +10068,7 @@
       <c r="H31" s="46"/>
       <c r="I31" s="46"/>
     </row>
-    <row r="32" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:12" x14ac:dyDescent="0.2">
       <c r="C32" s="31"/>
       <c r="D32" s="31"/>
       <c r="E32" s="31"/>
@@ -9412,7 +10076,7 @@
       <c r="H32" s="46"/>
       <c r="I32" s="46"/>
     </row>
-    <row r="33" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B33" s="91" t="s">
         <v>127</v>
       </c>
@@ -9435,7 +10099,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="34" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B34" s="94">
         <v>1</v>
       </c>
@@ -9458,7 +10122,7 @@
         <v>1413</v>
       </c>
     </row>
-    <row r="35" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B35" s="94">
         <v>2</v>
       </c>
@@ -9481,7 +10145,7 @@
         <v>384</v>
       </c>
     </row>
-    <row r="36" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:9" x14ac:dyDescent="0.2">
       <c r="B36" s="98">
         <v>3</v>
       </c>
@@ -9510,7 +10174,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <sheetPr>
     <tabColor rgb="FFB4C7E7"/>
@@ -9521,20 +10185,20 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="2.7109375" customWidth="1"/>
-    <col min="2" max="2" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="2.6640625" customWidth="1"/>
+    <col min="2" max="2" width="12.33203125" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="6" max="6" width="14.7109375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" ht="23.25" x14ac:dyDescent="0.35">
+    <row r="1" spans="2:10" ht="24" x14ac:dyDescent="0.3">
       <c r="B1" s="1" t="s">
         <v>466</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B3" s="44" t="s">
         <v>326</v>
       </c>
@@ -9549,7 +10213,7 @@
       <c r="I3" s="86"/>
       <c r="J3" s="31"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B4" s="107">
         <v>0</v>
       </c>
@@ -9561,7 +10225,7 @@
       </c>
       <c r="F4" s="107"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B5" s="107">
         <v>1</v>
       </c>
@@ -9569,7 +10233,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B6" s="107">
         <v>2</v>
       </c>
@@ -9581,7 +10245,7 @@
       </c>
       <c r="F6" s="108"/>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B7">
         <v>3</v>
       </c>
@@ -9589,7 +10253,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B8">
         <v>4</v>
       </c>
@@ -9597,7 +10261,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B9">
         <v>5</v>
       </c>
@@ -9605,7 +10269,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B10">
         <v>6</v>
       </c>
@@ -9613,7 +10277,7 @@
         <v>476</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B11">
         <v>7</v>
       </c>
@@ -9621,7 +10285,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B12" s="31">
         <v>8</v>
       </c>
@@ -9629,7 +10293,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B13" s="31">
         <v>9</v>
       </c>
@@ -9637,7 +10301,7 @@
         <v>479</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B14">
         <v>10</v>
       </c>
@@ -9645,7 +10309,7 @@
         <v>480</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B15">
         <v>11</v>
       </c>
@@ -9653,7 +10317,7 @@
         <v>481</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.25">
+    <row r="16" spans="2:10" x14ac:dyDescent="0.2">
       <c r="B16">
         <v>12</v>
       </c>
@@ -9661,7 +10325,7 @@
         <v>482</v>
       </c>
     </row>
-    <row r="17" spans="3:3" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:3" x14ac:dyDescent="0.2">
       <c r="C17" s="4"/>
     </row>
   </sheetData>

--- a/OpenResultsData/Docs/ORD_Data_Spec.xlsx
+++ b/OpenResultsData/Docs/ORD_Data_Spec.xlsx
@@ -5,7 +5,7 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="README" sheetId="1" state="visible" r:id="rId2"/>
@@ -488,7 +488,7 @@
     <t xml:space="preserve">Per Sample Exceedance Probability Table (PSEPT)</t>
   </si>
   <si>
-    <t xml:space="preserve">Error Log (ELOG)</t>
+    <t xml:space="preserve">ExposureSummary (EXPSUM)</t>
   </si>
   <si>
     <t xml:space="preserve">Only contains rows where Loss &gt; 0</t>
@@ -518,6 +518,9 @@
     <t xml:space="preserve">Existing amended table</t>
   </si>
   <si>
+    <t xml:space="preserve">New Table</t>
+  </si>
+  <si>
     <t xml:space="preserve">EventId</t>
   </si>
   <si>
@@ -1361,27 +1364,6 @@
     <t xml:space="preserve">For exposure</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ELOG</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,EXPSUM</t>
-    </r>
-  </si>
-  <si>
     <t xml:space="preserve">Account number</t>
   </si>
   <si>
@@ -1391,25 +1373,7 @@
     <t xml:space="preserve">Peril code</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <charset val="1"/>
-      </rPr>
-      <t xml:space="preserve">ELOG,REJEXP</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
-        <color rgb="FF000000"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">,EXPSUM</t>
-    </r>
+    <t xml:space="preserve">ELOG,REJEXP,EXPSUM</t>
   </si>
   <si>
     <t xml:space="preserve">Error message</t>
@@ -1753,7 +1717,7 @@
     <numFmt numFmtId="164" formatCode="General"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="20">
     <font>
       <sz val="11"/>
       <color rgb="FF000000"/>
@@ -1880,12 +1844,6 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
       <b val="true"/>
@@ -2314,15 +2272,15 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="20" applyFont="false" applyBorder="true" applyAlignment="true" applyProtection="true">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="15" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -2342,18 +2300,18 @@
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="7" shrinkToFit="false"/>
+      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="false" indent="13" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="1" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="3" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="18" fillId="2" borderId="2" xfId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="false">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2385,7 +2343,7 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="19" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -2490,7 +2448,7 @@
   </sheetPr>
   <dimension ref="B1:J32"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="B4" activeCellId="0" sqref="B4"/>
     </sheetView>
   </sheetViews>
@@ -2747,7 +2705,7 @@
   </sheetPr>
   <dimension ref="B1:H56"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A13" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="C16" activeCellId="0" sqref="C16"/>
     </sheetView>
   </sheetViews>
@@ -3420,8 +3378,8 @@
   </sheetPr>
   <dimension ref="B1:DC53"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CO1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="CU15" activeCellId="0" sqref="CU15"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F27" activeCellId="0" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.8359375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -3721,300 +3679,300 @@
         <v>134</v>
       </c>
       <c r="CU14" s="46" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B15" s="47" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="C15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="D15" s="48" t="s">
+        <v>138</v>
+      </c>
+      <c r="E15" s="48" t="s">
+        <v>139</v>
+      </c>
+      <c r="F15" s="48" t="s">
+        <v>140</v>
+      </c>
+      <c r="G15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="I15" s="47" t="s">
         <v>136</v>
       </c>
-      <c r="D15" s="48" t="s">
+      <c r="J15" s="48" t="s">
         <v>137</v>
       </c>
-      <c r="E15" s="48" t="s">
+      <c r="K15" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="L15" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="N15" s="47" t="s">
+        <v>136</v>
+      </c>
+      <c r="O15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="P15" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q15" s="48" t="s">
+        <v>144</v>
+      </c>
+      <c r="R15" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="S15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="T15" s="50" t="s">
+        <v>147</v>
+      </c>
+      <c r="U15" s="50" t="s">
+        <v>148</v>
+      </c>
+      <c r="V15" s="50" t="s">
+        <v>149</v>
+      </c>
+      <c r="W15" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="X15" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="Y15" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z15" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="AA15" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="AB15" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="AC15" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="AE15" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="AF15" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AG15" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="AH15" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AI15" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AJ15" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AK15" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="AL15" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="AM15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="AN15" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="F15" s="48" t="s">
+      <c r="AO15" s="48" t="s">
         <v>139</v>
       </c>
-      <c r="G15" s="49" t="s">
+      <c r="AP15" s="48" t="s">
         <v>140</v>
       </c>
-      <c r="I15" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="J15" s="48" t="s">
+      <c r="AQ15" s="49" t="s">
+        <v>141</v>
+      </c>
+      <c r="AS15" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="AT15" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="AU15" s="48" t="s">
         <v>136</v>
       </c>
-      <c r="K15" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="L15" s="49" t="s">
+      <c r="AV15" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="AW15" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="AX15" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="AY15" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="AZ15" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="BA15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="BB15" s="48" t="s">
+        <v>142</v>
+      </c>
+      <c r="BC15" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="BE15" s="47" t="s">
+        <v>157</v>
+      </c>
+      <c r="BF15" s="48" t="s">
+        <v>158</v>
+      </c>
+      <c r="BG15" s="48" t="s">
+        <v>136</v>
+      </c>
+      <c r="BH15" s="48" t="s">
+        <v>159</v>
+      </c>
+      <c r="BI15" s="48" t="s">
+        <v>160</v>
+      </c>
+      <c r="BJ15" s="48" t="s">
+        <v>161</v>
+      </c>
+      <c r="BK15" s="48" t="s">
+        <v>162</v>
+      </c>
+      <c r="BL15" s="48" t="s">
+        <v>163</v>
+      </c>
+      <c r="BM15" s="48" t="s">
+        <v>137</v>
+      </c>
+      <c r="BN15" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="BO15" s="48" t="s">
+        <v>145</v>
+      </c>
+      <c r="BP15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="BQ15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="BR15" s="48" t="s">
+        <v>148</v>
+      </c>
+      <c r="BS15" s="48" t="s">
+        <v>149</v>
+      </c>
+      <c r="BT15" s="48" t="s">
+        <v>150</v>
+      </c>
+      <c r="BU15" s="48" t="s">
+        <v>151</v>
+      </c>
+      <c r="BV15" s="48" t="s">
+        <v>152</v>
+      </c>
+      <c r="BW15" s="48" t="s">
+        <v>153</v>
+      </c>
+      <c r="BX15" s="48" t="s">
+        <v>154</v>
+      </c>
+      <c r="BY15" s="48" t="s">
+        <v>155</v>
+      </c>
+      <c r="BZ15" s="49" t="s">
+        <v>156</v>
+      </c>
+      <c r="CB15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="CC15" s="48" t="s">
+        <v>143</v>
+      </c>
+      <c r="CD15" s="48" t="s">
+        <v>146</v>
+      </c>
+      <c r="CE15" s="48" t="s">
+        <v>147</v>
+      </c>
+      <c r="CF15" s="50" t="s">
+        <v>164</v>
+      </c>
+      <c r="CG15" s="51" t="s">
+        <v>165</v>
+      </c>
+      <c r="CI15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="CJ15" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="CK15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="CL15" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="CM15" s="49" t="s">
+        <v>139</v>
+      </c>
+      <c r="CO15" s="47" t="s">
+        <v>137</v>
+      </c>
+      <c r="CP15" s="48" t="s">
         <v>138</v>
       </c>
-      <c r="N15" s="47" t="s">
-        <v>135</v>
-      </c>
-      <c r="O15" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="P15" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="Q15" s="48" t="s">
-        <v>143</v>
-      </c>
-      <c r="R15" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="S15" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="T15" s="50" t="s">
-        <v>146</v>
-      </c>
-      <c r="U15" s="50" t="s">
-        <v>147</v>
-      </c>
-      <c r="V15" s="50" t="s">
-        <v>148</v>
-      </c>
-      <c r="W15" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="X15" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="Y15" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="Z15" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="AA15" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="AB15" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="AC15" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="AE15" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="AF15" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AG15" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AH15" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="AI15" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AJ15" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="AK15" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AL15" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="AM15" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="AN15" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="AO15" s="48" t="s">
-        <v>138</v>
-      </c>
-      <c r="AP15" s="48" t="s">
+      <c r="CQ15" s="48" t="s">
+        <v>167</v>
+      </c>
+      <c r="CR15" s="48" t="s">
+        <v>168</v>
+      </c>
+      <c r="CS15" s="49" t="s">
         <v>139</v>
       </c>
-      <c r="AQ15" s="49" t="s">
-        <v>140</v>
-      </c>
-      <c r="AS15" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="AT15" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="AU15" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="AV15" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="AW15" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="AX15" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="AY15" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="AZ15" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="BA15" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="BB15" s="48" t="s">
-        <v>141</v>
-      </c>
-      <c r="BC15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="BE15" s="47" t="s">
-        <v>156</v>
-      </c>
-      <c r="BF15" s="48" t="s">
-        <v>157</v>
-      </c>
-      <c r="BG15" s="48" t="s">
-        <v>135</v>
-      </c>
-      <c r="BH15" s="48" t="s">
-        <v>158</v>
-      </c>
-      <c r="BI15" s="48" t="s">
-        <v>159</v>
-      </c>
-      <c r="BJ15" s="48" t="s">
-        <v>160</v>
-      </c>
-      <c r="BK15" s="48" t="s">
-        <v>161</v>
-      </c>
-      <c r="BL15" s="48" t="s">
-        <v>162</v>
-      </c>
-      <c r="BM15" s="48" t="s">
-        <v>136</v>
-      </c>
-      <c r="BN15" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="BO15" s="48" t="s">
-        <v>144</v>
-      </c>
-      <c r="BP15" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="BQ15" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="BR15" s="48" t="s">
-        <v>147</v>
-      </c>
-      <c r="BS15" s="48" t="s">
-        <v>148</v>
-      </c>
-      <c r="BT15" s="48" t="s">
-        <v>149</v>
-      </c>
-      <c r="BU15" s="48" t="s">
-        <v>150</v>
-      </c>
-      <c r="BV15" s="48" t="s">
-        <v>151</v>
-      </c>
-      <c r="BW15" s="48" t="s">
-        <v>152</v>
-      </c>
-      <c r="BX15" s="48" t="s">
-        <v>153</v>
-      </c>
-      <c r="BY15" s="48" t="s">
-        <v>154</v>
-      </c>
-      <c r="BZ15" s="49" t="s">
-        <v>155</v>
-      </c>
-      <c r="CB15" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="CC15" s="48" t="s">
-        <v>142</v>
-      </c>
-      <c r="CD15" s="48" t="s">
-        <v>145</v>
-      </c>
-      <c r="CE15" s="48" t="s">
-        <v>146</v>
-      </c>
-      <c r="CF15" s="50" t="s">
-        <v>163</v>
-      </c>
-      <c r="CG15" s="51" t="s">
-        <v>164</v>
-      </c>
-      <c r="CI15" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="CJ15" s="48" t="s">
-        <v>165</v>
-      </c>
-      <c r="CK15" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="CL15" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="CM15" s="49" t="s">
-        <v>138</v>
-      </c>
-      <c r="CO15" s="47" t="s">
-        <v>136</v>
-      </c>
-      <c r="CP15" s="48" t="s">
-        <v>137</v>
-      </c>
-      <c r="CQ15" s="48" t="s">
-        <v>166</v>
-      </c>
-      <c r="CR15" s="48" t="s">
-        <v>167</v>
-      </c>
-      <c r="CS15" s="49" t="s">
-        <v>138</v>
-      </c>
       <c r="CU15" s="47" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="CV15" s="48" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="CW15" s="48" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="CX15" s="48" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="CY15" s="48" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="CZ15" s="48" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="DA15" s="48" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="DB15" s="48" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="DC15" s="49" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -5792,7 +5750,7 @@
       <selection pane="topLeft" activeCell="AB1" activeCellId="0" sqref="AB1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5078125" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.515625" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="59" width="21.17"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="59" width="12"/>
@@ -5855,536 +5813,536 @@
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="61" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="D2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="D2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="E2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="G2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="G2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="H2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="J2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="J2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="K2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="M2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="M2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="N2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="P2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="P2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="Q2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="S2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="S2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="T2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="V2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="V2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="W2" s="61" t="s">
+        <v>179</v>
+      </c>
+      <c r="Y2" s="61" t="s">
         <v>178</v>
       </c>
-      <c r="Y2" s="61" t="s">
-        <v>177</v>
-      </c>
       <c r="Z2" s="61" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D3" s="59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G3" s="59" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="H3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J3" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="K3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="M3" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="N3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="P3" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="Q3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="S3" s="59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="T3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V3" s="59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="W3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y3" s="59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="Z3" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="59" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B4" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="D4" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="E4" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="G4" s="59" t="s">
+        <v>158</v>
+      </c>
+      <c r="H4" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="J4" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="K4" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="D4" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="E4" s="59" t="s">
+      <c r="M4" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="N4" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="G4" s="59" t="s">
-        <v>157</v>
-      </c>
-      <c r="H4" s="59" t="s">
+      <c r="P4" s="59" t="s">
+        <v>137</v>
+      </c>
+      <c r="Q4" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="J4" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="K4" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="M4" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="N4" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="P4" s="59" t="s">
-        <v>136</v>
-      </c>
-      <c r="Q4" s="59" t="s">
-        <v>179</v>
-      </c>
       <c r="S4" s="59" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="T4" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="V4" s="59" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="W4" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Y4" s="59" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="Z4" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D5" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="E5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G5" s="59" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="H5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J5" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="K5" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="M5" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="K5" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="M5" s="59" t="s">
-        <v>141</v>
-      </c>
       <c r="N5" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="P5" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="Q5" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="P5" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="59" t="s">
-        <v>179</v>
-      </c>
       <c r="S5" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="T5" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="V5" s="59" t="s">
+        <v>167</v>
+      </c>
+      <c r="W5" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="V5" s="59" t="s">
-        <v>166</v>
-      </c>
-      <c r="W5" s="59" t="s">
-        <v>179</v>
-      </c>
       <c r="Y5" s="59" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="Z5" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B6" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D6" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="E6" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G6" s="59" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="H6" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J6" s="59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="K6" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="M6" s="59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="N6" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P6" s="59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Q6" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="S6" s="59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="T6" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="V6" s="59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="W6" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y6" s="59" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="Z6" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A7" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B7" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D7" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E7" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G7" s="59" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="H7" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J7" s="59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="K7" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="P7" s="59" t="s">
+        <v>140</v>
+      </c>
+      <c r="Q7" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="V7" s="59" t="s">
         <v>139</v>
       </c>
-      <c r="Q7" s="59" t="s">
-        <v>180</v>
-      </c>
-      <c r="V7" s="59" t="s">
-        <v>138</v>
-      </c>
       <c r="W7" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Y7" s="59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="Z7" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A8" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B8" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D8" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="E8" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G8" s="59" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="H8" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J8" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="K8" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B9" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D9" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="E9" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G9" s="59" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="H9" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J9" s="59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="K9" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="B10" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D10" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E10" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G10" s="59" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="H10" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J10" s="59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="K10" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="B11" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="D11" s="59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="E11" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="G11" s="59" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H11" s="59" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="J11" s="59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="K11" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="59" t="s">
+        <v>143</v>
+      </c>
+      <c r="B12" s="59" t="s">
+        <v>180</v>
+      </c>
+      <c r="D12" s="59" t="s">
         <v>142</v>
       </c>
-      <c r="B12" s="59" t="s">
-        <v>179</v>
-      </c>
-      <c r="D12" s="59" t="s">
-        <v>141</v>
-      </c>
       <c r="E12" s="59" t="s">
+        <v>181</v>
+      </c>
+      <c r="G12" s="59" t="s">
+        <v>138</v>
+      </c>
+      <c r="H12" s="59" t="s">
         <v>180</v>
       </c>
-      <c r="G12" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="H12" s="59" t="s">
-        <v>179</v>
-      </c>
       <c r="J12" s="59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="K12" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B13" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="D13" s="59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="E13" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G13" s="59" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H13" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="J13" s="59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="K13" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="59" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B14" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="G14" s="59" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="H14" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="59" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B15" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="59" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B16" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="59" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="B17" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="59" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="B18" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="59" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="B19" s="59" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
     </row>
   </sheetData>
@@ -6417,8 +6375,8 @@
   </sheetPr>
   <dimension ref="B1:I157"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="B1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C117" activeCellId="0" sqref="C117"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E108" activeCellId="0" sqref="E108"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -6437,7 +6395,7 @@
   <sheetData>
     <row r="1" customFormat="false" ht="24" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="62" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
@@ -6448,10 +6406,10 @@
     </row>
     <row r="4" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B4" s="64" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C4" s="11" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6463,25 +6421,25 @@
         <v>31</v>
       </c>
       <c r="C7" s="65" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="D7" s="65" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="E7" s="65" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="F7" s="65" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="G7" s="66" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="H7" s="65" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="I7" s="66" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6489,19 +6447,19 @@
         <v>38</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D8" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E8" s="11" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F8" s="11" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H8" s="9"/>
     </row>
@@ -6510,22 +6468,22 @@
         <v>38</v>
       </c>
       <c r="C9" s="11" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="D9" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E9" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="F9" s="11" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="G9" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6533,19 +6491,19 @@
         <v>38</v>
       </c>
       <c r="C10" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D10" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E10" s="11" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="F10" s="11" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="G10" s="9" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="H10" s="9"/>
     </row>
@@ -6554,19 +6512,19 @@
         <v>38</v>
       </c>
       <c r="C11" s="11" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="D11" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E11" s="11" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="F11" s="11" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="G11" s="9" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="H11" s="9"/>
     </row>
@@ -6581,13 +6539,13 @@
         <v>6</v>
       </c>
       <c r="E12" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F12" s="11" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="G12" s="9" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="H12" s="9"/>
     </row>
@@ -6596,16 +6554,16 @@
         <v>38</v>
       </c>
       <c r="C13" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D13" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E13" s="11" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G13" s="9" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="H13" s="9"/>
       <c r="I13" s="11" t="s">
@@ -6617,16 +6575,16 @@
         <v>38</v>
       </c>
       <c r="C14" s="11" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D14" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E14" s="11" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="G14" s="9" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="H14" s="9"/>
       <c r="I14" s="11" t="s">
@@ -6638,22 +6596,22 @@
         <v>38</v>
       </c>
       <c r="C15" s="11" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="D15" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E15" s="11" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="F15" s="11" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="G15" s="9" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="H15" s="9" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -6661,19 +6619,19 @@
         <v>38</v>
       </c>
       <c r="C16" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D16" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E16" s="11" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="F16" s="11" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="G16" s="9" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="H16" s="9"/>
     </row>
@@ -6682,19 +6640,19 @@
         <v>38</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="D17" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="F17" s="11" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="G17" s="9" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="H17" s="9"/>
     </row>
@@ -6709,13 +6667,13 @@
         <v>6</v>
       </c>
       <c r="E18" s="11" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="G18" s="9" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="H18" s="9" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="I18" s="11" t="s">
         <v>42</v>
@@ -6726,19 +6684,19 @@
         <v>38</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="D19" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E19" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="F19" s="11" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="G19" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H19" s="9"/>
     </row>
@@ -6747,19 +6705,19 @@
         <v>38</v>
       </c>
       <c r="C20" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D20" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E20" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="F20" s="11" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="G20" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H20" s="9"/>
     </row>
@@ -6768,19 +6726,19 @@
         <v>38</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D21" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E21" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="F21" s="11" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="G21" s="9" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H21" s="9"/>
     </row>
@@ -6789,19 +6747,19 @@
         <v>38</v>
       </c>
       <c r="C22" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D22" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E22" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="F22" s="11" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="G22" s="9" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H22" s="9"/>
     </row>
@@ -6810,19 +6768,19 @@
         <v>38</v>
       </c>
       <c r="C23" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D23" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E23" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="F23" s="11" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="G23" s="9" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H23" s="9"/>
     </row>
@@ -6831,17 +6789,17 @@
         <v>38</v>
       </c>
       <c r="C24" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D24" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E24" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="F24" s="67"/>
       <c r="G24" s="9" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H24" s="9"/>
       <c r="I24" s="11" t="s">
@@ -6853,17 +6811,17 @@
         <v>38</v>
       </c>
       <c r="C25" s="11" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D25" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E25" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="F25" s="67"/>
       <c r="G25" s="9" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H25" s="9"/>
       <c r="I25" s="11" t="s">
@@ -6881,13 +6839,13 @@
         <v>6</v>
       </c>
       <c r="E26" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G26" s="9" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H26" s="9" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="I26" s="11" t="s">
         <v>42</v>
@@ -6898,19 +6856,19 @@
         <v>91</v>
       </c>
       <c r="C27" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D27" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E27" s="11" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="G27" s="11" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H27" s="36" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="I27" s="11" t="s">
         <v>42</v>
@@ -6921,19 +6879,19 @@
         <v>91</v>
       </c>
       <c r="C28" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D28" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E28" s="11" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="G28" s="11" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="H28" s="36" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="I28" s="11" t="s">
         <v>42</v>
@@ -6944,19 +6902,19 @@
         <v>91</v>
       </c>
       <c r="C29" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D29" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E29" s="11" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="G29" s="11" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="H29" s="36" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="I29" s="11" t="s">
         <v>42</v>
@@ -6967,17 +6925,17 @@
         <v>38</v>
       </c>
       <c r="C30" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D30" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E30" s="67" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="F30" s="63"/>
       <c r="G30" s="9" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="H30" s="9"/>
       <c r="I30" s="11" t="s">
@@ -6989,17 +6947,17 @@
         <v>38</v>
       </c>
       <c r="C31" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D31" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E31" s="67" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="F31" s="63"/>
       <c r="G31" s="9" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="H31" s="9"/>
       <c r="I31" s="11" t="s">
@@ -7011,16 +6969,16 @@
         <v>38</v>
       </c>
       <c r="C32" s="67" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="D32" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E32" s="11" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="G32" s="9" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="H32" s="9"/>
       <c r="I32" s="11" t="s">
@@ -7032,19 +6990,19 @@
         <v>38</v>
       </c>
       <c r="C33" s="67" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="D33" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E33" s="68" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="G33" s="36" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="H33" s="69" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="I33" s="36" t="s">
         <v>42</v>
@@ -7055,16 +7013,16 @@
         <v>38</v>
       </c>
       <c r="C34" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D34" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E34" s="68" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="G34" s="36" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="H34" s="36"/>
       <c r="I34" s="36" t="s">
@@ -7076,16 +7034,16 @@
         <v>38</v>
       </c>
       <c r="C35" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D35" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E35" s="68" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="G35" s="36" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="H35" s="36"/>
       <c r="I35" s="36" t="s">
@@ -7097,20 +7055,20 @@
         <v>38</v>
       </c>
       <c r="C36" s="67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D36" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E36" s="67" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="F36" s="67"/>
       <c r="G36" s="35" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="H36" s="35" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="I36" s="35" t="s">
         <v>42</v>
@@ -7121,20 +7079,20 @@
         <v>38</v>
       </c>
       <c r="C37" s="67" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="D37" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E37" s="67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F37" s="67"/>
       <c r="G37" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H37" s="35" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="I37" s="35" t="s">
         <v>42</v>
@@ -7145,20 +7103,20 @@
         <v>38</v>
       </c>
       <c r="C38" s="67" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="D38" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E38" s="67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F38" s="67"/>
       <c r="G38" s="35" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="H38" s="35" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="I38" s="67" t="s">
         <v>42</v>
@@ -7169,18 +7127,18 @@
         <v>86</v>
       </c>
       <c r="C39" s="67" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="D39" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E39" s="67" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="F39" s="67"/>
       <c r="G39" s="35"/>
       <c r="H39" s="35" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="I39" s="67" t="s">
         <v>42</v>
@@ -7191,20 +7149,20 @@
         <v>86</v>
       </c>
       <c r="C40" s="67" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="D40" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E40" s="70" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="F40" s="70"/>
       <c r="G40" s="35" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="H40" s="9" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="I40" s="11" t="s">
         <v>42</v>
@@ -7215,17 +7173,17 @@
         <v>86</v>
       </c>
       <c r="C41" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D41" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E41" s="70" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="F41" s="70"/>
       <c r="G41" s="35" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="H41" s="9"/>
       <c r="I41" s="11" t="s">
@@ -7237,19 +7195,19 @@
         <v>86</v>
       </c>
       <c r="C42" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D42" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E42" s="11" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="F42" s="11" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="G42" s="9" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="H42" s="9"/>
     </row>
@@ -7258,16 +7216,16 @@
         <v>86</v>
       </c>
       <c r="C43" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D43" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E43" s="11" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="G43" s="9" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="H43" s="9"/>
       <c r="I43" s="11" t="s">
@@ -7279,19 +7237,19 @@
         <v>86</v>
       </c>
       <c r="C44" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D44" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E44" s="11" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="G44" s="9" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="H44" s="9" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="I44" s="9" t="s">
         <v>42</v>
@@ -7302,19 +7260,19 @@
         <v>86</v>
       </c>
       <c r="C45" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D45" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E45" s="11" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="F45" s="11" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="G45" s="9" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="H45" s="9"/>
     </row>
@@ -7323,17 +7281,17 @@
         <v>86</v>
       </c>
       <c r="C46" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D46" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E46" s="67" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="F46" s="67"/>
       <c r="G46" s="35" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="H46" s="35"/>
       <c r="I46" s="67" t="s">
@@ -7345,20 +7303,20 @@
         <v>86</v>
       </c>
       <c r="C47" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D47" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E47" s="70" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="F47" s="67"/>
       <c r="G47" s="35" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="H47" s="35" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="I47" s="67" t="s">
         <v>42</v>
@@ -7369,17 +7327,17 @@
         <v>86</v>
       </c>
       <c r="C48" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D48" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E48" s="70" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="F48" s="67"/>
       <c r="G48" s="35" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="H48" s="35"/>
       <c r="I48" s="67" t="s">
@@ -7391,17 +7349,17 @@
         <v>86</v>
       </c>
       <c r="C49" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D49" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E49" s="70" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="F49" s="70"/>
       <c r="H49" s="9" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="I49" s="9" t="s">
         <v>42</v>
@@ -7412,19 +7370,19 @@
         <v>86</v>
       </c>
       <c r="C50" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D50" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E50" s="11" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="G50" s="9" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H50" s="9" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="I50" s="11" t="s">
         <v>42</v>
@@ -7435,16 +7393,16 @@
         <v>86</v>
       </c>
       <c r="C51" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D51" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E51" s="11" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="G51" s="9" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="H51" s="9"/>
       <c r="I51" s="11" t="s">
@@ -7456,19 +7414,19 @@
         <v>86</v>
       </c>
       <c r="C52" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D52" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E52" s="11" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="F52" s="11" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="G52" s="9" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="H52" s="9"/>
     </row>
@@ -7477,19 +7435,19 @@
         <v>86</v>
       </c>
       <c r="C53" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D53" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E53" s="11" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="F53" s="11" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="G53" s="9" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="H53" s="9"/>
     </row>
@@ -7498,22 +7456,22 @@
         <v>86</v>
       </c>
       <c r="C54" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D54" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E54" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="F54" s="11" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="G54" s="9" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="H54" s="9" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
     </row>
     <row r="55" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7521,22 +7479,22 @@
         <v>86</v>
       </c>
       <c r="C55" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D55" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E55" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="F55" s="11" t="s">
+        <v>304</v>
+      </c>
+      <c r="G55" s="9" t="s">
+        <v>305</v>
+      </c>
+      <c r="H55" s="9" t="s">
         <v>303</v>
-      </c>
-      <c r="F55" s="11" t="s">
-        <v>303</v>
-      </c>
-      <c r="G55" s="9" t="s">
-        <v>304</v>
-      </c>
-      <c r="H55" s="9" t="s">
-        <v>302</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7544,22 +7502,22 @@
         <v>86</v>
       </c>
       <c r="C56" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D56" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E56" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="F56" s="11" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="G56" s="9" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="H56" s="9" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7567,19 +7525,19 @@
         <v>86</v>
       </c>
       <c r="C57" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D57" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E57" s="11" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="G57" s="9" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="H57" s="9" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="I57" s="11" t="s">
         <v>42</v>
@@ -7590,19 +7548,19 @@
         <v>86</v>
       </c>
       <c r="C58" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D58" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E58" s="11" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="G58" s="9" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="H58" s="9" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="I58" s="11" t="s">
         <v>42</v>
@@ -7613,22 +7571,22 @@
         <v>86</v>
       </c>
       <c r="C59" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D59" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E59" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="F59" s="11" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="G59" s="36" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="H59" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="60" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7636,22 +7594,22 @@
         <v>86</v>
       </c>
       <c r="C60" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D60" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E60" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="F60" s="11" t="s">
+        <v>318</v>
+      </c>
+      <c r="G60" s="36" t="s">
+        <v>319</v>
+      </c>
+      <c r="H60" s="36" t="s">
         <v>317</v>
-      </c>
-      <c r="F60" s="11" t="s">
-        <v>317</v>
-      </c>
-      <c r="G60" s="36" t="s">
-        <v>318</v>
-      </c>
-      <c r="H60" s="36" t="s">
-        <v>316</v>
       </c>
     </row>
     <row r="61" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7659,22 +7617,22 @@
         <v>86</v>
       </c>
       <c r="C61" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D61" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E61" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="F61" s="11" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="G61" s="36" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="H61" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="62" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7682,22 +7640,22 @@
         <v>86</v>
       </c>
       <c r="C62" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D62" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E62" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="F62" s="11" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="G62" s="36" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="H62" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="63" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7705,22 +7663,22 @@
         <v>86</v>
       </c>
       <c r="C63" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D63" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E63" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="F63" s="11" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="G63" s="36" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="H63" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="64" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7728,22 +7686,22 @@
         <v>86</v>
       </c>
       <c r="C64" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D64" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E64" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="F64" s="11" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="G64" s="36" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="H64" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
     </row>
     <row r="65" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7751,16 +7709,16 @@
         <v>86</v>
       </c>
       <c r="C65" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D65" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E65" s="11" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="G65" s="36" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="H65" s="36"/>
       <c r="I65" s="11" t="s">
@@ -7772,19 +7730,19 @@
         <v>86</v>
       </c>
       <c r="C66" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D66" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E66" s="11" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G66" s="36" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H66" s="36" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="I66" s="11" t="s">
         <v>42</v>
@@ -7795,20 +7753,20 @@
         <v>86</v>
       </c>
       <c r="C67" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D67" s="68" t="s">
         <v>10</v>
       </c>
       <c r="E67" s="70" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="F67" s="67"/>
       <c r="G67" s="35" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="H67" s="9" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="I67" s="11" t="s">
         <v>42</v>
@@ -7819,23 +7777,23 @@
         <v>86</v>
       </c>
       <c r="C68" s="67" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="D68" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E68" s="70" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="F68" s="70"/>
       <c r="G68" s="9" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="H68" s="9" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="I68" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="69" customFormat="false" ht="128" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7843,23 +7801,23 @@
         <v>86</v>
       </c>
       <c r="C69" s="67" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="D69" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E69" s="71" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="F69" s="71"/>
       <c r="G69" s="9" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="H69" s="9" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="I69" s="9" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
     </row>
     <row r="70" s="72" customFormat="true" ht="80" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7867,22 +7825,22 @@
         <v>86</v>
       </c>
       <c r="C70" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D70" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E70" s="70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="F70" s="70" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="G70" s="9" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="H70" s="9" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="I70" s="9"/>
     </row>
@@ -7891,7 +7849,7 @@
         <v>86</v>
       </c>
       <c r="C71" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D71" s="11" t="s">
         <v>10</v>
@@ -7903,10 +7861,10 @@
         <v>68</v>
       </c>
       <c r="G71" s="9" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="H71" s="36" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="I71" s="11"/>
     </row>
@@ -7915,22 +7873,22 @@
         <v>86</v>
       </c>
       <c r="C72" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D72" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E72" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F72" s="11" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="G72" s="9" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="H72" s="36" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
     </row>
     <row r="73" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7938,7 +7896,7 @@
         <v>86</v>
       </c>
       <c r="C73" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D73" s="11" t="s">
         <v>10</v>
@@ -7950,10 +7908,10 @@
         <v>73</v>
       </c>
       <c r="G73" s="9" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="H73" s="36" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
     </row>
     <row r="74" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7961,22 +7919,22 @@
         <v>86</v>
       </c>
       <c r="C74" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D74" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E74" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="F74" s="11" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="G74" s="9" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="H74" s="36" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
     </row>
     <row r="75" s="72" customFormat="true" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -7984,22 +7942,22 @@
         <v>86</v>
       </c>
       <c r="C75" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D75" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E75" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="F75" s="11" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="G75" s="9" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="H75" s="36" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="I75" s="11"/>
     </row>
@@ -8008,7 +7966,7 @@
         <v>86</v>
       </c>
       <c r="C76" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D76" s="11" t="s">
         <v>10</v>
@@ -8020,10 +7978,10 @@
         <v>52</v>
       </c>
       <c r="G76" s="9" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="H76" s="36" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="I76" s="11"/>
     </row>
@@ -8032,7 +7990,7 @@
         <v>86</v>
       </c>
       <c r="C77" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D77" s="11" t="s">
         <v>10</v>
@@ -8044,10 +8002,10 @@
         <v>63</v>
       </c>
       <c r="G77" s="9" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="H77" s="36" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
     </row>
     <row r="78" customFormat="false" ht="32" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8055,22 +8013,22 @@
         <v>86</v>
       </c>
       <c r="C78" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D78" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E78" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="F78" s="11" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="G78" s="9" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="H78" s="36" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
     </row>
     <row r="79" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8078,20 +8036,20 @@
         <v>86</v>
       </c>
       <c r="C79" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D79" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E79" s="67" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="F79" s="67" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G79" s="35"/>
       <c r="H79" s="36" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
     </row>
     <row r="80" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8099,20 +8057,20 @@
         <v>86</v>
       </c>
       <c r="C80" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D80" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E80" s="67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="F80" s="67" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="G80" s="35"/>
       <c r="H80" s="36" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
     </row>
     <row r="81" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8120,22 +8078,22 @@
         <v>86</v>
       </c>
       <c r="C81" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D81" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E81" s="67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="F81" s="67" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="G81" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H81" s="36" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
     </row>
     <row r="82" customFormat="false" ht="48" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8143,22 +8101,22 @@
         <v>86</v>
       </c>
       <c r="C82" s="67" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="D82" s="67" t="s">
         <v>10</v>
       </c>
       <c r="E82" s="67" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="F82" s="67" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="G82" s="35" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="H82" s="36" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
     </row>
     <row r="83" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -8166,16 +8124,16 @@
         <v>91</v>
       </c>
       <c r="C83" s="67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D83" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E83" s="11" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="G83" s="9" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="H83" s="9"/>
       <c r="I83" s="11" t="s">
@@ -8187,16 +8145,16 @@
         <v>91</v>
       </c>
       <c r="C84" s="67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D84" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E84" s="11" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="G84" s="9" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="H84" s="9"/>
       <c r="I84" s="11" t="s">
@@ -8208,16 +8166,16 @@
         <v>91</v>
       </c>
       <c r="C85" s="67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D85" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E85" s="11" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="G85" s="9" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="H85" s="9"/>
       <c r="I85" s="11" t="s">
@@ -8229,17 +8187,17 @@
         <v>91</v>
       </c>
       <c r="C86" s="67" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="D86" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E86" s="70" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="F86" s="70"/>
       <c r="G86" s="9" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="H86" s="9"/>
       <c r="I86" s="11" t="s">
@@ -8251,16 +8209,16 @@
         <v>91</v>
       </c>
       <c r="C87" s="67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D87" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E87" s="11" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="G87" s="9" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="H87" s="9"/>
       <c r="I87" s="11" t="s">
@@ -8272,16 +8230,16 @@
         <v>91</v>
       </c>
       <c r="C88" s="67" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="D88" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E88" s="11" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="G88" s="9" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="H88" s="9"/>
       <c r="I88" s="11" t="s">
@@ -8293,16 +8251,16 @@
         <v>91</v>
       </c>
       <c r="C89" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D89" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E89" s="11" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="G89" s="9" t="s">
-        <v>385</v>
+        <v>386</v>
       </c>
       <c r="H89" s="9"/>
       <c r="I89" s="11" t="s">
@@ -8314,19 +8272,19 @@
         <v>91</v>
       </c>
       <c r="C90" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D90" s="11" t="s">
         <v>10</v>
       </c>
       <c r="E90" s="11" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="G90" s="9" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="H90" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I90" s="11" t="s">
         <v>42</v>
@@ -8337,19 +8295,19 @@
         <v>91</v>
       </c>
       <c r="C91" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D91" s="68" t="s">
         <v>10</v>
       </c>
       <c r="E91" s="11" t="s">
+        <v>389</v>
+      </c>
+      <c r="G91" s="36" t="s">
+        <v>390</v>
+      </c>
+      <c r="H91" s="9" t="s">
         <v>388</v>
-      </c>
-      <c r="G91" s="36" t="s">
-        <v>389</v>
-      </c>
-      <c r="H91" s="9" t="s">
-        <v>387</v>
       </c>
       <c r="I91" s="11" t="s">
         <v>42</v>
@@ -8360,19 +8318,19 @@
         <v>91</v>
       </c>
       <c r="C92" s="67" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="D92" s="68" t="s">
         <v>10</v>
       </c>
       <c r="E92" s="11" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G92" s="36" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H92" s="9" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="I92" s="11" t="s">
         <v>42</v>
@@ -8389,10 +8347,10 @@
         <v>6</v>
       </c>
       <c r="E93" s="11" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="G93" s="36" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="H93" s="9"/>
       <c r="I93" s="11" t="s">
@@ -8410,10 +8368,10 @@
         <v>6</v>
       </c>
       <c r="E94" s="11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="G94" s="36" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="H94" s="9"/>
       <c r="I94" s="11" t="s">
@@ -8431,10 +8389,10 @@
         <v>6</v>
       </c>
       <c r="E95" s="11" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="G95" s="36" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="H95" s="9"/>
       <c r="I95" s="11" t="s">
@@ -8452,10 +8410,10 @@
         <v>6</v>
       </c>
       <c r="E96" s="11" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="G96" s="36" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="H96" s="9"/>
       <c r="I96" s="11" t="s">
@@ -8473,10 +8431,10 @@
         <v>6</v>
       </c>
       <c r="E97" s="11" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="G97" s="36" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="H97" s="9"/>
       <c r="I97" s="11" t="s">
@@ -8494,10 +8452,10 @@
         <v>6</v>
       </c>
       <c r="E98" s="11" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="G98" s="9" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="H98" s="9"/>
       <c r="I98" s="11" t="s">
@@ -8509,16 +8467,16 @@
         <v>91</v>
       </c>
       <c r="C99" s="67" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="D99" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E99" s="11" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="G99" s="9" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="H99" s="9"/>
       <c r="I99" s="11" t="s">
@@ -8530,20 +8488,20 @@
         <v>91</v>
       </c>
       <c r="C100" s="67" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D100" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E100" s="67" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="F100" s="67"/>
       <c r="G100" s="35" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="H100" s="35" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="I100" s="67" t="s">
         <v>42</v>
@@ -8560,14 +8518,14 @@
         <v>6</v>
       </c>
       <c r="E101" s="67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F101" s="67"/>
       <c r="G101" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H101" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I101" s="67" t="s">
         <v>42</v>
@@ -8584,14 +8542,14 @@
         <v>6</v>
       </c>
       <c r="E102" s="67" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="F102" s="67"/>
       <c r="G102" s="35" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="H102" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I102" s="67" t="s">
         <v>42</v>
@@ -8608,14 +8566,14 @@
         <v>6</v>
       </c>
       <c r="E103" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F103" s="67"/>
       <c r="G103" s="35" t="s">
+        <v>400</v>
+      </c>
+      <c r="H103" s="35" t="s">
         <v>399</v>
-      </c>
-      <c r="H103" s="35" t="s">
-        <v>398</v>
       </c>
       <c r="I103" s="67" t="s">
         <v>42</v>
@@ -8632,14 +8590,14 @@
         <v>6</v>
       </c>
       <c r="E104" s="67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F104" s="67"/>
       <c r="G104" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H104" s="35" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="I104" s="67" t="s">
         <v>42</v>
@@ -8650,17 +8608,17 @@
         <v>38</v>
       </c>
       <c r="C105" s="67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D105" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E105" s="67" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="F105" s="67"/>
       <c r="G105" s="35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H105" s="35"/>
       <c r="I105" s="67" t="s">
@@ -8672,20 +8630,20 @@
         <v>38</v>
       </c>
       <c r="C106" s="67" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D106" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E106" s="67" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="F106" s="67"/>
       <c r="G106" s="35" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="H106" s="35" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="I106" s="67" t="s">
         <v>42</v>
@@ -8696,17 +8654,17 @@
         <v>38</v>
       </c>
       <c r="C107" s="67" t="s">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D107" s="67" t="s">
         <v>6</v>
       </c>
       <c r="E107" s="67" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="F107" s="67"/>
       <c r="G107" s="35" t="s">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="H107" s="35"/>
       <c r="I107" s="67" t="s">
@@ -8724,11 +8682,11 @@
         <v>6</v>
       </c>
       <c r="E108" s="67" t="s">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="F108" s="67"/>
       <c r="G108" s="35" t="s">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="H108" s="35"/>
       <c r="I108" s="67" t="s">
@@ -8746,11 +8704,11 @@
         <v>6</v>
       </c>
       <c r="E109" s="67" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="F109" s="67"/>
       <c r="G109" s="35" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="H109" s="35"/>
       <c r="I109" s="67" t="s">
@@ -8768,11 +8726,11 @@
         <v>6</v>
       </c>
       <c r="E110" s="67" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="F110" s="67"/>
       <c r="G110" s="35" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="H110" s="35"/>
       <c r="I110" s="67" t="s">
@@ -8790,11 +8748,11 @@
         <v>6</v>
       </c>
       <c r="E111" s="67" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="F111" s="67"/>
       <c r="G111" s="35" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="H111" s="35"/>
       <c r="I111" s="67" t="s">
@@ -8806,19 +8764,19 @@
         <v>38</v>
       </c>
       <c r="C112" s="11" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="D112" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E112" s="11" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="G112" s="36" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="H112" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I112" s="11" t="s">
         <v>42</v>
@@ -8829,19 +8787,19 @@
         <v>38</v>
       </c>
       <c r="C113" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D113" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E113" s="11" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="G113" s="36" t="s">
         <v>417</v>
       </c>
       <c r="H113" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I113" s="11" t="s">
         <v>42</v>
@@ -8852,19 +8810,19 @@
         <v>38</v>
       </c>
       <c r="C114" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D114" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E114" s="11" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="G114" s="36" t="s">
         <v>418</v>
       </c>
       <c r="H114" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I114" s="11" t="s">
         <v>42</v>
@@ -8875,19 +8833,19 @@
         <v>38</v>
       </c>
       <c r="C115" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D115" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E115" s="11" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="G115" s="36" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="H115" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I115" s="11" t="s">
         <v>42</v>
@@ -8898,19 +8856,19 @@
         <v>38</v>
       </c>
       <c r="C116" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="D116" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E116" s="11" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="G116" s="36" t="s">
         <v>419</v>
       </c>
       <c r="H116" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I116" s="11" t="s">
         <v>42</v>
@@ -8927,13 +8885,13 @@
         <v>6</v>
       </c>
       <c r="E117" s="11" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="G117" s="36" t="s">
         <v>421</v>
       </c>
       <c r="H117" s="36" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="I117" s="11" t="s">
         <v>42</v>
@@ -8950,7 +8908,7 @@
         <v>6</v>
       </c>
       <c r="E118" s="11" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="G118" s="9" t="s">
         <v>423</v>
@@ -8973,7 +8931,7 @@
         <v>6</v>
       </c>
       <c r="E119" s="11" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="G119" s="9" t="s">
         <v>425</v>
@@ -8990,13 +8948,13 @@
         <v>38</v>
       </c>
       <c r="C120" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D120" s="68" t="s">
         <v>6</v>
       </c>
       <c r="E120" s="68" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="G120" s="36" t="s">
         <v>427</v>
@@ -9011,7 +8969,7 @@
         <v>38</v>
       </c>
       <c r="C121" s="67" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D121" s="68" t="s">
         <v>6</v>
@@ -9032,13 +8990,13 @@
         <v>38</v>
       </c>
       <c r="C122" s="11" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="D122" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E122" s="11" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="G122" s="9" t="s">
         <v>430</v>
@@ -9053,13 +9011,13 @@
         <v>38</v>
       </c>
       <c r="C123" s="11" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="D123" s="11" t="s">
         <v>6</v>
       </c>
       <c r="E123" s="11" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>431</v>
@@ -9077,7 +9035,7 @@
         <v>6</v>
       </c>
       <c r="E124" s="11" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="G124" s="9" t="s">
         <v>432</v>
@@ -9234,7 +9192,7 @@
         <v>434</v>
       </c>
       <c r="C3" s="74" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="D3" s="74" t="s">
         <v>435</v>
@@ -9476,19 +9434,19 @@
     </row>
     <row r="18" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B18" s="81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C18" s="82" t="s">
         <v>471</v>
       </c>
       <c r="G18" s="81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H18" s="83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I18" s="82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="L18" s="44"/>
     </row>
@@ -9560,19 +9518,19 @@
     </row>
     <row r="25" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B25" s="81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C25" s="82" t="s">
         <v>474</v>
       </c>
       <c r="G25" s="81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H25" s="83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I25" s="82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="26" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9653,7 +9611,7 @@
     </row>
     <row r="33" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B33" s="81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C33" s="83" t="s">
         <v>477</v>
@@ -9665,13 +9623,13 @@
         <v>479</v>
       </c>
       <c r="G33" s="81" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="H33" s="83" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="I33" s="82" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -9781,7 +9739,7 @@
     </row>
     <row r="3" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B3" s="44" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C3" s="44" t="s">
         <v>486</v>
